--- a/My_Road.xlsx
+++ b/My_Road.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phill\wsl_share_folder\python_jupyter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB99127F-0ED5-42A0-9920-E7BD8C368DC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58CAAF0-4BFD-4EAB-BFBA-F37F700220B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5160" yWindow="3060" windowWidth="17685" windowHeight="10185" activeTab="1" xr2:uid="{2E3D5B4E-200F-40C0-9AC0-5A6D59069395}"/>
   </bookViews>
   <sheets>
     <sheet name="space_repetition" sheetId="2" r:id="rId1"/>
-    <sheet name="Tasks" sheetId="1" r:id="rId2"/>
+    <sheet name="Resource" sheetId="1" r:id="rId2"/>
     <sheet name="Pytyhon Data Structure" sheetId="3" r:id="rId3"/>
     <sheet name="Master Code" sheetId="6" r:id="rId4"/>
     <sheet name="Tools" sheetId="7" r:id="rId5"/>
@@ -24,6 +24,7 @@
     <sheet name="Design" sheetId="11" r:id="rId9"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Resource!$A$1:$E$155</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">space_repetition!$A$1:$N$362</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1483" uniqueCount="736">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1527" uniqueCount="752">
   <si>
     <t>Topic</t>
   </si>
@@ -56,9 +57,6 @@
     <t>reference</t>
   </si>
   <si>
-    <t>Python 算法</t>
-  </si>
-  <si>
     <t>staticmethod, classemethod</t>
   </si>
   <si>
@@ -128,9 +126,6 @@
     <t>Problem Solving with Algorithms and Data Structure</t>
   </si>
   <si>
-    <t>大数据</t>
-  </si>
-  <si>
     <t>hadoop</t>
   </si>
   <si>
@@ -1505,15 +1500,6 @@
     <t>Algo.md</t>
   </si>
   <si>
-    <t>js basic笔记复习和整理</t>
-  </si>
-  <si>
-    <t>完成Udemy Python视频</t>
-  </si>
-  <si>
-    <t>完成Linux Academy python视频</t>
-  </si>
-  <si>
     <t>Drawing Book</t>
   </si>
   <si>
@@ -1904,9 +1890,6 @@
     <t>Urllib</t>
   </si>
   <si>
-    <t>https://zxi.mytechroad.com/blog/category/difficulty/medium/</t>
-  </si>
-  <si>
     <t>blog</t>
   </si>
   <si>
@@ -2253,6 +2236,72 @@
   </si>
   <si>
     <t>write blog</t>
+  </si>
+  <si>
+    <t>https://www.guru99.com/</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/</t>
+  </si>
+  <si>
+    <t>https://www.codechef.com/</t>
+  </si>
+  <si>
+    <t>site</t>
+  </si>
+  <si>
+    <t>https://testdriven.io/</t>
+  </si>
+  <si>
+    <t>Big Data</t>
+  </si>
+  <si>
+    <t>web</t>
+  </si>
+  <si>
+    <t>Html Template</t>
+  </si>
+  <si>
+    <t>test.io tutor</t>
+  </si>
+  <si>
+    <t>python java blog</t>
+  </si>
+  <si>
+    <t>Tools</t>
+  </si>
+  <si>
+    <t>https://realpython.com/</t>
+  </si>
+  <si>
+    <t>https://www.codewars.com/</t>
+  </si>
+  <si>
+    <t>https://www.w3schools.com/</t>
+  </si>
+  <si>
+    <t>python SAAS</t>
+  </si>
+  <si>
+    <t>中文 python</t>
+  </si>
+  <si>
+    <t>React Fundamentals</t>
+  </si>
+  <si>
+    <t>Javascript tutorial</t>
+  </si>
+  <si>
+    <t>Javascript projects</t>
+  </si>
+  <si>
+    <t>python django projects</t>
+  </si>
+  <si>
+    <t>vidoe</t>
+  </si>
+  <si>
+    <t>very good paid python project</t>
   </si>
 </sst>
 </file>
@@ -2759,51 +2808,51 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="D2" s="4">
         <f>DATE(2020,10,10)</f>
@@ -2838,19 +2887,19 @@
         <v>44409</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M2" s="2"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D3" s="4">
         <f>DATE(2020,10,10)</f>
@@ -2885,18 +2934,18 @@
         <v>44409</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D4" s="4">
         <f>DATE(2020,10,10)</f>
@@ -2931,21 +2980,21 @@
         <v>44409</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ref="D5:D25" si="7">DATE(2020,10,11)</f>
@@ -2980,21 +3029,21 @@
         <v>44410</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D6" s="4">
         <f t="shared" si="7"/>
@@ -3029,24 +3078,24 @@
         <v>44410</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" si="7"/>
@@ -3081,21 +3130,21 @@
         <v>44410</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" si="7"/>
@@ -3130,21 +3179,21 @@
         <v>44410</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" si="7"/>
@@ -3179,21 +3228,21 @@
         <v>44410</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" si="7"/>
@@ -3228,18 +3277,18 @@
         <v>44410</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" si="7"/>
@@ -3274,18 +3323,18 @@
         <v>44410</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" si="7"/>
@@ -3320,18 +3369,18 @@
         <v>44410</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" si="7"/>
@@ -3366,18 +3415,18 @@
         <v>44410</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" si="7"/>
@@ -3412,18 +3461,18 @@
         <v>44410</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" si="7"/>
@@ -3458,18 +3507,18 @@
         <v>44410</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D16" s="11">
         <f t="shared" si="7"/>
@@ -3489,18 +3538,18 @@
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
       <c r="L16" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D17" s="11">
         <f t="shared" si="7"/>
@@ -3520,18 +3569,18 @@
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
       <c r="L17" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" si="7"/>
@@ -3566,21 +3615,21 @@
         <v>44410</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M18" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" si="7"/>
@@ -3615,21 +3664,21 @@
         <v>44410</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" si="7"/>
@@ -3664,21 +3713,21 @@
         <v>44410</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M20" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D21" s="11">
         <f t="shared" si="7"/>
@@ -3698,21 +3747,21 @@
       <c r="J21" s="11"/>
       <c r="K21" s="11"/>
       <c r="L21" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M21" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D22" s="11">
         <f t="shared" si="7"/>
@@ -3732,18 +3781,18 @@
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
       <c r="L22" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" si="7"/>
@@ -3778,18 +3827,18 @@
         <v>44410</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" si="7"/>
@@ -3824,21 +3873,21 @@
         <v>44410</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M24" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D25" s="4">
         <f t="shared" si="7"/>
@@ -3873,21 +3922,21 @@
         <v>44410</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M25" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D26" s="7">
         <v>44116</v>
@@ -3921,21 +3970,21 @@
         <v>44411</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M26" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D27" s="7">
         <v>44116</v>
@@ -3969,18 +4018,18 @@
         <v>44411</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D28" s="7">
         <v>44116</v>
@@ -4014,21 +4063,21 @@
         <v>44411</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M28" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D29" s="7">
         <v>44116</v>
@@ -4062,21 +4111,21 @@
         <v>44411</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M29" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D30" s="7">
         <v>44116</v>
@@ -4110,21 +4159,21 @@
         <v>44411</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M30" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D31" s="12">
         <v>44116</v>
@@ -4143,21 +4192,21 @@
       <c r="J31" s="11"/>
       <c r="K31" s="11"/>
       <c r="L31" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N31" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D32" s="7">
         <v>44116</v>
@@ -4191,21 +4240,21 @@
         <v>44411</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M32" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D33" s="12">
         <v>44116</v>
@@ -4224,18 +4273,18 @@
       <c r="J33" s="11"/>
       <c r="K33" s="11"/>
       <c r="L33" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D34" s="7">
         <v>44116</v>
@@ -4269,21 +4318,21 @@
         <v>44411</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M34" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D35" s="7">
         <v>44116</v>
@@ -4317,21 +4366,21 @@
         <v>44411</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M35" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D36" s="12">
         <v>44116</v>
@@ -4350,21 +4399,21 @@
       <c r="J36" s="11"/>
       <c r="K36" s="11"/>
       <c r="L36" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M36" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D37" s="12">
         <v>44116</v>
@@ -4383,18 +4432,18 @@
       <c r="J37" s="11"/>
       <c r="K37" s="11"/>
       <c r="L37" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D38" s="12">
         <v>44116</v>
@@ -4413,18 +4462,18 @@
       <c r="J38" s="11"/>
       <c r="K38" s="11"/>
       <c r="L38" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D39" s="12">
         <v>44116</v>
@@ -4443,18 +4492,18 @@
       <c r="J39" s="11"/>
       <c r="K39" s="11"/>
       <c r="L39" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D40" s="12">
         <v>44116</v>
@@ -4473,18 +4522,18 @@
       <c r="J40" s="11"/>
       <c r="K40" s="11"/>
       <c r="L40" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D41" s="12">
         <v>44116</v>
@@ -4503,21 +4552,21 @@
       <c r="J41" s="11"/>
       <c r="K41" s="11"/>
       <c r="L41" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M41" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D42" s="7">
         <v>44116</v>
@@ -4551,18 +4600,18 @@
         <v>44411</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D43" s="7">
         <v>44116</v>
@@ -4596,18 +4645,18 @@
         <v>44411</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D44" s="12">
         <v>44116</v>
@@ -4626,18 +4675,18 @@
       <c r="J44" s="11"/>
       <c r="K44" s="11"/>
       <c r="L44" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D45" s="12">
         <v>44116</v>
@@ -4656,18 +4705,18 @@
       <c r="J45" s="11"/>
       <c r="K45" s="11"/>
       <c r="L45" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D46" s="12">
         <v>44116</v>
@@ -4686,18 +4735,18 @@
       <c r="J46" s="11"/>
       <c r="K46" s="11"/>
       <c r="L46" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D47" s="7">
         <v>44117</v>
@@ -4731,18 +4780,18 @@
         <v>44412</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D48" s="7">
         <v>44117</v>
@@ -4776,18 +4825,18 @@
         <v>44412</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D49" s="7">
         <v>44117</v>
@@ -4821,18 +4870,18 @@
         <v>44412</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D50" s="7">
         <v>44117</v>
@@ -4866,18 +4915,18 @@
         <v>44412</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D51" s="12">
         <v>44117</v>
@@ -4896,21 +4945,21 @@
       <c r="J51" s="11"/>
       <c r="K51" s="11"/>
       <c r="L51" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M51" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D52" s="12">
         <v>44117</v>
@@ -4929,21 +4978,21 @@
       <c r="J52" s="11"/>
       <c r="K52" s="11"/>
       <c r="L52" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M52" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D53" s="7">
         <v>44117</v>
@@ -4977,21 +5026,21 @@
         <v>44412</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M53" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D54" s="7">
         <v>44117</v>
@@ -5025,21 +5074,21 @@
         <v>44412</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M54" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D55" s="7">
         <v>44117</v>
@@ -5073,18 +5122,18 @@
         <v>44412</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D56" s="7">
         <v>44117</v>
@@ -5118,21 +5167,21 @@
         <v>44412</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M56" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D57" s="12">
         <v>44117</v>
@@ -5151,21 +5200,21 @@
       <c r="J57" s="11"/>
       <c r="K57" s="11"/>
       <c r="L57" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M57" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D58" s="7">
         <v>44117</v>
@@ -5199,21 +5248,21 @@
         <v>44412</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M58" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D59" s="7">
         <v>44117</v>
@@ -5247,21 +5296,21 @@
         <v>44412</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M59" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D60" s="7">
         <v>44117</v>
@@ -5295,21 +5344,21 @@
         <v>44412</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M60" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D61" s="7">
         <v>44117</v>
@@ -5343,21 +5392,21 @@
         <v>44412</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M61" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D62" s="7">
         <v>44117</v>
@@ -5391,21 +5440,21 @@
         <v>44412</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M62" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D63" s="7">
         <v>44117</v>
@@ -5439,18 +5488,18 @@
         <v>44412</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D64" s="7">
         <v>44117</v>
@@ -5484,21 +5533,21 @@
         <v>44412</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M64" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D65" s="7">
         <v>44117</v>
@@ -5532,21 +5581,21 @@
         <v>44412</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M65" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D66" s="7">
         <v>44117</v>
@@ -5580,21 +5629,21 @@
         <v>44412</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M66" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D67" s="7">
         <v>44117</v>
@@ -5628,21 +5677,21 @@
         <v>44412</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M67" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D68" s="7">
         <v>44117</v>
@@ -5676,21 +5725,21 @@
         <v>44412</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M68" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D69" s="7">
         <v>44117</v>
@@ -5724,18 +5773,18 @@
         <v>44412</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D70" s="7">
         <v>44117</v>
@@ -5769,21 +5818,21 @@
         <v>44412</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M70" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D71" s="7">
         <v>44117</v>
@@ -5817,21 +5866,21 @@
         <v>44412</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M71" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D72" s="7">
         <v>44117</v>
@@ -5865,21 +5914,21 @@
         <v>44412</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M72" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D73" s="7">
         <v>44117</v>
@@ -5913,21 +5962,21 @@
         <v>44412</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M73" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D74" s="7">
         <v>44117</v>
@@ -5961,21 +6010,21 @@
         <v>44412</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M74" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D75" s="7">
         <v>44117</v>
@@ -6009,21 +6058,21 @@
         <v>44412</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M75" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D76" s="7">
         <v>44117</v>
@@ -6057,21 +6106,21 @@
         <v>44412</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M76" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D77" s="7">
         <v>44118</v>
@@ -6105,18 +6154,18 @@
         <v>44413</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D78" s="7">
         <v>44118</v>
@@ -6151,18 +6200,18 @@
       </c>
       <c r="L78" s="2"/>
       <c r="N78" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D79" s="7">
         <v>44120</v>
@@ -6199,13 +6248,13 @@
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D80" s="7">
         <v>44122</v>
@@ -6242,13 +6291,13 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D81" s="7">
         <v>44122</v>
@@ -6285,13 +6334,13 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D82" s="7">
         <v>44122</v>
@@ -6328,13 +6377,13 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D83" s="7">
         <v>44122</v>
@@ -6371,13 +6420,13 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D84" s="7">
         <v>44122</v>
@@ -6414,10 +6463,10 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D85" s="1">
         <v>44123</v>
@@ -6454,13 +6503,13 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="D86" s="1">
         <v>44123</v>
@@ -6494,18 +6543,18 @@
         <v>44418</v>
       </c>
       <c r="L86" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="D87" s="1">
         <v>44124</v>
@@ -6539,18 +6588,18 @@
         <v>44419</v>
       </c>
       <c r="L87" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="D88" s="1">
         <v>44125</v>
@@ -6584,18 +6633,18 @@
         <v>44420</v>
       </c>
       <c r="L88" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="D89" s="1">
         <v>44126</v>
@@ -6629,18 +6678,18 @@
         <v>44421</v>
       </c>
       <c r="L89" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="D90" s="1">
         <v>44126</v>
@@ -6674,18 +6723,18 @@
         <v>44421</v>
       </c>
       <c r="L90" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="D91" s="1">
         <v>44126</v>
@@ -6719,18 +6768,18 @@
         <v>44421</v>
       </c>
       <c r="L91" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="D92" s="1">
         <v>44126</v>
@@ -6764,18 +6813,18 @@
         <v>44421</v>
       </c>
       <c r="L92" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="D93" s="1">
         <v>44128</v>
@@ -6809,12 +6858,12 @@
         <v>44423</v>
       </c>
       <c r="L93" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C94" s="2" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="E94" s="3">
         <f t="shared" si="34"/>
@@ -6845,15 +6894,15 @@
         <v>295</v>
       </c>
       <c r="L94" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B95" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="E95" s="3">
         <f t="shared" si="34"/>
@@ -6884,12 +6933,12 @@
         <v>295</v>
       </c>
       <c r="L95" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C96" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="D96" s="1">
         <v>44133</v>
@@ -6923,7 +6972,7 @@
         <v>44428</v>
       </c>
       <c r="L96" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="97" spans="5:12" x14ac:dyDescent="0.25">
@@ -6956,7 +7005,7 @@
         <v>295</v>
       </c>
       <c r="L97" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="98" spans="5:12" x14ac:dyDescent="0.25">
@@ -6989,7 +7038,7 @@
         <v>295</v>
       </c>
       <c r="L98" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="99" spans="5:12" x14ac:dyDescent="0.25">
@@ -7022,7 +7071,7 @@
         <v>295</v>
       </c>
       <c r="L99" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="100" spans="5:12" x14ac:dyDescent="0.25">
@@ -7055,7 +7104,7 @@
         <v>295</v>
       </c>
       <c r="L100" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="101" spans="5:12" x14ac:dyDescent="0.25">
@@ -7088,7 +7137,7 @@
         <v>295</v>
       </c>
       <c r="L101" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="102" spans="5:12" x14ac:dyDescent="0.25">
@@ -7121,7 +7170,7 @@
         <v>295</v>
       </c>
       <c r="L102" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="103" spans="5:12" x14ac:dyDescent="0.25">
@@ -7154,7 +7203,7 @@
         <v>295</v>
       </c>
       <c r="L103" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="104" spans="5:12" x14ac:dyDescent="0.25">
@@ -7187,7 +7236,7 @@
         <v>295</v>
       </c>
       <c r="L104" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="105" spans="5:12" x14ac:dyDescent="0.25">
@@ -7220,7 +7269,7 @@
         <v>295</v>
       </c>
       <c r="L105" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="106" spans="5:12" x14ac:dyDescent="0.25">
@@ -7253,7 +7302,7 @@
         <v>295</v>
       </c>
       <c r="L106" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="107" spans="5:12" x14ac:dyDescent="0.25">
@@ -7286,7 +7335,7 @@
         <v>295</v>
       </c>
       <c r="L107" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="108" spans="5:12" x14ac:dyDescent="0.25">
@@ -7319,7 +7368,7 @@
         <v>295</v>
       </c>
       <c r="L108" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="109" spans="5:12" x14ac:dyDescent="0.25">
@@ -7352,7 +7401,7 @@
         <v>295</v>
       </c>
       <c r="L109" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="110" spans="5:12" x14ac:dyDescent="0.25">
@@ -7385,7 +7434,7 @@
         <v>295</v>
       </c>
       <c r="L110" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="111" spans="5:12" x14ac:dyDescent="0.25">
@@ -7418,7 +7467,7 @@
         <v>295</v>
       </c>
       <c r="L111" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="112" spans="5:12" x14ac:dyDescent="0.25">
@@ -7451,7 +7500,7 @@
         <v>295</v>
       </c>
       <c r="L112" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="113" spans="5:12" x14ac:dyDescent="0.25">
@@ -7484,7 +7533,7 @@
         <v>295</v>
       </c>
       <c r="L113" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="114" spans="5:12" x14ac:dyDescent="0.25">
@@ -7517,7 +7566,7 @@
         <v>295</v>
       </c>
       <c r="L114" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="115" spans="5:12" x14ac:dyDescent="0.25">
@@ -7550,7 +7599,7 @@
         <v>295</v>
       </c>
       <c r="L115" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="116" spans="5:12" x14ac:dyDescent="0.25">
@@ -7583,7 +7632,7 @@
         <v>295</v>
       </c>
       <c r="L116" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="117" spans="5:12" x14ac:dyDescent="0.25">
@@ -7616,7 +7665,7 @@
         <v>295</v>
       </c>
       <c r="L117" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="118" spans="5:12" x14ac:dyDescent="0.25">
@@ -7649,7 +7698,7 @@
         <v>295</v>
       </c>
       <c r="L118" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="119" spans="5:12" x14ac:dyDescent="0.25">
@@ -7682,7 +7731,7 @@
         <v>295</v>
       </c>
       <c r="L119" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="120" spans="5:12" x14ac:dyDescent="0.25">
@@ -7715,7 +7764,7 @@
         <v>295</v>
       </c>
       <c r="L120" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="121" spans="5:12" x14ac:dyDescent="0.25">
@@ -7748,7 +7797,7 @@
         <v>295</v>
       </c>
       <c r="L121" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="122" spans="5:12" x14ac:dyDescent="0.25">
@@ -7781,7 +7830,7 @@
         <v>295</v>
       </c>
       <c r="L122" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="123" spans="5:12" x14ac:dyDescent="0.25">
@@ -7814,7 +7863,7 @@
         <v>295</v>
       </c>
       <c r="L123" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="124" spans="5:12" x14ac:dyDescent="0.25">
@@ -7847,7 +7896,7 @@
         <v>295</v>
       </c>
       <c r="L124" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="125" spans="5:12" x14ac:dyDescent="0.25">
@@ -7880,7 +7929,7 @@
         <v>295</v>
       </c>
       <c r="L125" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="126" spans="5:12" x14ac:dyDescent="0.25">
@@ -7913,7 +7962,7 @@
         <v>295</v>
       </c>
       <c r="L126" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="127" spans="5:12" x14ac:dyDescent="0.25">
@@ -7946,7 +7995,7 @@
         <v>295</v>
       </c>
       <c r="L127" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="128" spans="5:12" x14ac:dyDescent="0.25">
@@ -7979,7 +8028,7 @@
         <v>295</v>
       </c>
       <c r="L128" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="129" spans="5:12" x14ac:dyDescent="0.25">
@@ -8012,7 +8061,7 @@
         <v>295</v>
       </c>
       <c r="L129" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="130" spans="5:12" x14ac:dyDescent="0.25">
@@ -8045,7 +8094,7 @@
         <v>295</v>
       </c>
       <c r="L130" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="131" spans="5:12" x14ac:dyDescent="0.25">
@@ -8078,7 +8127,7 @@
         <v>295</v>
       </c>
       <c r="L131" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="132" spans="5:12" x14ac:dyDescent="0.25">
@@ -8111,7 +8160,7 @@
         <v>295</v>
       </c>
       <c r="L132" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="133" spans="5:12" x14ac:dyDescent="0.25">
@@ -8144,7 +8193,7 @@
         <v>295</v>
       </c>
       <c r="L133" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="134" spans="5:12" x14ac:dyDescent="0.25">
@@ -8177,7 +8226,7 @@
         <v>295</v>
       </c>
       <c r="L134" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="135" spans="5:12" x14ac:dyDescent="0.25">
@@ -8210,7 +8259,7 @@
         <v>295</v>
       </c>
       <c r="L135" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="136" spans="5:12" x14ac:dyDescent="0.25">
@@ -8243,7 +8292,7 @@
         <v>295</v>
       </c>
       <c r="L136" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="137" spans="5:12" x14ac:dyDescent="0.25">
@@ -8276,7 +8325,7 @@
         <v>295</v>
       </c>
       <c r="L137" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="138" spans="5:12" x14ac:dyDescent="0.25">
@@ -8309,7 +8358,7 @@
         <v>295</v>
       </c>
       <c r="L138" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="139" spans="5:12" x14ac:dyDescent="0.25">
@@ -8342,7 +8391,7 @@
         <v>295</v>
       </c>
       <c r="L139" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="140" spans="5:12" x14ac:dyDescent="0.25">
@@ -8375,7 +8424,7 @@
         <v>295</v>
       </c>
       <c r="L140" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="141" spans="5:12" x14ac:dyDescent="0.25">
@@ -8408,7 +8457,7 @@
         <v>295</v>
       </c>
       <c r="L141" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="142" spans="5:12" x14ac:dyDescent="0.25">
@@ -8441,7 +8490,7 @@
         <v>295</v>
       </c>
       <c r="L142" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="143" spans="5:12" x14ac:dyDescent="0.25">
@@ -8474,7 +8523,7 @@
         <v>295</v>
       </c>
       <c r="L143" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="144" spans="5:12" x14ac:dyDescent="0.25">
@@ -8507,7 +8556,7 @@
         <v>295</v>
       </c>
       <c r="L144" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="145" spans="5:12" x14ac:dyDescent="0.25">
@@ -8540,7 +8589,7 @@
         <v>295</v>
       </c>
       <c r="L145" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="146" spans="5:12" x14ac:dyDescent="0.25">
@@ -8573,7 +8622,7 @@
         <v>295</v>
       </c>
       <c r="L146" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="147" spans="5:12" x14ac:dyDescent="0.25">
@@ -8606,7 +8655,7 @@
         <v>295</v>
       </c>
       <c r="L147" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="148" spans="5:12" x14ac:dyDescent="0.25">
@@ -8639,7 +8688,7 @@
         <v>295</v>
       </c>
       <c r="L148" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="149" spans="5:12" x14ac:dyDescent="0.25">
@@ -8672,7 +8721,7 @@
         <v>295</v>
       </c>
       <c r="L149" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="150" spans="5:12" x14ac:dyDescent="0.25">
@@ -8705,7 +8754,7 @@
         <v>295</v>
       </c>
       <c r="L150" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="151" spans="5:12" x14ac:dyDescent="0.25">
@@ -8738,7 +8787,7 @@
         <v>295</v>
       </c>
       <c r="L151" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="152" spans="5:12" x14ac:dyDescent="0.25">
@@ -8771,7 +8820,7 @@
         <v>295</v>
       </c>
       <c r="L152" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="153" spans="5:12" x14ac:dyDescent="0.25">
@@ -8804,7 +8853,7 @@
         <v>295</v>
       </c>
       <c r="L153" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="154" spans="5:12" x14ac:dyDescent="0.25">
@@ -8837,7 +8886,7 @@
         <v>295</v>
       </c>
       <c r="L154" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="155" spans="5:12" x14ac:dyDescent="0.25">
@@ -8870,7 +8919,7 @@
         <v>295</v>
       </c>
       <c r="L155" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="156" spans="5:12" x14ac:dyDescent="0.25">
@@ -8903,7 +8952,7 @@
         <v>295</v>
       </c>
       <c r="L156" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="157" spans="5:12" x14ac:dyDescent="0.25">
@@ -8936,7 +8985,7 @@
         <v>295</v>
       </c>
       <c r="L157" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="158" spans="5:12" x14ac:dyDescent="0.25">
@@ -8969,7 +9018,7 @@
         <v>295</v>
       </c>
       <c r="L158" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="159" spans="5:12" x14ac:dyDescent="0.25">
@@ -9002,7 +9051,7 @@
         <v>295</v>
       </c>
       <c r="L159" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="160" spans="5:12" x14ac:dyDescent="0.25">
@@ -9035,7 +9084,7 @@
         <v>295</v>
       </c>
       <c r="L160" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="161" spans="5:12" x14ac:dyDescent="0.25">
@@ -9068,7 +9117,7 @@
         <v>295</v>
       </c>
       <c r="L161" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="162" spans="5:12" x14ac:dyDescent="0.25">
@@ -9101,7 +9150,7 @@
         <v>295</v>
       </c>
       <c r="L162" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="163" spans="5:12" x14ac:dyDescent="0.25">
@@ -9134,7 +9183,7 @@
         <v>295</v>
       </c>
       <c r="L163" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="164" spans="5:12" x14ac:dyDescent="0.25">
@@ -9167,7 +9216,7 @@
         <v>295</v>
       </c>
       <c r="L164" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="165" spans="5:12" x14ac:dyDescent="0.25">
@@ -9200,7 +9249,7 @@
         <v>295</v>
       </c>
       <c r="L165" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="166" spans="5:12" x14ac:dyDescent="0.25">
@@ -9233,7 +9282,7 @@
         <v>295</v>
       </c>
       <c r="L166" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="167" spans="5:12" x14ac:dyDescent="0.25">
@@ -9266,7 +9315,7 @@
         <v>295</v>
       </c>
       <c r="L167" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="168" spans="5:12" x14ac:dyDescent="0.25">
@@ -9299,7 +9348,7 @@
         <v>295</v>
       </c>
       <c r="L168" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="169" spans="5:12" x14ac:dyDescent="0.25">
@@ -9332,7 +9381,7 @@
         <v>295</v>
       </c>
       <c r="L169" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="170" spans="5:12" x14ac:dyDescent="0.25">
@@ -9365,7 +9414,7 @@
         <v>295</v>
       </c>
       <c r="L170" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="171" spans="5:12" x14ac:dyDescent="0.25">
@@ -9398,7 +9447,7 @@
         <v>295</v>
       </c>
       <c r="L171" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="172" spans="5:12" x14ac:dyDescent="0.25">
@@ -9431,7 +9480,7 @@
         <v>295</v>
       </c>
       <c r="L172" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="173" spans="5:12" x14ac:dyDescent="0.25">
@@ -9464,7 +9513,7 @@
         <v>295</v>
       </c>
       <c r="L173" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="174" spans="5:12" x14ac:dyDescent="0.25">
@@ -9497,7 +9546,7 @@
         <v>295</v>
       </c>
       <c r="L174" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="175" spans="5:12" x14ac:dyDescent="0.25">
@@ -9530,7 +9579,7 @@
         <v>295</v>
       </c>
       <c r="L175" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="176" spans="5:12" x14ac:dyDescent="0.25">
@@ -9563,7 +9612,7 @@
         <v>295</v>
       </c>
       <c r="L176" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="177" spans="5:12" x14ac:dyDescent="0.25">
@@ -9596,7 +9645,7 @@
         <v>295</v>
       </c>
       <c r="L177" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="178" spans="5:12" x14ac:dyDescent="0.25">
@@ -9629,7 +9678,7 @@
         <v>295</v>
       </c>
       <c r="L178" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="179" spans="5:12" x14ac:dyDescent="0.25">
@@ -9662,7 +9711,7 @@
         <v>295</v>
       </c>
       <c r="L179" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="180" spans="5:12" x14ac:dyDescent="0.25">
@@ -9695,7 +9744,7 @@
         <v>295</v>
       </c>
       <c r="L180" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="181" spans="5:12" x14ac:dyDescent="0.25">
@@ -9728,7 +9777,7 @@
         <v>295</v>
       </c>
       <c r="L181" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="182" spans="5:12" x14ac:dyDescent="0.25">
@@ -9761,7 +9810,7 @@
         <v>295</v>
       </c>
       <c r="L182" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="183" spans="5:12" x14ac:dyDescent="0.25">
@@ -9794,7 +9843,7 @@
         <v>295</v>
       </c>
       <c r="L183" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="184" spans="5:12" x14ac:dyDescent="0.25">
@@ -9827,7 +9876,7 @@
         <v>295</v>
       </c>
       <c r="L184" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="185" spans="5:12" x14ac:dyDescent="0.25">
@@ -9860,7 +9909,7 @@
         <v>295</v>
       </c>
       <c r="L185" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="186" spans="5:12" x14ac:dyDescent="0.25">
@@ -9893,7 +9942,7 @@
         <v>295</v>
       </c>
       <c r="L186" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="187" spans="5:12" x14ac:dyDescent="0.25">
@@ -9926,7 +9975,7 @@
         <v>295</v>
       </c>
       <c r="L187" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="188" spans="5:12" x14ac:dyDescent="0.25">
@@ -9959,7 +10008,7 @@
         <v>295</v>
       </c>
       <c r="L188" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="189" spans="5:12" x14ac:dyDescent="0.25">
@@ -9992,7 +10041,7 @@
         <v>295</v>
       </c>
       <c r="L189" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="190" spans="5:12" x14ac:dyDescent="0.25">
@@ -10025,7 +10074,7 @@
         <v>295</v>
       </c>
       <c r="L190" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="191" spans="5:12" x14ac:dyDescent="0.25">
@@ -10058,7 +10107,7 @@
         <v>295</v>
       </c>
       <c r="L191" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="192" spans="5:12" x14ac:dyDescent="0.25">
@@ -10091,7 +10140,7 @@
         <v>295</v>
       </c>
       <c r="L192" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="193" spans="5:12" x14ac:dyDescent="0.25">
@@ -10124,7 +10173,7 @@
         <v>295</v>
       </c>
       <c r="L193" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="194" spans="5:12" x14ac:dyDescent="0.25">
@@ -10157,7 +10206,7 @@
         <v>295</v>
       </c>
       <c r="L194" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="195" spans="5:12" x14ac:dyDescent="0.25">
@@ -10190,7 +10239,7 @@
         <v>295</v>
       </c>
       <c r="L195" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="196" spans="5:12" x14ac:dyDescent="0.25">
@@ -10223,7 +10272,7 @@
         <v>295</v>
       </c>
       <c r="L196" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="197" spans="5:12" x14ac:dyDescent="0.25">
@@ -10256,7 +10305,7 @@
         <v>295</v>
       </c>
       <c r="L197" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="198" spans="5:12" x14ac:dyDescent="0.25">
@@ -10289,7 +10338,7 @@
         <v>295</v>
       </c>
       <c r="L198" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="199" spans="5:12" x14ac:dyDescent="0.25">
@@ -10322,7 +10371,7 @@
         <v>295</v>
       </c>
       <c r="L199" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="200" spans="5:12" x14ac:dyDescent="0.25">
@@ -10355,7 +10404,7 @@
         <v>295</v>
       </c>
       <c r="L200" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="201" spans="5:12" x14ac:dyDescent="0.25">
@@ -10388,7 +10437,7 @@
         <v>295</v>
       </c>
       <c r="L201" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="202" spans="5:12" x14ac:dyDescent="0.25">
@@ -10421,7 +10470,7 @@
         <v>295</v>
       </c>
       <c r="L202" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="203" spans="5:12" x14ac:dyDescent="0.25">
@@ -10454,7 +10503,7 @@
         <v>295</v>
       </c>
       <c r="L203" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="204" spans="5:12" x14ac:dyDescent="0.25">
@@ -10487,7 +10536,7 @@
         <v>295</v>
       </c>
       <c r="L204" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="205" spans="5:12" x14ac:dyDescent="0.25">
@@ -10520,7 +10569,7 @@
         <v>295</v>
       </c>
       <c r="L205" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="206" spans="5:12" x14ac:dyDescent="0.25">
@@ -10553,7 +10602,7 @@
         <v>295</v>
       </c>
       <c r="L206" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="207" spans="5:12" x14ac:dyDescent="0.25">
@@ -10586,7 +10635,7 @@
         <v>295</v>
       </c>
       <c r="L207" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="208" spans="5:12" x14ac:dyDescent="0.25">
@@ -10619,7 +10668,7 @@
         <v>295</v>
       </c>
       <c r="L208" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="209" spans="5:12" x14ac:dyDescent="0.25">
@@ -10652,7 +10701,7 @@
         <v>295</v>
       </c>
       <c r="L209" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="210" spans="5:12" x14ac:dyDescent="0.25">
@@ -10685,7 +10734,7 @@
         <v>295</v>
       </c>
       <c r="L210" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="211" spans="5:12" x14ac:dyDescent="0.25">
@@ -10718,7 +10767,7 @@
         <v>295</v>
       </c>
       <c r="L211" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="212" spans="5:12" x14ac:dyDescent="0.25">
@@ -10751,7 +10800,7 @@
         <v>295</v>
       </c>
       <c r="L212" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="213" spans="5:12" x14ac:dyDescent="0.25">
@@ -10784,7 +10833,7 @@
         <v>295</v>
       </c>
       <c r="L213" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="214" spans="5:12" x14ac:dyDescent="0.25">
@@ -10817,7 +10866,7 @@
         <v>295</v>
       </c>
       <c r="L214" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="215" spans="5:12" x14ac:dyDescent="0.25">
@@ -10850,7 +10899,7 @@
         <v>295</v>
       </c>
       <c r="L215" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="216" spans="5:12" x14ac:dyDescent="0.25">
@@ -10883,7 +10932,7 @@
         <v>295</v>
       </c>
       <c r="L216" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="217" spans="5:12" x14ac:dyDescent="0.25">
@@ -10916,7 +10965,7 @@
         <v>295</v>
       </c>
       <c r="L217" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="218" spans="5:12" x14ac:dyDescent="0.25">
@@ -10949,7 +10998,7 @@
         <v>295</v>
       </c>
       <c r="L218" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="219" spans="5:12" x14ac:dyDescent="0.25">
@@ -10982,7 +11031,7 @@
         <v>295</v>
       </c>
       <c r="L219" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="220" spans="5:12" x14ac:dyDescent="0.25">
@@ -11015,7 +11064,7 @@
         <v>295</v>
       </c>
       <c r="L220" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="221" spans="5:12" x14ac:dyDescent="0.25">
@@ -11048,7 +11097,7 @@
         <v>295</v>
       </c>
       <c r="L221" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="222" spans="5:12" x14ac:dyDescent="0.25">
@@ -11081,7 +11130,7 @@
         <v>295</v>
       </c>
       <c r="L222" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="223" spans="5:12" x14ac:dyDescent="0.25">
@@ -11114,7 +11163,7 @@
         <v>295</v>
       </c>
       <c r="L223" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="224" spans="5:12" x14ac:dyDescent="0.25">
@@ -11147,7 +11196,7 @@
         <v>295</v>
       </c>
       <c r="L224" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="225" spans="5:12" x14ac:dyDescent="0.25">
@@ -11180,7 +11229,7 @@
         <v>295</v>
       </c>
       <c r="L225" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="226" spans="5:12" x14ac:dyDescent="0.25">
@@ -11213,7 +11262,7 @@
         <v>295</v>
       </c>
       <c r="L226" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="227" spans="5:12" x14ac:dyDescent="0.25">
@@ -11246,7 +11295,7 @@
         <v>295</v>
       </c>
       <c r="L227" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="228" spans="5:12" x14ac:dyDescent="0.25">
@@ -11279,7 +11328,7 @@
         <v>295</v>
       </c>
       <c r="L228" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="229" spans="5:12" x14ac:dyDescent="0.25">
@@ -11312,7 +11361,7 @@
         <v>295</v>
       </c>
       <c r="L229" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="230" spans="5:12" x14ac:dyDescent="0.25">
@@ -11345,7 +11394,7 @@
         <v>295</v>
       </c>
       <c r="L230" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="231" spans="5:12" x14ac:dyDescent="0.25">
@@ -11378,7 +11427,7 @@
         <v>295</v>
       </c>
       <c r="L231" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="232" spans="5:12" x14ac:dyDescent="0.25">
@@ -11411,7 +11460,7 @@
         <v>295</v>
       </c>
       <c r="L232" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="233" spans="5:12" x14ac:dyDescent="0.25">
@@ -11444,7 +11493,7 @@
         <v>295</v>
       </c>
       <c r="L233" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="234" spans="5:12" x14ac:dyDescent="0.25">
@@ -11477,7 +11526,7 @@
         <v>295</v>
       </c>
       <c r="L234" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="235" spans="5:12" x14ac:dyDescent="0.25">
@@ -11510,7 +11559,7 @@
         <v>295</v>
       </c>
       <c r="L235" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="236" spans="5:12" x14ac:dyDescent="0.25">
@@ -11543,7 +11592,7 @@
         <v>295</v>
       </c>
       <c r="L236" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="237" spans="5:12" x14ac:dyDescent="0.25">
@@ -11576,7 +11625,7 @@
         <v>295</v>
       </c>
       <c r="L237" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="238" spans="5:12" x14ac:dyDescent="0.25">
@@ -11609,7 +11658,7 @@
         <v>295</v>
       </c>
       <c r="L238" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="239" spans="5:12" x14ac:dyDescent="0.25">
@@ -11642,7 +11691,7 @@
         <v>295</v>
       </c>
       <c r="L239" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="240" spans="5:12" x14ac:dyDescent="0.25">
@@ -11675,7 +11724,7 @@
         <v>295</v>
       </c>
       <c r="L240" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="241" spans="5:12" x14ac:dyDescent="0.25">
@@ -11708,7 +11757,7 @@
         <v>295</v>
       </c>
       <c r="L241" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="242" spans="5:12" x14ac:dyDescent="0.25">
@@ -11741,7 +11790,7 @@
         <v>295</v>
       </c>
       <c r="L242" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="243" spans="5:12" x14ac:dyDescent="0.25">
@@ -11774,7 +11823,7 @@
         <v>295</v>
       </c>
       <c r="L243" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="244" spans="5:12" x14ac:dyDescent="0.25">
@@ -11807,7 +11856,7 @@
         <v>295</v>
       </c>
       <c r="L244" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="245" spans="5:12" x14ac:dyDescent="0.25">
@@ -11840,7 +11889,7 @@
         <v>295</v>
       </c>
       <c r="L245" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="246" spans="5:12" x14ac:dyDescent="0.25">
@@ -11873,7 +11922,7 @@
         <v>295</v>
       </c>
       <c r="L246" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="247" spans="5:12" x14ac:dyDescent="0.25">
@@ -11906,7 +11955,7 @@
         <v>295</v>
       </c>
       <c r="L247" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="248" spans="5:12" x14ac:dyDescent="0.25">
@@ -11939,7 +11988,7 @@
         <v>295</v>
       </c>
       <c r="L248" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="249" spans="5:12" x14ac:dyDescent="0.25">
@@ -11972,7 +12021,7 @@
         <v>295</v>
       </c>
       <c r="L249" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="250" spans="5:12" x14ac:dyDescent="0.25">
@@ -12005,7 +12054,7 @@
         <v>295</v>
       </c>
       <c r="L250" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="251" spans="5:12" x14ac:dyDescent="0.25">
@@ -12038,7 +12087,7 @@
         <v>295</v>
       </c>
       <c r="L251" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="252" spans="5:12" x14ac:dyDescent="0.25">
@@ -12071,7 +12120,7 @@
         <v>295</v>
       </c>
       <c r="L252" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="253" spans="5:12" x14ac:dyDescent="0.25">
@@ -12104,7 +12153,7 @@
         <v>295</v>
       </c>
       <c r="L253" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="254" spans="5:12" x14ac:dyDescent="0.25">
@@ -12137,7 +12186,7 @@
         <v>295</v>
       </c>
       <c r="L254" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="255" spans="5:12" x14ac:dyDescent="0.25">
@@ -12170,7 +12219,7 @@
         <v>295</v>
       </c>
       <c r="L255" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="256" spans="5:12" x14ac:dyDescent="0.25">
@@ -12203,7 +12252,7 @@
         <v>295</v>
       </c>
       <c r="L256" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="257" spans="5:12" x14ac:dyDescent="0.25">
@@ -12236,7 +12285,7 @@
         <v>295</v>
       </c>
       <c r="L257" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="258" spans="5:12" x14ac:dyDescent="0.25">
@@ -12269,7 +12318,7 @@
         <v>295</v>
       </c>
       <c r="L258" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="259" spans="5:12" x14ac:dyDescent="0.25">
@@ -12302,7 +12351,7 @@
         <v>295</v>
       </c>
       <c r="L259" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="260" spans="5:12" x14ac:dyDescent="0.25">
@@ -12335,7 +12384,7 @@
         <v>295</v>
       </c>
       <c r="L260" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="261" spans="5:12" x14ac:dyDescent="0.25">
@@ -12368,7 +12417,7 @@
         <v>295</v>
       </c>
       <c r="L261" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="262" spans="5:12" x14ac:dyDescent="0.25">
@@ -12401,7 +12450,7 @@
         <v>295</v>
       </c>
       <c r="L262" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="263" spans="5:12" x14ac:dyDescent="0.25">
@@ -12434,7 +12483,7 @@
         <v>295</v>
       </c>
       <c r="L263" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="264" spans="5:12" x14ac:dyDescent="0.25">
@@ -12467,7 +12516,7 @@
         <v>295</v>
       </c>
       <c r="L264" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="265" spans="5:12" x14ac:dyDescent="0.25">
@@ -12500,7 +12549,7 @@
         <v>295</v>
       </c>
       <c r="L265" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="266" spans="5:12" x14ac:dyDescent="0.25">
@@ -12533,7 +12582,7 @@
         <v>295</v>
       </c>
       <c r="L266" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="267" spans="5:12" x14ac:dyDescent="0.25">
@@ -12566,7 +12615,7 @@
         <v>295</v>
       </c>
       <c r="L267" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="268" spans="5:12" x14ac:dyDescent="0.25">
@@ -12599,7 +12648,7 @@
         <v>295</v>
       </c>
       <c r="L268" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="269" spans="5:12" x14ac:dyDescent="0.25">
@@ -12632,7 +12681,7 @@
         <v>295</v>
       </c>
       <c r="L269" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="270" spans="5:12" x14ac:dyDescent="0.25">
@@ -12665,7 +12714,7 @@
         <v>295</v>
       </c>
       <c r="L270" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="271" spans="5:12" x14ac:dyDescent="0.25">
@@ -12698,7 +12747,7 @@
         <v>295</v>
       </c>
       <c r="L271" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="272" spans="5:12" x14ac:dyDescent="0.25">
@@ -12731,7 +12780,7 @@
         <v>295</v>
       </c>
       <c r="L272" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="273" spans="5:12" x14ac:dyDescent="0.25">
@@ -12764,7 +12813,7 @@
         <v>295</v>
       </c>
       <c r="L273" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="274" spans="5:12" x14ac:dyDescent="0.25">
@@ -12797,7 +12846,7 @@
         <v>295</v>
       </c>
       <c r="L274" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="275" spans="5:12" x14ac:dyDescent="0.25">
@@ -12830,7 +12879,7 @@
         <v>295</v>
       </c>
       <c r="L275" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="276" spans="5:12" x14ac:dyDescent="0.25">
@@ -12863,7 +12912,7 @@
         <v>295</v>
       </c>
       <c r="L276" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="277" spans="5:12" x14ac:dyDescent="0.25">
@@ -12896,7 +12945,7 @@
         <v>295</v>
       </c>
       <c r="L277" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="278" spans="5:12" x14ac:dyDescent="0.25">
@@ -12929,7 +12978,7 @@
         <v>295</v>
       </c>
       <c r="L278" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="279" spans="5:12" x14ac:dyDescent="0.25">
@@ -12962,7 +13011,7 @@
         <v>295</v>
       </c>
       <c r="L279" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="280" spans="5:12" x14ac:dyDescent="0.25">
@@ -12995,7 +13044,7 @@
         <v>295</v>
       </c>
       <c r="L280" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="281" spans="5:12" x14ac:dyDescent="0.25">
@@ -13028,7 +13077,7 @@
         <v>295</v>
       </c>
       <c r="L281" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="282" spans="5:12" x14ac:dyDescent="0.25">
@@ -13061,7 +13110,7 @@
         <v>295</v>
       </c>
       <c r="L282" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="283" spans="5:12" x14ac:dyDescent="0.25">
@@ -13094,7 +13143,7 @@
         <v>295</v>
       </c>
       <c r="L283" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="284" spans="5:12" x14ac:dyDescent="0.25">
@@ -13127,7 +13176,7 @@
         <v>295</v>
       </c>
       <c r="L284" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="285" spans="5:12" x14ac:dyDescent="0.25">
@@ -13160,7 +13209,7 @@
         <v>295</v>
       </c>
       <c r="L285" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="286" spans="5:12" x14ac:dyDescent="0.25">
@@ -13193,7 +13242,7 @@
         <v>295</v>
       </c>
       <c r="L286" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="287" spans="5:12" x14ac:dyDescent="0.25">
@@ -13226,7 +13275,7 @@
         <v>295</v>
       </c>
       <c r="L287" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="288" spans="5:12" x14ac:dyDescent="0.25">
@@ -13259,7 +13308,7 @@
         <v>295</v>
       </c>
       <c r="L288" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="289" spans="5:12" x14ac:dyDescent="0.25">
@@ -13292,7 +13341,7 @@
         <v>295</v>
       </c>
       <c r="L289" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="290" spans="5:12" x14ac:dyDescent="0.25">
@@ -13325,7 +13374,7 @@
         <v>295</v>
       </c>
       <c r="L290" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="291" spans="5:12" x14ac:dyDescent="0.25">
@@ -13358,7 +13407,7 @@
         <v>295</v>
       </c>
       <c r="L291" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="292" spans="5:12" x14ac:dyDescent="0.25">
@@ -13391,7 +13440,7 @@
         <v>295</v>
       </c>
       <c r="L292" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="293" spans="5:12" x14ac:dyDescent="0.25">
@@ -13424,7 +13473,7 @@
         <v>295</v>
       </c>
       <c r="L293" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="294" spans="5:12" x14ac:dyDescent="0.25">
@@ -13457,7 +13506,7 @@
         <v>295</v>
       </c>
       <c r="L294" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="295" spans="5:12" x14ac:dyDescent="0.25">
@@ -13490,7 +13539,7 @@
         <v>295</v>
       </c>
       <c r="L295" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="296" spans="5:12" x14ac:dyDescent="0.25">
@@ -13523,7 +13572,7 @@
         <v>295</v>
       </c>
       <c r="L296" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="297" spans="5:12" x14ac:dyDescent="0.25">
@@ -13556,7 +13605,7 @@
         <v>295</v>
       </c>
       <c r="L297" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="298" spans="5:12" x14ac:dyDescent="0.25">
@@ -13589,7 +13638,7 @@
         <v>295</v>
       </c>
       <c r="L298" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="299" spans="5:12" x14ac:dyDescent="0.25">
@@ -13622,7 +13671,7 @@
         <v>295</v>
       </c>
       <c r="L299" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="300" spans="5:12" x14ac:dyDescent="0.25">
@@ -13655,7 +13704,7 @@
         <v>295</v>
       </c>
       <c r="L300" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="301" spans="5:12" x14ac:dyDescent="0.25">
@@ -13688,7 +13737,7 @@
         <v>295</v>
       </c>
       <c r="L301" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="302" spans="5:12" x14ac:dyDescent="0.25">
@@ -13721,7 +13770,7 @@
         <v>295</v>
       </c>
       <c r="L302" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="303" spans="5:12" x14ac:dyDescent="0.25">
@@ -13754,7 +13803,7 @@
         <v>295</v>
       </c>
       <c r="L303" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="304" spans="5:12" x14ac:dyDescent="0.25">
@@ -13787,7 +13836,7 @@
         <v>295</v>
       </c>
       <c r="L304" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="305" spans="5:12" x14ac:dyDescent="0.25">
@@ -13820,7 +13869,7 @@
         <v>295</v>
       </c>
       <c r="L305" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="306" spans="5:12" x14ac:dyDescent="0.25">
@@ -13853,7 +13902,7 @@
         <v>295</v>
       </c>
       <c r="L306" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="307" spans="5:12" x14ac:dyDescent="0.25">
@@ -13886,7 +13935,7 @@
         <v>295</v>
       </c>
       <c r="L307" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="308" spans="5:12" x14ac:dyDescent="0.25">
@@ -13919,7 +13968,7 @@
         <v>295</v>
       </c>
       <c r="L308" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="309" spans="5:12" x14ac:dyDescent="0.25">
@@ -13952,7 +14001,7 @@
         <v>295</v>
       </c>
       <c r="L309" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="310" spans="5:12" x14ac:dyDescent="0.25">
@@ -13985,7 +14034,7 @@
         <v>295</v>
       </c>
       <c r="L310" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="311" spans="5:12" x14ac:dyDescent="0.25">
@@ -14018,7 +14067,7 @@
         <v>295</v>
       </c>
       <c r="L311" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="312" spans="5:12" x14ac:dyDescent="0.25">
@@ -14051,7 +14100,7 @@
         <v>295</v>
       </c>
       <c r="L312" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="313" spans="5:12" x14ac:dyDescent="0.25">
@@ -14084,7 +14133,7 @@
         <v>295</v>
       </c>
       <c r="L313" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="314" spans="5:12" x14ac:dyDescent="0.25">
@@ -14117,7 +14166,7 @@
         <v>295</v>
       </c>
       <c r="L314" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="315" spans="5:12" x14ac:dyDescent="0.25">
@@ -14150,7 +14199,7 @@
         <v>295</v>
       </c>
       <c r="L315" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="316" spans="5:12" x14ac:dyDescent="0.25">
@@ -14183,7 +14232,7 @@
         <v>295</v>
       </c>
       <c r="L316" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="317" spans="5:12" x14ac:dyDescent="0.25">
@@ -14216,7 +14265,7 @@
         <v>295</v>
       </c>
       <c r="L317" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="318" spans="5:12" x14ac:dyDescent="0.25">
@@ -14249,7 +14298,7 @@
         <v>295</v>
       </c>
       <c r="L318" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="319" spans="5:12" x14ac:dyDescent="0.25">
@@ -14282,7 +14331,7 @@
         <v>295</v>
       </c>
       <c r="L319" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="320" spans="5:12" x14ac:dyDescent="0.25">
@@ -14315,7 +14364,7 @@
         <v>295</v>
       </c>
       <c r="L320" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="321" spans="5:12" x14ac:dyDescent="0.25">
@@ -14348,7 +14397,7 @@
         <v>295</v>
       </c>
       <c r="L321" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="322" spans="5:12" x14ac:dyDescent="0.25">
@@ -14381,7 +14430,7 @@
         <v>295</v>
       </c>
       <c r="L322" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="323" spans="5:12" x14ac:dyDescent="0.25">
@@ -14414,7 +14463,7 @@
         <v>295</v>
       </c>
       <c r="L323" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="324" spans="5:12" x14ac:dyDescent="0.25">
@@ -14447,7 +14496,7 @@
         <v>295</v>
       </c>
       <c r="L324" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="325" spans="5:12" x14ac:dyDescent="0.25">
@@ -14480,7 +14529,7 @@
         <v>295</v>
       </c>
       <c r="L325" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="326" spans="5:12" x14ac:dyDescent="0.25">
@@ -14513,7 +14562,7 @@
         <v>295</v>
       </c>
       <c r="L326" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="327" spans="5:12" x14ac:dyDescent="0.25">
@@ -14546,7 +14595,7 @@
         <v>295</v>
       </c>
       <c r="L327" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="328" spans="5:12" x14ac:dyDescent="0.25">
@@ -14579,7 +14628,7 @@
         <v>295</v>
       </c>
       <c r="L328" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="329" spans="5:12" x14ac:dyDescent="0.25">
@@ -14612,7 +14661,7 @@
         <v>295</v>
       </c>
       <c r="L329" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="330" spans="5:12" x14ac:dyDescent="0.25">
@@ -14645,7 +14694,7 @@
         <v>295</v>
       </c>
       <c r="L330" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="331" spans="5:12" x14ac:dyDescent="0.25">
@@ -14678,7 +14727,7 @@
         <v>295</v>
       </c>
       <c r="L331" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="332" spans="5:12" x14ac:dyDescent="0.25">
@@ -14711,7 +14760,7 @@
         <v>295</v>
       </c>
       <c r="L332" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="333" spans="5:12" x14ac:dyDescent="0.25">
@@ -14744,7 +14793,7 @@
         <v>295</v>
       </c>
       <c r="L333" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="334" spans="5:12" x14ac:dyDescent="0.25">
@@ -14777,7 +14826,7 @@
         <v>295</v>
       </c>
       <c r="L334" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="335" spans="5:12" x14ac:dyDescent="0.25">
@@ -14810,7 +14859,7 @@
         <v>295</v>
       </c>
       <c r="L335" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="336" spans="5:12" x14ac:dyDescent="0.25">
@@ -14843,7 +14892,7 @@
         <v>295</v>
       </c>
       <c r="L336" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="337" spans="5:12" x14ac:dyDescent="0.25">
@@ -14876,7 +14925,7 @@
         <v>295</v>
       </c>
       <c r="L337" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="338" spans="5:12" x14ac:dyDescent="0.25">
@@ -14909,7 +14958,7 @@
         <v>295</v>
       </c>
       <c r="L338" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="339" spans="5:12" x14ac:dyDescent="0.25">
@@ -14942,7 +14991,7 @@
         <v>295</v>
       </c>
       <c r="L339" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="340" spans="5:12" x14ac:dyDescent="0.25">
@@ -14975,7 +15024,7 @@
         <v>295</v>
       </c>
       <c r="L340" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="341" spans="5:12" x14ac:dyDescent="0.25">
@@ -15008,7 +15057,7 @@
         <v>295</v>
       </c>
       <c r="L341" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="342" spans="5:12" x14ac:dyDescent="0.25">
@@ -15041,7 +15090,7 @@
         <v>295</v>
       </c>
       <c r="L342" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="343" spans="5:12" x14ac:dyDescent="0.25">
@@ -15074,7 +15123,7 @@
         <v>295</v>
       </c>
       <c r="L343" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="344" spans="5:12" x14ac:dyDescent="0.25">
@@ -15107,7 +15156,7 @@
         <v>295</v>
       </c>
       <c r="L344" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="345" spans="5:12" x14ac:dyDescent="0.25">
@@ -15140,7 +15189,7 @@
         <v>295</v>
       </c>
       <c r="L345" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="346" spans="5:12" x14ac:dyDescent="0.25">
@@ -15173,7 +15222,7 @@
         <v>295</v>
       </c>
       <c r="L346" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="347" spans="5:12" x14ac:dyDescent="0.25">
@@ -15206,7 +15255,7 @@
         <v>295</v>
       </c>
       <c r="L347" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="348" spans="5:12" x14ac:dyDescent="0.25">
@@ -15239,7 +15288,7 @@
         <v>295</v>
       </c>
       <c r="L348" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="349" spans="5:12" x14ac:dyDescent="0.25">
@@ -15272,7 +15321,7 @@
         <v>295</v>
       </c>
       <c r="L349" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="350" spans="5:12" x14ac:dyDescent="0.25">
@@ -15305,7 +15354,7 @@
         <v>295</v>
       </c>
       <c r="L350" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="351" spans="5:12" x14ac:dyDescent="0.25">
@@ -15338,7 +15387,7 @@
         <v>295</v>
       </c>
       <c r="L351" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="352" spans="5:12" x14ac:dyDescent="0.25">
@@ -15371,7 +15420,7 @@
         <v>295</v>
       </c>
       <c r="L352" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="353" spans="3:12" x14ac:dyDescent="0.25">
@@ -15404,7 +15453,7 @@
         <v>295</v>
       </c>
       <c r="L353" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="354" spans="3:12" x14ac:dyDescent="0.25">
@@ -15437,7 +15486,7 @@
         <v>295</v>
       </c>
       <c r="L354" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="355" spans="3:12" x14ac:dyDescent="0.25">
@@ -15470,7 +15519,7 @@
         <v>295</v>
       </c>
       <c r="L355" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="356" spans="3:12" x14ac:dyDescent="0.25">
@@ -15503,7 +15552,7 @@
         <v>295</v>
       </c>
       <c r="L356" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="357" spans="3:12" x14ac:dyDescent="0.25">
@@ -15536,7 +15585,7 @@
         <v>295</v>
       </c>
       <c r="L357" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="358" spans="3:12" x14ac:dyDescent="0.25">
@@ -15569,7 +15618,7 @@
         <v>295</v>
       </c>
       <c r="L358" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="359" spans="3:12" x14ac:dyDescent="0.25">
@@ -15602,7 +15651,7 @@
         <v>295</v>
       </c>
       <c r="L359" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="360" spans="3:12" x14ac:dyDescent="0.25">
@@ -15635,7 +15684,7 @@
         <v>295</v>
       </c>
       <c r="L360" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="361" spans="3:12" x14ac:dyDescent="0.25">
@@ -15668,7 +15717,7 @@
         <v>295</v>
       </c>
       <c r="L361" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="362" spans="3:12" x14ac:dyDescent="0.25">
@@ -15701,7 +15750,7 @@
         <v>295</v>
       </c>
       <c r="L362" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="363" spans="3:12" x14ac:dyDescent="0.25">
@@ -15724,26 +15773,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0545E0D-D3B3-4BE0-98F0-24229D8CDC62}">
-  <dimension ref="A1:D165"/>
+  <dimension ref="A1:E155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="B166" sqref="B166"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.140625" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" customWidth="1"/>
+    <col min="3" max="3" width="29" customWidth="1"/>
     <col min="4" max="4" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -15751,1817 +15800,1942 @@
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>545</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
       <c r="D2" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>545</v>
+      </c>
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>545</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>643</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>545</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>643</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>643</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>736</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>643</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>643</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>643</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>643</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>735</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>643</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>643</v>
+      </c>
+      <c r="C16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>400</v>
+      </c>
+      <c r="D32" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>379</v>
+      </c>
+      <c r="D33" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>382</v>
+      </c>
+      <c r="D34" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>383</v>
+      </c>
+      <c r="D35" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>386</v>
+      </c>
+      <c r="D36" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>346</v>
+      </c>
+      <c r="D37" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>643</v>
+      </c>
+      <c r="B38" t="s">
+        <v>733</v>
+      </c>
+      <c r="C38" t="s">
+        <v>347</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>643</v>
+      </c>
+      <c r="B39" t="s">
+        <v>733</v>
+      </c>
+      <c r="C39" t="s">
+        <v>348</v>
+      </c>
+      <c r="D39" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>349</v>
+      </c>
+      <c r="D40" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>350</v>
+      </c>
+      <c r="D41" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>740</v>
+      </c>
+      <c r="B42" t="s">
+        <v>733</v>
+      </c>
+      <c r="C42" t="s">
+        <v>351</v>
+      </c>
+      <c r="D42" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>733</v>
+      </c>
+      <c r="C43" t="s">
+        <v>352</v>
+      </c>
+      <c r="D43" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>733</v>
+      </c>
+      <c r="C44" t="s">
+        <v>353</v>
+      </c>
+      <c r="D44" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>354</v>
+      </c>
+      <c r="D45" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>377</v>
+      </c>
+      <c r="D47" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>388</v>
+      </c>
+      <c r="D48" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>492</v>
+      </c>
+      <c r="D49" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>495</v>
+      </c>
+      <c r="D50" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>736</v>
+      </c>
+      <c r="B51" t="s">
+        <v>733</v>
+      </c>
+      <c r="C51" t="s">
+        <v>737</v>
+      </c>
+      <c r="D51" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>545</v>
+      </c>
+      <c r="B52" t="s">
+        <v>614</v>
+      </c>
+      <c r="C52" t="s">
+        <v>738</v>
+      </c>
+      <c r="D52" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>545</v>
+      </c>
+      <c r="B53" t="s">
         <v>550</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
-        <v>36</v>
-      </c>
-      <c r="D27" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C28" t="s">
-        <v>38</v>
-      </c>
-      <c r="D28" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C29" t="s">
-        <v>40</v>
-      </c>
-      <c r="D29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C30" t="s">
-        <v>42</v>
-      </c>
-      <c r="D30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C31" t="s">
-        <v>44</v>
-      </c>
-      <c r="D31" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C32" t="s">
-        <v>46</v>
-      </c>
-      <c r="D32" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C33" t="s">
-        <v>48</v>
-      </c>
-      <c r="D33" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C34" t="s">
-        <v>50</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C35" t="s">
-        <v>52</v>
-      </c>
-      <c r="D35" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C36" t="s">
-        <v>54</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C37" t="s">
-        <v>56</v>
-      </c>
-      <c r="D37" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C38" t="s">
-        <v>58</v>
-      </c>
-      <c r="D38" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C39" t="s">
-        <v>60</v>
-      </c>
-      <c r="D39" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C40" t="s">
-        <v>62</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C41" t="s">
-        <v>402</v>
-      </c>
-      <c r="D41" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C42" t="s">
-        <v>381</v>
-      </c>
-      <c r="D42" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C43" t="s">
-        <v>384</v>
-      </c>
-      <c r="D43" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C44" t="s">
-        <v>385</v>
-      </c>
-      <c r="D44" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C45" t="s">
-        <v>388</v>
-      </c>
-      <c r="D45" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C46" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C47" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C48" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C49" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C50" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C51" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C52" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+        <v>501</v>
+      </c>
+      <c r="D53" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>545</v>
+      </c>
+      <c r="B54" t="s">
+        <v>614</v>
+      </c>
       <c r="C54" t="s">
-        <v>356</v>
+        <v>739</v>
       </c>
       <c r="D54" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>545</v>
+      </c>
+      <c r="B55" t="s">
+        <v>614</v>
+      </c>
       <c r="C55" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+        <v>744</v>
+      </c>
+      <c r="D55" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>545</v>
+      </c>
+      <c r="B56" t="s">
+        <v>614</v>
+      </c>
       <c r="C56" t="s">
-        <v>379</v>
+        <v>745</v>
       </c>
       <c r="D56" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>597</v>
+      </c>
+      <c r="B57" t="s">
+        <v>553</v>
+      </c>
       <c r="C57" t="s">
-        <v>390</v>
+        <v>746</v>
       </c>
       <c r="D57" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>538</v>
+      </c>
+      <c r="B58" t="s">
+        <v>553</v>
+      </c>
       <c r="C58" t="s">
-        <v>497</v>
+        <v>747</v>
       </c>
       <c r="D58" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>538</v>
+      </c>
+      <c r="B59" t="s">
+        <v>553</v>
+      </c>
       <c r="C59" t="s">
-        <v>500</v>
+        <v>748</v>
       </c>
       <c r="D59" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>750</v>
+      </c>
+      <c r="C60" t="s">
+        <v>510</v>
+      </c>
       <c r="D60" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+        <v>509</v>
+      </c>
+      <c r="E60" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>545</v>
+      </c>
+      <c r="B61" t="s">
+        <v>553</v>
+      </c>
+      <c r="C61" t="s">
+        <v>749</v>
+      </c>
       <c r="D61" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>550</v>
+        <v>643</v>
       </c>
       <c r="B62" t="s">
-        <v>555</v>
+        <v>614</v>
       </c>
       <c r="C62" t="s">
-        <v>506</v>
+        <v>615</v>
       </c>
       <c r="D62" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D63" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D64" t="s">
-        <v>508</v>
+        <v>529</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>545</v>
+      </c>
+      <c r="B63" t="s">
+        <v>733</v>
+      </c>
+      <c r="C63" t="s">
+        <v>530</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>538</v>
+      </c>
+      <c r="B64" t="s">
+        <v>553</v>
+      </c>
+      <c r="C64" t="s">
+        <v>532</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D65" t="s">
-        <v>509</v>
+      <c r="A65" t="s">
+        <v>539</v>
+      </c>
+      <c r="C65" t="s">
+        <v>534</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D66" t="s">
-        <v>511</v>
+      <c r="A66" t="s">
+        <v>537</v>
+      </c>
+      <c r="C66" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D67" t="s">
-        <v>512</v>
+      <c r="A67" t="s">
+        <v>540</v>
+      </c>
+      <c r="C67" t="s">
+        <v>541</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>545</v>
+      </c>
+      <c r="C68" t="s">
+        <v>544</v>
+      </c>
       <c r="D68" t="s">
-        <v>513</v>
+        <v>543</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
-        <v>515</v>
-      </c>
-      <c r="D69" t="s">
-        <v>514</v>
+        <v>547</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D70" t="s">
-        <v>516</v>
+      <c r="C70" t="s">
+        <v>547</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>545</v>
+      </c>
+      <c r="B71" t="s">
+        <v>553</v>
+      </c>
+      <c r="C71" t="s">
+        <v>552</v>
+      </c>
       <c r="D71" t="s">
-        <v>534</v>
+        <v>551</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>545</v>
+      </c>
+      <c r="B72" t="s">
+        <v>553</v>
+      </c>
       <c r="C72" t="s">
-        <v>535</v>
+        <v>552</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>536</v>
+        <v>554</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="B73" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="C73" t="s">
-        <v>537</v>
-      </c>
-      <c r="D73" s="8" t="s">
-        <v>538</v>
+        <v>552</v>
+      </c>
+      <c r="D73" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>544</v>
+        <v>545</v>
+      </c>
+      <c r="B74" t="s">
+        <v>553</v>
       </c>
       <c r="C74" t="s">
-        <v>539</v>
+        <v>552</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>540</v>
+        <v>556</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>542</v>
+        <v>545</v>
+      </c>
+      <c r="B75" t="s">
+        <v>553</v>
       </c>
       <c r="C75" t="s">
-        <v>541</v>
+        <v>558</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>545</v>
       </c>
+      <c r="B76" t="s">
+        <v>553</v>
+      </c>
       <c r="C76" t="s">
-        <v>546</v>
-      </c>
-      <c r="D76" s="8" t="s">
-        <v>547</v>
+        <v>560</v>
+      </c>
+      <c r="D76" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>550</v>
+        <v>545</v>
+      </c>
+      <c r="B77" t="s">
+        <v>553</v>
       </c>
       <c r="C77" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
       <c r="D77" t="s">
-        <v>548</v>
+        <v>562</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>545</v>
+      </c>
+      <c r="B78" t="s">
+        <v>553</v>
+      </c>
       <c r="C78" t="s">
-        <v>552</v>
-      </c>
-      <c r="D78" s="8" t="s">
-        <v>551</v>
+        <v>563</v>
+      </c>
+      <c r="D78" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>545</v>
+      </c>
+      <c r="B79" t="s">
+        <v>553</v>
+      </c>
       <c r="C79" t="s">
-        <v>552</v>
-      </c>
-      <c r="D79" s="8" t="s">
-        <v>553</v>
+        <v>565</v>
+      </c>
+      <c r="D79" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="B80" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="C80" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="D80" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="B81" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="C81" t="s">
-        <v>557</v>
-      </c>
-      <c r="D81" s="8" t="s">
-        <v>559</v>
+        <v>569</v>
+      </c>
+      <c r="D81" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="B82" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="C82" t="s">
-        <v>557</v>
+        <v>569</v>
       </c>
       <c r="D82" t="s">
-        <v>560</v>
+        <v>571</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="B83" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="C83" t="s">
-        <v>557</v>
-      </c>
-      <c r="D83" s="8" t="s">
-        <v>561</v>
+        <v>572</v>
+      </c>
+      <c r="D83" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="B84" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="C84" t="s">
-        <v>563</v>
-      </c>
-      <c r="D84" s="8" t="s">
-        <v>562</v>
+        <v>574</v>
+      </c>
+      <c r="D84" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="B85" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="C85" t="s">
-        <v>565</v>
+        <v>576</v>
       </c>
       <c r="D85" t="s">
-        <v>564</v>
+        <v>577</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>550</v>
+        <v>578</v>
       </c>
       <c r="B86" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="C86" t="s">
-        <v>566</v>
+        <v>579</v>
       </c>
       <c r="D86" t="s">
-        <v>567</v>
+        <v>580</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>550</v>
+        <v>583</v>
       </c>
       <c r="B87" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="C87" t="s">
-        <v>568</v>
-      </c>
-      <c r="D87" t="s">
-        <v>569</v>
+        <v>581</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>550</v>
+        <v>583</v>
       </c>
       <c r="B88" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="C88" t="s">
-        <v>570</v>
+        <v>585</v>
       </c>
       <c r="D88" t="s">
-        <v>571</v>
+        <v>584</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>550</v>
+        <v>537</v>
       </c>
       <c r="B89" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="C89" t="s">
-        <v>572</v>
+        <v>586</v>
       </c>
       <c r="D89" t="s">
-        <v>573</v>
+        <v>587</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>550</v>
+        <v>588</v>
       </c>
       <c r="B90" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="C90" t="s">
-        <v>574</v>
+        <v>589</v>
       </c>
       <c r="D90" t="s">
-        <v>575</v>
+        <v>590</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="B91" t="s">
-        <v>558</v>
+        <v>594</v>
       </c>
       <c r="C91" t="s">
-        <v>574</v>
+        <v>592</v>
       </c>
       <c r="D91" t="s">
-        <v>576</v>
+        <v>591</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>550</v>
-      </c>
       <c r="B92" t="s">
-        <v>558</v>
+        <v>594</v>
       </c>
       <c r="C92" t="s">
-        <v>577</v>
+        <v>595</v>
       </c>
       <c r="D92" t="s">
-        <v>578</v>
+        <v>593</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>550</v>
+        <v>588</v>
       </c>
       <c r="B93" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="C93" t="s">
-        <v>579</v>
+        <v>589</v>
       </c>
       <c r="D93" t="s">
-        <v>580</v>
+        <v>596</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>550</v>
+        <v>597</v>
       </c>
       <c r="B94" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="C94" t="s">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="D94" t="s">
-        <v>582</v>
+        <v>599</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>583</v>
+        <v>597</v>
       </c>
       <c r="B95" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="C95" t="s">
-        <v>584</v>
+        <v>601</v>
       </c>
       <c r="D95" t="s">
-        <v>585</v>
+        <v>600</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>588</v>
+        <v>602</v>
       </c>
       <c r="B96" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="C96" t="s">
-        <v>586</v>
-      </c>
-      <c r="D96" s="8" t="s">
-        <v>587</v>
+        <v>604</v>
+      </c>
+      <c r="D96" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>588</v>
+        <v>606</v>
       </c>
       <c r="B97" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="C97" t="s">
-        <v>590</v>
+        <v>605</v>
       </c>
       <c r="D97" t="s">
-        <v>589</v>
+        <v>607</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="B98" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="C98" t="s">
-        <v>591</v>
+        <v>608</v>
       </c>
       <c r="D98" t="s">
-        <v>592</v>
+        <v>609</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>593</v>
+        <v>545</v>
       </c>
       <c r="B99" t="s">
-        <v>558</v>
+        <v>594</v>
       </c>
       <c r="C99" t="s">
-        <v>594</v>
+        <v>611</v>
       </c>
       <c r="D99" t="s">
-        <v>595</v>
+        <v>610</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="B100" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="C100" t="s">
-        <v>597</v>
+        <v>613</v>
       </c>
       <c r="D100" t="s">
-        <v>596</v>
+        <v>612</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>545</v>
+      </c>
       <c r="B101" t="s">
-        <v>599</v>
+        <v>553</v>
       </c>
       <c r="C101" t="s">
-        <v>600</v>
+        <v>613</v>
       </c>
       <c r="D101" t="s">
-        <v>598</v>
+        <v>616</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>593</v>
+        <v>545</v>
       </c>
       <c r="B102" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="C102" t="s">
-        <v>594</v>
+        <v>617</v>
       </c>
       <c r="D102" t="s">
-        <v>601</v>
+        <v>618</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>602</v>
+        <v>620</v>
       </c>
       <c r="B103" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="C103" t="s">
-        <v>603</v>
+        <v>621</v>
       </c>
       <c r="D103" t="s">
-        <v>604</v>
+        <v>619</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>602</v>
+        <v>539</v>
       </c>
       <c r="B104" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="C104" t="s">
-        <v>606</v>
+        <v>623</v>
       </c>
       <c r="D104" t="s">
-        <v>605</v>
+        <v>622</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>607</v>
+        <v>538</v>
       </c>
       <c r="B105" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="C105" t="s">
-        <v>609</v>
+        <v>628</v>
       </c>
       <c r="D105" t="s">
-        <v>608</v>
+        <v>627</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>611</v>
+        <v>545</v>
       </c>
       <c r="B106" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="C106" t="s">
-        <v>610</v>
+        <v>629</v>
       </c>
       <c r="D106" t="s">
-        <v>612</v>
+        <v>630</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="B107" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="C107" t="s">
-        <v>613</v>
+        <v>563</v>
       </c>
       <c r="D107" t="s">
-        <v>614</v>
+        <v>631</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="B108" t="s">
-        <v>599</v>
+        <v>553</v>
       </c>
       <c r="C108" t="s">
-        <v>616</v>
+        <v>563</v>
       </c>
       <c r="D108" t="s">
-        <v>615</v>
+        <v>632</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="B109" t="s">
-        <v>599</v>
+        <v>553</v>
       </c>
       <c r="C109" t="s">
-        <v>618</v>
+        <v>633</v>
       </c>
       <c r="D109" t="s">
-        <v>617</v>
+        <v>634</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="B110" t="s">
-        <v>620</v>
+        <v>553</v>
       </c>
       <c r="C110" t="s">
-        <v>621</v>
-      </c>
-      <c r="D110" s="8" t="s">
-        <v>619</v>
+        <v>636</v>
+      </c>
+      <c r="D110" t="s">
+        <v>635</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>550</v>
+        <v>639</v>
       </c>
       <c r="B111" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="C111" t="s">
-        <v>618</v>
+        <v>638</v>
       </c>
       <c r="D111" t="s">
-        <v>622</v>
+        <v>637</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>550</v>
+        <v>643</v>
       </c>
       <c r="B112" t="s">
-        <v>558</v>
+        <v>614</v>
       </c>
       <c r="C112" t="s">
-        <v>623</v>
+        <v>644</v>
       </c>
       <c r="D112" t="s">
-        <v>624</v>
+        <v>642</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>626</v>
+        <v>643</v>
       </c>
       <c r="B113" t="s">
-        <v>558</v>
+        <v>614</v>
       </c>
       <c r="C113" t="s">
-        <v>627</v>
+        <v>644</v>
       </c>
       <c r="D113" t="s">
-        <v>625</v>
+        <v>645</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>544</v>
+        <v>643</v>
       </c>
       <c r="B114" t="s">
-        <v>558</v>
+        <v>614</v>
       </c>
       <c r="C114" t="s">
-        <v>629</v>
+        <v>647</v>
       </c>
       <c r="D114" t="s">
-        <v>628</v>
+        <v>646</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>543</v>
+        <v>643</v>
       </c>
       <c r="B115" t="s">
-        <v>558</v>
+        <v>614</v>
       </c>
       <c r="C115" t="s">
-        <v>634</v>
+        <v>644</v>
       </c>
       <c r="D115" t="s">
-        <v>633</v>
+        <v>648</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>550</v>
+        <v>643</v>
       </c>
       <c r="B116" t="s">
-        <v>558</v>
+        <v>614</v>
       </c>
       <c r="C116" t="s">
-        <v>635</v>
+        <v>644</v>
       </c>
       <c r="D116" t="s">
-        <v>636</v>
+        <v>649</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="B117" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="C117" t="s">
-        <v>568</v>
+        <v>651</v>
       </c>
       <c r="D117" t="s">
-        <v>637</v>
+        <v>650</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>550</v>
+        <v>643</v>
       </c>
       <c r="B118" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="C118" t="s">
-        <v>568</v>
+        <v>653</v>
       </c>
       <c r="D118" t="s">
-        <v>638</v>
+        <v>652</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>550</v>
+        <v>643</v>
       </c>
       <c r="B119" t="s">
-        <v>558</v>
+        <v>614</v>
       </c>
       <c r="C119" t="s">
-        <v>639</v>
-      </c>
-      <c r="D119" t="s">
-        <v>640</v>
+        <v>644</v>
+      </c>
+      <c r="D119" s="8" t="s">
+        <v>657</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>550</v>
+        <v>643</v>
       </c>
       <c r="B120" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="C120" t="s">
-        <v>642</v>
+        <v>662</v>
       </c>
       <c r="D120" t="s">
-        <v>641</v>
+        <v>658</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B121" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="C121" t="s">
-        <v>644</v>
+        <v>660</v>
       </c>
       <c r="D121" t="s">
-        <v>643</v>
+        <v>659</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="B122" t="s">
-        <v>620</v>
+        <v>553</v>
       </c>
       <c r="C122" t="s">
-        <v>650</v>
+        <v>660</v>
       </c>
       <c r="D122" t="s">
-        <v>648</v>
+        <v>661</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="B123" t="s">
-        <v>620</v>
+        <v>553</v>
       </c>
       <c r="C123" t="s">
-        <v>650</v>
+        <v>662</v>
       </c>
       <c r="D123" t="s">
-        <v>651</v>
+        <v>663</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="B124" t="s">
-        <v>620</v>
+        <v>553</v>
       </c>
       <c r="C124" t="s">
-        <v>653</v>
+        <v>665</v>
       </c>
       <c r="D124" t="s">
-        <v>652</v>
+        <v>664</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="B125" t="s">
-        <v>620</v>
+        <v>553</v>
       </c>
       <c r="C125" t="s">
-        <v>650</v>
+        <v>667</v>
       </c>
       <c r="D125" t="s">
-        <v>654</v>
+        <v>666</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="B126" t="s">
-        <v>620</v>
+        <v>553</v>
       </c>
       <c r="C126" t="s">
-        <v>650</v>
+        <v>669</v>
       </c>
       <c r="D126" t="s">
-        <v>655</v>
+        <v>668</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>543</v>
+        <v>671</v>
       </c>
       <c r="B127" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="C127" t="s">
-        <v>657</v>
+        <v>671</v>
       </c>
       <c r="D127" t="s">
-        <v>656</v>
+        <v>670</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="B128" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="C128" t="s">
-        <v>659</v>
+        <v>673</v>
       </c>
       <c r="D128" t="s">
-        <v>658</v>
+        <v>672</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="B129" t="s">
-        <v>620</v>
+        <v>553</v>
       </c>
       <c r="C129" t="s">
-        <v>650</v>
-      </c>
-      <c r="D129" s="8" t="s">
-        <v>663</v>
+        <v>675</v>
+      </c>
+      <c r="D129" t="s">
+        <v>674</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="B130" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="C130" t="s">
-        <v>668</v>
+        <v>677</v>
       </c>
       <c r="D130" t="s">
-        <v>664</v>
+        <v>676</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="B131" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="C131" t="s">
-        <v>666</v>
+        <v>678</v>
       </c>
       <c r="D131" t="s">
-        <v>665</v>
+        <v>679</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>649</v>
+        <v>545</v>
       </c>
       <c r="B132" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="C132" t="s">
-        <v>666</v>
+        <v>681</v>
       </c>
       <c r="D132" t="s">
-        <v>667</v>
+        <v>680</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="B133" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="C133" t="s">
-        <v>668</v>
+        <v>683</v>
       </c>
       <c r="D133" t="s">
-        <v>669</v>
+        <v>682</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>649</v>
+        <v>685</v>
       </c>
       <c r="B134" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="C134" t="s">
-        <v>671</v>
+        <v>687</v>
       </c>
       <c r="D134" t="s">
-        <v>670</v>
+        <v>684</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>649</v>
+        <v>685</v>
       </c>
       <c r="B135" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="C135" t="s">
-        <v>673</v>
+        <v>687</v>
       </c>
       <c r="D135" t="s">
-        <v>672</v>
+        <v>686</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>649</v>
+        <v>685</v>
       </c>
       <c r="B136" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="C136" t="s">
-        <v>675</v>
+        <v>687</v>
       </c>
       <c r="D136" t="s">
-        <v>674</v>
+        <v>688</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="B137" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="C137" t="s">
-        <v>677</v>
+        <v>687</v>
       </c>
       <c r="D137" t="s">
-        <v>676</v>
+        <v>689</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>649</v>
+        <v>685</v>
       </c>
       <c r="B138" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="C138" t="s">
-        <v>679</v>
+        <v>687</v>
       </c>
       <c r="D138" t="s">
-        <v>678</v>
+        <v>690</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>649</v>
+        <v>685</v>
       </c>
       <c r="B139" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="C139" t="s">
-        <v>681</v>
+        <v>687</v>
       </c>
       <c r="D139" t="s">
-        <v>680</v>
+        <v>691</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="B140" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="C140" t="s">
-        <v>683</v>
+        <v>693</v>
       </c>
       <c r="D140" t="s">
-        <v>682</v>
+        <v>692</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="B141" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="C141" t="s">
-        <v>684</v>
+        <v>695</v>
       </c>
       <c r="D141" t="s">
-        <v>685</v>
+        <v>694</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>550</v>
+        <v>643</v>
       </c>
       <c r="B142" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="C142" t="s">
-        <v>687</v>
+        <v>697</v>
       </c>
       <c r="D142" t="s">
-        <v>686</v>
+        <v>696</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="B143" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="C143" t="s">
-        <v>689</v>
+        <v>662</v>
       </c>
       <c r="D143" t="s">
-        <v>688</v>
+        <v>698</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>691</v>
+        <v>643</v>
       </c>
       <c r="B144" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="C144" t="s">
-        <v>693</v>
+        <v>700</v>
       </c>
       <c r="D144" t="s">
-        <v>690</v>
+        <v>699</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="B145" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="C145" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="D145" t="s">
-        <v>692</v>
+        <v>701</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="B146" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="C146" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="D146" t="s">
-        <v>694</v>
+        <v>702</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="B147" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="C147" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="D147" t="s">
-        <v>695</v>
+        <v>703</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>691</v>
+        <v>643</v>
       </c>
       <c r="B148" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="C148" t="s">
-        <v>693</v>
+        <v>705</v>
       </c>
       <c r="D148" t="s">
-        <v>696</v>
+        <v>704</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>691</v>
+        <v>643</v>
       </c>
       <c r="B149" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="C149" t="s">
-        <v>693</v>
+        <v>707</v>
       </c>
       <c r="D149" t="s">
-        <v>697</v>
+        <v>706</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>649</v>
+        <v>685</v>
       </c>
       <c r="B150" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="C150" t="s">
-        <v>699</v>
-      </c>
-      <c r="D150" t="s">
-        <v>698</v>
+        <v>708</v>
+      </c>
+      <c r="D150" s="8" t="s">
+        <v>709</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>649</v>
+        <v>539</v>
       </c>
       <c r="B151" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="C151" t="s">
-        <v>701</v>
+        <v>711</v>
       </c>
       <c r="D151" t="s">
-        <v>700</v>
+        <v>710</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>649</v>
+        <v>539</v>
       </c>
       <c r="B152" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="C152" t="s">
-        <v>703</v>
-      </c>
-      <c r="D152" t="s">
-        <v>702</v>
+        <v>724</v>
+      </c>
+      <c r="D152" s="8" t="s">
+        <v>725</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>649</v>
+        <v>539</v>
       </c>
       <c r="B153" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="C153" t="s">
-        <v>668</v>
+        <v>724</v>
       </c>
       <c r="D153" t="s">
-        <v>704</v>
+        <v>726</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>649</v>
+        <v>539</v>
       </c>
       <c r="B154" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="C154" t="s">
-        <v>706</v>
+        <v>724</v>
       </c>
       <c r="D154" t="s">
-        <v>705</v>
+        <v>727</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>691</v>
+        <v>602</v>
       </c>
       <c r="B155" t="s">
-        <v>558</v>
+        <v>614</v>
       </c>
       <c r="C155" t="s">
-        <v>693</v>
+        <v>729</v>
       </c>
       <c r="D155" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>691</v>
-      </c>
-      <c r="B156" t="s">
-        <v>558</v>
-      </c>
-      <c r="C156" t="s">
-        <v>693</v>
-      </c>
-      <c r="D156" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>691</v>
-      </c>
-      <c r="B157" t="s">
-        <v>558</v>
-      </c>
-      <c r="C157" t="s">
-        <v>693</v>
-      </c>
-      <c r="D157" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>649</v>
-      </c>
-      <c r="B158" t="s">
-        <v>558</v>
-      </c>
-      <c r="C158" t="s">
-        <v>711</v>
-      </c>
-      <c r="D158" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>649</v>
-      </c>
-      <c r="B159" t="s">
-        <v>558</v>
-      </c>
-      <c r="C159" t="s">
-        <v>713</v>
-      </c>
-      <c r="D159" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>691</v>
-      </c>
-      <c r="B160" t="s">
-        <v>558</v>
-      </c>
-      <c r="C160" t="s">
-        <v>714</v>
-      </c>
-      <c r="D160" s="8" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>544</v>
-      </c>
-      <c r="B161" t="s">
-        <v>558</v>
-      </c>
-      <c r="C161" t="s">
-        <v>717</v>
-      </c>
-      <c r="D161" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>544</v>
-      </c>
-      <c r="B162" t="s">
-        <v>558</v>
-      </c>
-      <c r="C162" t="s">
-        <v>730</v>
-      </c>
-      <c r="D162" s="8" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>544</v>
-      </c>
-      <c r="B163" t="s">
-        <v>558</v>
-      </c>
-      <c r="C163" t="s">
-        <v>730</v>
-      </c>
-      <c r="D163" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>544</v>
-      </c>
-      <c r="B164" t="s">
-        <v>558</v>
-      </c>
-      <c r="C164" t="s">
-        <v>730</v>
-      </c>
-      <c r="D164" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>607</v>
-      </c>
-      <c r="B165" t="s">
-        <v>620</v>
-      </c>
-      <c r="C165" t="s">
-        <v>735</v>
-      </c>
-      <c r="D165" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D54 D56">
+  <autoFilter ref="A1:E155" xr:uid="{0BBF6E0D-5DA0-4F61-987B-70915CCFC313}"/>
+  <conditionalFormatting sqref="D45 D47">
     <cfRule type="timePeriod" dxfId="2" priority="2" timePeriod="today">
-      <formula>FLOOR(D54,1)=TODAY()</formula>
+      <formula>FLOOR(D45,1)=TODAY()</formula>
     </cfRule>
     <cfRule type="timePeriod" dxfId="1" priority="3" timePeriod="tomorrow">
-      <formula>FLOOR(D54,1)=TODAY()+1</formula>
+      <formula>FLOOR(D45,1)=TODAY()+1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D1048576">
+  <conditionalFormatting sqref="D1:D1048576 E1 E60:E61">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{1EB58A2F-88EF-4DE7-B114-29AA3F28E014}"/>
     <hyperlink ref="D11" r:id="rId2" xr:uid="{48AA49D5-F43B-4DA1-BD88-074CECE2CF53}"/>
-    <hyperlink ref="D23" r:id="rId3" xr:uid="{95710A09-A8DF-4EC7-8A91-A9F19214DFDB}"/>
-    <hyperlink ref="D34" r:id="rId4" xr:uid="{D8B459FF-0DAD-41E7-962F-E665DAA80126}"/>
-    <hyperlink ref="D36" r:id="rId5" xr:uid="{78160D83-66C3-42C2-A4C3-B4561F3A3A76}"/>
-    <hyperlink ref="D40" r:id="rId6" xr:uid="{F931B8FB-C4EE-4679-A324-ED6985C1C947}"/>
-    <hyperlink ref="D72" r:id="rId7" xr:uid="{7127996F-3470-4C90-BEAA-8F508DEBD2E6}"/>
-    <hyperlink ref="D73" r:id="rId8" xr:uid="{FDC526CF-47A0-48EA-AB80-49C4AC9E8DDD}"/>
-    <hyperlink ref="D74" r:id="rId9" xr:uid="{E92E3D36-5A7D-4922-9F28-0437FF27B171}"/>
-    <hyperlink ref="D76" r:id="rId10" xr:uid="{033F050A-CAF6-4FFB-BCB1-4395A0FA5CEE}"/>
-    <hyperlink ref="D78" r:id="rId11" xr:uid="{F6292547-D050-48F9-AA14-673CC87BACE0}"/>
-    <hyperlink ref="D79" r:id="rId12" xr:uid="{45A29BB1-A819-4857-A02D-4EA3200DCD5C}"/>
-    <hyperlink ref="D81" r:id="rId13" xr:uid="{BFFCED72-7C63-4681-A477-A2AB79E699D6}"/>
-    <hyperlink ref="D83" r:id="rId14" xr:uid="{21E0017C-FACC-46B3-86C9-8DD30D6550DA}"/>
-    <hyperlink ref="D84" r:id="rId15" xr:uid="{3390F91D-0E16-4010-AF71-083917CB067B}"/>
-    <hyperlink ref="D96" r:id="rId16" xr:uid="{E0640045-D350-4704-8B38-A7CA09AFEE33}"/>
-    <hyperlink ref="D110" r:id="rId17" xr:uid="{1A2DAA55-5C64-4857-B233-C882404855B7}"/>
-    <hyperlink ref="D129" r:id="rId18" xr:uid="{F14892F1-F9B4-4267-AB89-217619BE2482}"/>
-    <hyperlink ref="D160" r:id="rId19" xr:uid="{102190B0-CF70-49F2-A39F-66C78A96FB15}"/>
-    <hyperlink ref="D162" r:id="rId20" xr:uid="{505EDDB9-40D5-47E1-9D8C-013F713BD7C4}"/>
+    <hyperlink ref="D14" r:id="rId3" xr:uid="{95710A09-A8DF-4EC7-8A91-A9F19214DFDB}"/>
+    <hyperlink ref="D25" r:id="rId4" xr:uid="{D8B459FF-0DAD-41E7-962F-E665DAA80126}"/>
+    <hyperlink ref="D27" r:id="rId5" xr:uid="{78160D83-66C3-42C2-A4C3-B4561F3A3A76}"/>
+    <hyperlink ref="D31" r:id="rId6" xr:uid="{F931B8FB-C4EE-4679-A324-ED6985C1C947}"/>
+    <hyperlink ref="D63" r:id="rId7" xr:uid="{7127996F-3470-4C90-BEAA-8F508DEBD2E6}"/>
+    <hyperlink ref="D64" r:id="rId8" xr:uid="{FDC526CF-47A0-48EA-AB80-49C4AC9E8DDD}"/>
+    <hyperlink ref="D65" r:id="rId9" xr:uid="{E92E3D36-5A7D-4922-9F28-0437FF27B171}"/>
+    <hyperlink ref="D67" r:id="rId10" xr:uid="{033F050A-CAF6-4FFB-BCB1-4395A0FA5CEE}"/>
+    <hyperlink ref="D69" r:id="rId11" xr:uid="{F6292547-D050-48F9-AA14-673CC87BACE0}"/>
+    <hyperlink ref="D70" r:id="rId12" xr:uid="{45A29BB1-A819-4857-A02D-4EA3200DCD5C}"/>
+    <hyperlink ref="D72" r:id="rId13" xr:uid="{BFFCED72-7C63-4681-A477-A2AB79E699D6}"/>
+    <hyperlink ref="D74" r:id="rId14" xr:uid="{21E0017C-FACC-46B3-86C9-8DD30D6550DA}"/>
+    <hyperlink ref="D75" r:id="rId15" xr:uid="{3390F91D-0E16-4010-AF71-083917CB067B}"/>
+    <hyperlink ref="D87" r:id="rId16" xr:uid="{E0640045-D350-4704-8B38-A7CA09AFEE33}"/>
+    <hyperlink ref="D119" r:id="rId17" xr:uid="{F14892F1-F9B4-4267-AB89-217619BE2482}"/>
+    <hyperlink ref="D150" r:id="rId18" xr:uid="{102190B0-CF70-49F2-A39F-66C78A96FB15}"/>
+    <hyperlink ref="D152" r:id="rId19" xr:uid="{505EDDB9-40D5-47E1-9D8C-013F713BD7C4}"/>
+    <hyperlink ref="D38" r:id="rId20" xr:uid="{C084ABA3-CF1E-4809-BE2C-86DFE8193E88}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId21"/>
@@ -17583,7 +17757,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -17591,24 +17765,24 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C2" t="s">
         <v>199</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>200</v>
-      </c>
-      <c r="C2" t="s">
-        <v>201</v>
-      </c>
-      <c r="D2" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C3" s="5">
         <v>44107</v>
@@ -17616,7 +17790,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C4" s="5">
         <v>44107</v>
@@ -17624,7 +17798,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C5" s="5">
         <v>44107</v>
@@ -17632,21 +17806,21 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C6" s="5">
         <v>44107</v>
       </c>
       <c r="D6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B9" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C9" s="5">
         <v>44110</v>
@@ -17654,7 +17828,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C10" s="5">
         <v>44110</v>
@@ -17662,7 +17836,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C11" s="5">
         <v>44110</v>
@@ -17670,10 +17844,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B12" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C12" s="5">
         <v>44110</v>
@@ -17681,7 +17855,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C13" s="5">
         <v>44110</v>
@@ -17689,7 +17863,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C14" s="5">
         <v>44110</v>
@@ -17697,7 +17871,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C15" s="5">
         <v>44110</v>
@@ -17705,18 +17879,18 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C16" s="5">
         <v>44110</v>
       </c>
       <c r="D16" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C17" s="5">
         <v>44112</v>
@@ -17724,10 +17898,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B18" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C18" s="5">
         <v>44112</v>
@@ -17735,7 +17909,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C19" s="5">
         <v>44112</v>
@@ -17743,7 +17917,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C20" s="5">
         <v>44112</v>
@@ -17751,7 +17925,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C21" s="5">
         <v>44112</v>
@@ -17759,7 +17933,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C22" s="5">
         <v>44112</v>
@@ -17767,18 +17941,18 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C23" s="5">
         <v>44112</v>
       </c>
       <c r="D23" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C24" s="5">
         <v>44112</v>
@@ -17786,10 +17960,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B25" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C25" s="5">
         <v>44112</v>
@@ -17800,7 +17974,7 @@
         <v>7.9861111111111105E-2</v>
       </c>
       <c r="B26" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C26" s="5">
         <v>44114</v>
@@ -17808,7 +17982,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C27" s="5">
         <v>44114</v>
@@ -17816,7 +17990,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C28" s="5">
         <v>44114</v>
@@ -17824,7 +17998,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C29" s="5">
         <v>44114</v>
@@ -17832,7 +18006,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C30" s="5">
         <v>44114</v>
@@ -17840,7 +18014,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C31" s="5">
         <v>44114</v>
@@ -17848,7 +18022,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C32" s="5">
         <v>44114</v>
@@ -17856,7 +18030,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C33" s="5">
         <v>44114</v>
@@ -17864,7 +18038,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C34" s="5">
         <v>44114</v>
@@ -17872,60 +18046,60 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B45" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -17933,80 +18107,80 @@
         <v>3.5416666666666666E-2</v>
       </c>
       <c r="B46" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B60" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -18014,70 +18188,70 @@
         <v>3.5416666666666666E-2</v>
       </c>
       <c r="B61" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B73" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -18085,70 +18259,70 @@
         <v>6.3194444444444442E-2</v>
       </c>
       <c r="B74" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B86" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C86" s="5">
         <v>44116</v>
@@ -18159,82 +18333,82 @@
         <v>8.1944444444444445E-2</v>
       </c>
       <c r="B87" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -18244,10 +18418,10 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B113" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C113" s="5"/>
     </row>
@@ -18256,7 +18430,7 @@
         <v>6.5972222222222224E-2</v>
       </c>
       <c r="B114" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C114" s="5">
         <v>44112</v>
@@ -18264,70 +18438,70 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B127" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -18335,97 +18509,97 @@
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="B128" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
   </sheetData>
@@ -18440,7 +18614,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{963D7DE2-4C5F-4EF4-A175-66E0345F9474}">
   <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
@@ -18452,7 +18626,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -18460,46 +18634,46 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C2" t="s">
         <v>199</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>200</v>
-      </c>
-      <c r="C2" t="s">
-        <v>201</v>
-      </c>
-      <c r="D2" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C3" s="1">
         <v>44118</v>
       </c>
       <c r="D3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C4" s="1">
         <v>44118</v>
       </c>
       <c r="D4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C5" s="1">
         <v>44118</v>
@@ -18507,10 +18681,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="B6" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="C6" s="1">
         <v>44149</v>
@@ -18518,7 +18692,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="C7" s="1">
         <v>44149</v>
@@ -18526,7 +18700,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="C8" s="1">
         <v>44149</v>
@@ -18534,7 +18708,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="C9" s="1">
         <v>44149</v>
@@ -18542,7 +18716,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="C10" s="1">
         <v>44149</v>
@@ -18550,7 +18724,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="C11" s="1">
         <v>44149</v>
@@ -18558,18 +18732,18 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="C12" s="1">
         <v>44149</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="C13" s="1">
         <v>44150</v>
@@ -18577,7 +18751,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="C14" s="1">
         <v>44149</v>
@@ -18585,7 +18759,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="C15" s="1">
         <v>44149</v>
@@ -18593,7 +18767,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="C16" s="1">
         <v>44149</v>
@@ -18601,7 +18775,7 @@
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="C17" s="1">
         <v>44150</v>
@@ -18609,7 +18783,7 @@
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="C18" s="1">
         <v>44150</v>
@@ -18617,7 +18791,7 @@
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="C19" s="1">
         <v>44150</v>
@@ -18625,7 +18799,7 @@
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="C20" s="1">
         <v>44150</v>
@@ -18633,7 +18807,7 @@
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="C21" s="1">
         <v>44150</v>
@@ -18641,7 +18815,7 @@
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="C22" s="1">
         <v>44150</v>
@@ -18649,7 +18823,7 @@
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="C23" s="1">
         <v>44150</v>
@@ -18657,131 +18831,131 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B33" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C33" s="1">
         <v>44118</v>
       </c>
       <c r="D33" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C34" s="1">
         <v>44119</v>
       </c>
       <c r="D34" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C35" s="1">
         <v>44119</v>
       </c>
       <c r="D35" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C36" s="1">
         <v>44119</v>
       </c>
       <c r="D36" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C37" s="1">
         <v>44119</v>
       </c>
       <c r="D37" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C38" s="1">
         <v>44119</v>
       </c>
       <c r="D38" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C39" s="1">
         <v>44119</v>
       </c>
       <c r="D39" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C40" s="1">
         <v>44119</v>
       </c>
       <c r="D40" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C41" s="1">
         <v>44119</v>
       </c>
       <c r="D41" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C42" s="1">
         <v>44119</v>
       </c>
       <c r="D42" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C43" s="1">
         <v>44119</v>
       </c>
       <c r="D43" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C44" s="1">
         <v>44119</v>
@@ -18789,7 +18963,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C45" s="1">
         <v>44119</v>
@@ -18797,7 +18971,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C46" s="1">
         <v>44119</v>
@@ -18805,7 +18979,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C47" s="1">
         <v>44119</v>
@@ -18813,7 +18987,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C48" s="1">
         <v>44119</v>
@@ -18821,7 +18995,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C49" s="1">
         <v>44119</v>
@@ -18829,32 +19003,32 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -18864,7 +19038,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -18874,7 +19048,7 @@
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
@@ -18884,7 +19058,7 @@
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
@@ -18894,7 +19068,7 @@
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
@@ -18904,7 +19078,7 @@
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
@@ -18914,7 +19088,7 @@
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
@@ -18924,7 +19098,7 @@
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
@@ -18934,7 +19108,7 @@
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
@@ -18944,7 +19118,7 @@
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
@@ -18954,7 +19128,7 @@
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
@@ -18964,7 +19138,7 @@
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
@@ -18996,23 +19170,23 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C3" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
   </sheetData>
@@ -19036,15 +19210,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B2" s="1">
         <v>44120</v>
@@ -19052,7 +19226,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B3" s="1">
         <v>44120</v>
@@ -19060,7 +19234,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B4" s="1">
         <v>44120</v>
@@ -19068,7 +19242,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B5" s="1">
         <v>44120</v>
@@ -19076,7 +19250,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B6" s="1">
         <v>44120</v>
@@ -19084,7 +19258,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B7" s="1">
         <v>44120</v>
@@ -19092,7 +19266,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B8" s="1">
         <v>44122</v>
@@ -19100,7 +19274,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B9" s="1">
         <v>44122</v>
@@ -19108,87 +19282,87 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
   </sheetData>
@@ -19212,15 +19386,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B2" s="1">
         <v>44123</v>
@@ -19228,7 +19402,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B3" s="1">
         <v>44123</v>
@@ -19236,7 +19410,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B4" s="1">
         <v>44134</v>
@@ -19244,7 +19418,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B5" s="1">
         <v>44134</v>
@@ -19252,7 +19426,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B6" s="1">
         <v>44135</v>
@@ -19260,7 +19434,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B7" s="1">
         <v>44135</v>
@@ -19268,7 +19442,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B8" s="1">
         <v>44135</v>
@@ -19276,7 +19450,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B9" s="1">
         <v>44135</v>
@@ -19284,7 +19458,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B10" s="1">
         <v>44135</v>
@@ -19292,7 +19466,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B11" s="1">
         <v>44135</v>
@@ -19300,7 +19474,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B12" s="1">
         <v>44135</v>
@@ -19308,7 +19482,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B13" s="1">
         <v>44135</v>
@@ -19316,7 +19490,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B14" s="1">
         <v>44135</v>
@@ -19346,73 +19520,73 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B1" t="s">
+        <v>520</v>
+      </c>
+      <c r="C1" t="s">
         <v>199</v>
-      </c>
-      <c r="B1" t="s">
-        <v>525</v>
-      </c>
-      <c r="C1" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="B2" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="C2" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="B3" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="C3" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="B4" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="C4" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="B5" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="C5" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="B7" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="C7" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
     </row>
   </sheetData>
@@ -19435,21 +19609,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B1" t="s">
+        <v>527</v>
+      </c>
+      <c r="C1" t="s">
         <v>199</v>
-      </c>
-      <c r="B1" t="s">
-        <v>532</v>
-      </c>
-      <c r="C1" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B2" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="C2" s="1">
         <v>44134</v>
@@ -19467,6 +19641,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006522413CC6A60D498B37CD3854731189" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d69901270e2274f32db97cbc48ae1c90">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3cb962350dbf3e80c84db518e6224f7c">
     <xsd:element name="properties">
@@ -19580,15 +19763,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9E496BF-0A8B-43E4-AB12-4B2BAD91A9E6}">
   <ds:schemaRefs>
@@ -19599,6 +19773,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52E299C4-492D-4E68-A807-C7DF706F8165}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8D81427-E7A1-4C0E-AF7A-68D6458FB4E3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -19612,12 +19794,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52E299C4-492D-4E68-A807-C7DF706F8165}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/My_Road.xlsx
+++ b/My_Road.xlsx
@@ -8,23 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phill\wsl_share_folder\python_jupyter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E1F208C-1745-4A36-A7D4-3B51F6B02C24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47591400-2B1D-4F6E-8CB3-8AA2B3A7DA68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5235" yWindow="2895" windowWidth="21015" windowHeight="10185" xr2:uid="{2E3D5B4E-200F-40C0-9AC0-5A6D59069395}"/>
+    <workbookView xWindow="4110" yWindow="2325" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{2E3D5B4E-200F-40C0-9AC0-5A6D59069395}"/>
   </bookViews>
   <sheets>
     <sheet name="space_repetition" sheetId="2" r:id="rId1"/>
-    <sheet name="Resource" sheetId="1" r:id="rId2"/>
-    <sheet name="Pytyhon Data Structure" sheetId="3" r:id="rId3"/>
-    <sheet name="Master Code" sheetId="6" r:id="rId4"/>
-    <sheet name="Tools" sheetId="7" r:id="rId5"/>
-    <sheet name="SysExpert" sheetId="8" r:id="rId6"/>
-    <sheet name="AlgoExpert" sheetId="9" r:id="rId7"/>
-    <sheet name="JS" sheetId="10" r:id="rId8"/>
-    <sheet name="Design" sheetId="11" r:id="rId9"/>
+    <sheet name="Java" sheetId="12" r:id="rId2"/>
+    <sheet name="Resource" sheetId="1" r:id="rId3"/>
+    <sheet name="Pytyhon Data Structure" sheetId="3" r:id="rId4"/>
+    <sheet name="Master Code" sheetId="6" r:id="rId5"/>
+    <sheet name="Tools" sheetId="7" r:id="rId6"/>
+    <sheet name="SysExpert" sheetId="8" r:id="rId7"/>
+    <sheet name="AlgoExpert" sheetId="9" r:id="rId8"/>
+    <sheet name="JS" sheetId="10" r:id="rId9"/>
+    <sheet name="Design" sheetId="11" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Resource!$A$1:$E$155</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Resource!$A$1:$E$155</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">space_repetition!$A$1:$N$1</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1510" uniqueCount="750">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1537" uniqueCount="774">
   <si>
     <t>Topic</t>
   </si>
@@ -2296,6 +2297,78 @@
   </si>
   <si>
     <t>Udemy JSalgo</t>
+  </si>
+  <si>
+    <t>1. Course Introduction</t>
+  </si>
+  <si>
+    <t>1. Introduction to the course</t>
+  </si>
+  <si>
+    <t>2. remaster in progress</t>
+  </si>
+  <si>
+    <t>3. video quality</t>
+  </si>
+  <si>
+    <t>4. subtitles</t>
+  </si>
+  <si>
+    <t>5. how to get help</t>
+  </si>
+  <si>
+    <t>6. Important tip - source Code</t>
+  </si>
+  <si>
+    <t>7. Biggest Tip to Succeed as a Java Programmer</t>
+  </si>
+  <si>
+    <t>8. Being Persistent and the four Stages of becoming a progarmmer videos</t>
+  </si>
+  <si>
+    <t>9. software tools introduction</t>
+  </si>
+  <si>
+    <t>2. Software tools setup</t>
+  </si>
+  <si>
+    <t>10. Java development kit installation</t>
+  </si>
+  <si>
+    <t>11. install jdk 11 for windows</t>
+  </si>
+  <si>
+    <t>12. install intellij idea for windows</t>
+  </si>
+  <si>
+    <t>17. Configure intellije Idea</t>
+  </si>
+  <si>
+    <t>13. Install jdk 11 for mac</t>
+  </si>
+  <si>
+    <t>14. Install intellij Idea for mac</t>
+  </si>
+  <si>
+    <t>15. Install Jdk 11 for Linux</t>
+  </si>
+  <si>
+    <t>16. Installing intellij IDEA for Linux</t>
+  </si>
+  <si>
+    <t>3. first Step</t>
+  </si>
+  <si>
+    <t>18. Introduction</t>
+  </si>
+  <si>
+    <t>19. Hello World project</t>
+  </si>
+  <si>
+    <t>20. Definoing the Main method</t>
+  </si>
+  <si>
+    <t>21. Hello world challenge and common erros</t>
   </si>
 </sst>
 </file>
@@ -2776,7 +2849,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F38BBA21-D853-4212-836C-39F6514B3195}">
   <dimension ref="A1:N347"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G67" sqref="G67"/>
     </sheetView>
@@ -2893,23 +2966,23 @@
         <v>44119</v>
       </c>
       <c r="G3" s="4">
-        <f t="shared" ref="G3:G26" si="3">F3+7</f>
+        <f t="shared" ref="G3:G23" si="3">F3+7</f>
         <v>44126</v>
       </c>
       <c r="H3" s="4">
-        <f t="shared" ref="H3:H26" si="4">G3+14</f>
+        <f t="shared" ref="H3:H23" si="4">G3+14</f>
         <v>44140</v>
       </c>
       <c r="I3" s="3">
-        <f t="shared" ref="I3:I26" si="5">H3+30</f>
+        <f t="shared" ref="I3:I23" si="5">H3+30</f>
         <v>44170</v>
       </c>
       <c r="J3" s="3">
-        <f t="shared" ref="J3:J26" si="6">I3+60</f>
+        <f t="shared" ref="J3:J23" si="6">I3+60</f>
         <v>44230</v>
       </c>
       <c r="K3" s="3">
-        <f t="shared" ref="K3:K26" si="7">J3 + 180</f>
+        <f t="shared" ref="K3:K23" si="7">J3 + 180</f>
         <v>44410</v>
       </c>
       <c r="L3" s="2" t="s">
@@ -5168,15 +5241,15 @@
         <v>44143</v>
       </c>
       <c r="I64" s="3">
-        <f t="shared" ref="I59:I123" si="30">H64+30</f>
+        <f t="shared" ref="I64:I123" si="30">H64+30</f>
         <v>44173</v>
       </c>
       <c r="J64" s="3">
-        <f t="shared" ref="J59:J123" si="31">I64+60</f>
+        <f t="shared" ref="J64:J123" si="31">I64+60</f>
         <v>44233</v>
       </c>
       <c r="K64" s="3">
-        <f t="shared" ref="K59:K123" si="32">J64 + 180</f>
+        <f t="shared" ref="K64:K123" si="32">J64 + 180</f>
         <v>44413</v>
       </c>
       <c r="L64" s="2" t="s">
@@ -5902,11 +5975,11 @@
         <v>44114</v>
       </c>
       <c r="E81" s="4">
-        <f>D81+1</f>
+        <f t="shared" ref="E81:E96" si="33">D81+1</f>
         <v>44115</v>
       </c>
       <c r="F81" s="4">
-        <f>E81 + 3</f>
+        <f t="shared" ref="F81:F96" si="34">E81 + 3</f>
         <v>44118</v>
       </c>
       <c r="G81" s="3">
@@ -5949,11 +6022,11 @@
         <v>44114</v>
       </c>
       <c r="E82" s="4">
-        <f>D82+1</f>
+        <f t="shared" si="33"/>
         <v>44115</v>
       </c>
       <c r="F82" s="4">
-        <f>E82 + 3</f>
+        <f t="shared" si="34"/>
         <v>44118</v>
       </c>
       <c r="G82" s="3">
@@ -5994,11 +6067,11 @@
         <v>44116</v>
       </c>
       <c r="E83" s="4">
-        <f>D83+1</f>
+        <f t="shared" si="33"/>
         <v>44117</v>
       </c>
       <c r="F83" s="4">
-        <f>E83 + 3</f>
+        <f t="shared" si="34"/>
         <v>44120</v>
       </c>
       <c r="G83" s="3">
@@ -6039,11 +6112,11 @@
         <v>44116</v>
       </c>
       <c r="E84" s="4">
-        <f>D84+1</f>
+        <f t="shared" si="33"/>
         <v>44117</v>
       </c>
       <c r="F84" s="4">
-        <f>E84 + 3</f>
+        <f t="shared" si="34"/>
         <v>44120</v>
       </c>
       <c r="G84" s="3">
@@ -6087,11 +6160,11 @@
         <v>44116</v>
       </c>
       <c r="E85" s="4">
-        <f>D85+1</f>
+        <f t="shared" si="33"/>
         <v>44117</v>
       </c>
       <c r="F85" s="4">
-        <f>E85 + 3</f>
+        <f t="shared" si="34"/>
         <v>44120</v>
       </c>
       <c r="G85" s="3">
@@ -6135,31 +6208,31 @@
         <v>44116</v>
       </c>
       <c r="E86" s="4">
-        <f>D86+1</f>
+        <f t="shared" si="33"/>
         <v>44117</v>
       </c>
       <c r="F86" s="4">
-        <f>E86 + 3</f>
+        <f t="shared" si="34"/>
         <v>44120</v>
       </c>
       <c r="G86" s="3">
-        <f t="shared" ref="G86:G87" si="33">F86+7</f>
+        <f t="shared" ref="G86:G87" si="35">F86+7</f>
         <v>44127</v>
       </c>
       <c r="H86" s="3">
-        <f t="shared" ref="H86:H87" si="34">G86+14</f>
+        <f t="shared" ref="H86:H87" si="36">G86+14</f>
         <v>44141</v>
       </c>
       <c r="I86" s="3">
-        <f t="shared" ref="I86:I87" si="35">H86+30</f>
+        <f t="shared" ref="I86:I87" si="37">H86+30</f>
         <v>44171</v>
       </c>
       <c r="J86" s="3">
-        <f t="shared" ref="J86:J87" si="36">I86+60</f>
+        <f t="shared" ref="J86:J87" si="38">I86+60</f>
         <v>44231</v>
       </c>
       <c r="K86" s="3">
-        <f t="shared" ref="K86:K87" si="37">J86 + 180</f>
+        <f t="shared" ref="K86:K87" si="39">J86 + 180</f>
         <v>44411</v>
       </c>
       <c r="L86" s="2" t="s">
@@ -6180,31 +6253,31 @@
         <v>44116</v>
       </c>
       <c r="E87" s="4">
-        <f>D87+1</f>
+        <f t="shared" si="33"/>
         <v>44117</v>
       </c>
       <c r="F87" s="4">
-        <f>E87 + 3</f>
+        <f t="shared" si="34"/>
         <v>44120</v>
       </c>
       <c r="G87" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>44127</v>
       </c>
       <c r="H87" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>44141</v>
       </c>
       <c r="I87" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>44171</v>
       </c>
       <c r="J87" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>44231</v>
       </c>
       <c r="K87" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>44411</v>
       </c>
       <c r="L87" s="2" t="s">
@@ -6225,11 +6298,11 @@
         <v>44116</v>
       </c>
       <c r="E88" s="11">
-        <f>D88+1</f>
+        <f t="shared" si="33"/>
         <v>44117</v>
       </c>
       <c r="F88" s="11">
-        <f>E88 + 3</f>
+        <f t="shared" si="34"/>
         <v>44120</v>
       </c>
       <c r="G88" s="11"/>
@@ -6255,11 +6328,11 @@
         <v>44116</v>
       </c>
       <c r="E89" s="11">
-        <f>D89+1</f>
+        <f t="shared" si="33"/>
         <v>44117</v>
       </c>
       <c r="F89" s="11">
-        <f>E89 + 3</f>
+        <f t="shared" si="34"/>
         <v>44120</v>
       </c>
       <c r="G89" s="11"/>
@@ -6285,11 +6358,11 @@
         <v>44116</v>
       </c>
       <c r="E90" s="11">
-        <f>D90+1</f>
+        <f t="shared" si="33"/>
         <v>44117</v>
       </c>
       <c r="F90" s="11">
-        <f>E90 + 3</f>
+        <f t="shared" si="34"/>
         <v>44120</v>
       </c>
       <c r="G90" s="11"/>
@@ -6315,31 +6388,31 @@
         <v>44117</v>
       </c>
       <c r="E91" s="4">
-        <f>D91+1</f>
+        <f t="shared" si="33"/>
         <v>44118</v>
       </c>
       <c r="F91" s="4">
-        <f>E91 + 3</f>
+        <f t="shared" si="34"/>
         <v>44121</v>
       </c>
       <c r="G91" s="3">
-        <f>F91+7</f>
+        <f t="shared" ref="G91:G96" si="40">F91+7</f>
         <v>44128</v>
       </c>
       <c r="H91" s="3">
-        <f>G91+14</f>
+        <f t="shared" ref="H91:H96" si="41">G91+14</f>
         <v>44142</v>
       </c>
       <c r="I91" s="3">
-        <f>H91+30</f>
+        <f t="shared" ref="I91:I96" si="42">H91+30</f>
         <v>44172</v>
       </c>
       <c r="J91" s="3">
-        <f>I91+60</f>
+        <f t="shared" ref="J91:J96" si="43">I91+60</f>
         <v>44232</v>
       </c>
       <c r="K91" s="3">
-        <f>J91 + 180</f>
+        <f t="shared" ref="K91:K96" si="44">J91 + 180</f>
         <v>44412</v>
       </c>
       <c r="L91" s="2" t="s">
@@ -6360,31 +6433,31 @@
         <v>44117</v>
       </c>
       <c r="E92" s="4">
-        <f>D92+1</f>
+        <f t="shared" si="33"/>
         <v>44118</v>
       </c>
       <c r="F92" s="4">
-        <f>E92 + 3</f>
+        <f t="shared" si="34"/>
         <v>44121</v>
       </c>
       <c r="G92" s="3">
-        <f>F92+7</f>
+        <f t="shared" si="40"/>
         <v>44128</v>
       </c>
       <c r="H92" s="3">
-        <f>G92+14</f>
+        <f t="shared" si="41"/>
         <v>44142</v>
       </c>
       <c r="I92" s="3">
-        <f>H92+30</f>
+        <f t="shared" si="42"/>
         <v>44172</v>
       </c>
       <c r="J92" s="3">
-        <f>I92+60</f>
+        <f t="shared" si="43"/>
         <v>44232</v>
       </c>
       <c r="K92" s="3">
-        <f>J92 + 180</f>
+        <f t="shared" si="44"/>
         <v>44412</v>
       </c>
       <c r="L92" s="2" t="s">
@@ -6405,31 +6478,31 @@
         <v>44117</v>
       </c>
       <c r="E93" s="4">
-        <f>D93+1</f>
+        <f t="shared" si="33"/>
         <v>44118</v>
       </c>
       <c r="F93" s="4">
-        <f>E93 + 3</f>
+        <f t="shared" si="34"/>
         <v>44121</v>
       </c>
       <c r="G93" s="3">
-        <f>F93+7</f>
+        <f t="shared" si="40"/>
         <v>44128</v>
       </c>
       <c r="H93" s="3">
-        <f>G93+14</f>
+        <f t="shared" si="41"/>
         <v>44142</v>
       </c>
       <c r="I93" s="3">
-        <f>H93+30</f>
+        <f t="shared" si="42"/>
         <v>44172</v>
       </c>
       <c r="J93" s="3">
-        <f>I93+60</f>
+        <f t="shared" si="43"/>
         <v>44232</v>
       </c>
       <c r="K93" s="3">
-        <f>J93 + 180</f>
+        <f t="shared" si="44"/>
         <v>44412</v>
       </c>
       <c r="L93" s="2" t="s">
@@ -6441,31 +6514,31 @@
         <v>493</v>
       </c>
       <c r="E94" s="3">
-        <f>D94+1</f>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="F94" s="3">
-        <f>E94 + 3</f>
+        <f t="shared" si="34"/>
         <v>4</v>
       </c>
       <c r="G94" s="3">
-        <f>F94+7</f>
+        <f t="shared" si="40"/>
         <v>11</v>
       </c>
       <c r="H94" s="3">
-        <f>G94+14</f>
+        <f t="shared" si="41"/>
         <v>25</v>
       </c>
       <c r="I94" s="3">
-        <f>H94+30</f>
+        <f t="shared" si="42"/>
         <v>55</v>
       </c>
       <c r="J94" s="3">
-        <f>I94+60</f>
+        <f t="shared" si="43"/>
         <v>115</v>
       </c>
       <c r="K94" s="3">
-        <f>J94 + 180</f>
+        <f t="shared" si="44"/>
         <v>295</v>
       </c>
       <c r="L94" s="2" t="s">
@@ -6480,31 +6553,31 @@
         <v>494</v>
       </c>
       <c r="E95" s="3">
-        <f>D95+1</f>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="F95" s="3">
-        <f>E95 + 3</f>
+        <f t="shared" si="34"/>
         <v>4</v>
       </c>
       <c r="G95" s="3">
-        <f>F95+7</f>
+        <f t="shared" si="40"/>
         <v>11</v>
       </c>
       <c r="H95" s="3">
-        <f>G95+14</f>
+        <f t="shared" si="41"/>
         <v>25</v>
       </c>
       <c r="I95" s="3">
-        <f>H95+30</f>
+        <f t="shared" si="42"/>
         <v>55</v>
       </c>
       <c r="J95" s="3">
-        <f>I95+60</f>
+        <f t="shared" si="43"/>
         <v>115</v>
       </c>
       <c r="K95" s="3">
-        <f>J95 + 180</f>
+        <f t="shared" si="44"/>
         <v>295</v>
       </c>
       <c r="L95" s="2" t="s">
@@ -6519,31 +6592,31 @@
         <v>44133</v>
       </c>
       <c r="E96" s="3">
-        <f>D96+1</f>
+        <f t="shared" si="33"/>
         <v>44134</v>
       </c>
       <c r="F96" s="3">
-        <f>E96 + 3</f>
+        <f t="shared" si="34"/>
         <v>44137</v>
       </c>
       <c r="G96" s="3">
-        <f>F96+7</f>
+        <f t="shared" si="40"/>
         <v>44144</v>
       </c>
       <c r="H96" s="3">
-        <f>G96+14</f>
+        <f t="shared" si="41"/>
         <v>44158</v>
       </c>
       <c r="I96" s="3">
-        <f>H96+30</f>
+        <f t="shared" si="42"/>
         <v>44188</v>
       </c>
       <c r="J96" s="3">
-        <f>I96+60</f>
+        <f t="shared" si="43"/>
         <v>44248</v>
       </c>
       <c r="K96" s="3">
-        <f>J96 + 180</f>
+        <f t="shared" si="44"/>
         <v>44428</v>
       </c>
       <c r="L96" s="2" t="s">
@@ -7443,31 +7516,31 @@
     </row>
     <row r="124" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E124" s="3">
-        <f t="shared" ref="E124:E187" si="38">D124+1</f>
+        <f t="shared" ref="E124:E187" si="45">D124+1</f>
         <v>1</v>
       </c>
       <c r="F124" s="3">
-        <f t="shared" ref="F124:F187" si="39">E124 + 3</f>
+        <f t="shared" ref="F124:F187" si="46">E124 + 3</f>
         <v>4</v>
       </c>
       <c r="G124" s="3">
-        <f t="shared" ref="G124:G187" si="40">F124+7</f>
+        <f t="shared" ref="G124:G187" si="47">F124+7</f>
         <v>11</v>
       </c>
       <c r="H124" s="3">
-        <f t="shared" ref="H124:H187" si="41">G124+14</f>
+        <f t="shared" ref="H124:H187" si="48">G124+14</f>
         <v>25</v>
       </c>
       <c r="I124" s="3">
-        <f t="shared" ref="I124:I187" si="42">H124+30</f>
+        <f t="shared" ref="I124:I187" si="49">H124+30</f>
         <v>55</v>
       </c>
       <c r="J124" s="3">
-        <f t="shared" ref="J124:J187" si="43">I124+60</f>
+        <f t="shared" ref="J124:J187" si="50">I124+60</f>
         <v>115</v>
       </c>
       <c r="K124" s="3">
-        <f t="shared" ref="K124:K187" si="44">J124 + 180</f>
+        <f t="shared" ref="K124:K187" si="51">J124 + 180</f>
         <v>295</v>
       </c>
       <c r="L124" s="2" t="s">
@@ -7476,31 +7549,31 @@
     </row>
     <row r="125" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E125" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="F125" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>4</v>
       </c>
       <c r="G125" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>11</v>
       </c>
       <c r="H125" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>25</v>
       </c>
       <c r="I125" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>55</v>
       </c>
       <c r="J125" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>115</v>
       </c>
       <c r="K125" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>295</v>
       </c>
       <c r="L125" s="2" t="s">
@@ -7509,31 +7582,31 @@
     </row>
     <row r="126" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E126" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="F126" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>4</v>
       </c>
       <c r="G126" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>11</v>
       </c>
       <c r="H126" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>25</v>
       </c>
       <c r="I126" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>55</v>
       </c>
       <c r="J126" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>115</v>
       </c>
       <c r="K126" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>295</v>
       </c>
       <c r="L126" s="2" t="s">
@@ -7542,31 +7615,31 @@
     </row>
     <row r="127" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E127" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="F127" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>4</v>
       </c>
       <c r="G127" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>11</v>
       </c>
       <c r="H127" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>25</v>
       </c>
       <c r="I127" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>55</v>
       </c>
       <c r="J127" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>115</v>
       </c>
       <c r="K127" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>295</v>
       </c>
       <c r="L127" s="2" t="s">
@@ -7575,31 +7648,31 @@
     </row>
     <row r="128" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E128" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="F128" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>4</v>
       </c>
       <c r="G128" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>11</v>
       </c>
       <c r="H128" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>25</v>
       </c>
       <c r="I128" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>55</v>
       </c>
       <c r="J128" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>115</v>
       </c>
       <c r="K128" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>295</v>
       </c>
       <c r="L128" s="2" t="s">
@@ -7608,31 +7681,31 @@
     </row>
     <row r="129" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E129" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="F129" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>4</v>
       </c>
       <c r="G129" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>11</v>
       </c>
       <c r="H129" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>25</v>
       </c>
       <c r="I129" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>55</v>
       </c>
       <c r="J129" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>115</v>
       </c>
       <c r="K129" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>295</v>
       </c>
       <c r="L129" s="2" t="s">
@@ -7641,31 +7714,31 @@
     </row>
     <row r="130" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E130" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="F130" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>4</v>
       </c>
       <c r="G130" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>11</v>
       </c>
       <c r="H130" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>25</v>
       </c>
       <c r="I130" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>55</v>
       </c>
       <c r="J130" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>115</v>
       </c>
       <c r="K130" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>295</v>
       </c>
       <c r="L130" s="2" t="s">
@@ -7674,31 +7747,31 @@
     </row>
     <row r="131" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E131" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="F131" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>4</v>
       </c>
       <c r="G131" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>11</v>
       </c>
       <c r="H131" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>25</v>
       </c>
       <c r="I131" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>55</v>
       </c>
       <c r="J131" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>115</v>
       </c>
       <c r="K131" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>295</v>
       </c>
       <c r="L131" s="2" t="s">
@@ -7707,31 +7780,31 @@
     </row>
     <row r="132" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E132" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="F132" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>4</v>
       </c>
       <c r="G132" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>11</v>
       </c>
       <c r="H132" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>25</v>
       </c>
       <c r="I132" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>55</v>
       </c>
       <c r="J132" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>115</v>
       </c>
       <c r="K132" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>295</v>
       </c>
       <c r="L132" s="2" t="s">
@@ -7740,31 +7813,31 @@
     </row>
     <row r="133" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E133" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="F133" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>4</v>
       </c>
       <c r="G133" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>11</v>
       </c>
       <c r="H133" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>25</v>
       </c>
       <c r="I133" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>55</v>
       </c>
       <c r="J133" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>115</v>
       </c>
       <c r="K133" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>295</v>
       </c>
       <c r="L133" s="2" t="s">
@@ -7773,31 +7846,31 @@
     </row>
     <row r="134" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E134" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="F134" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>4</v>
       </c>
       <c r="G134" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>11</v>
       </c>
       <c r="H134" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>25</v>
       </c>
       <c r="I134" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>55</v>
       </c>
       <c r="J134" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>115</v>
       </c>
       <c r="K134" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>295</v>
       </c>
       <c r="L134" s="2" t="s">
@@ -7806,31 +7879,31 @@
     </row>
     <row r="135" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E135" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="F135" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>4</v>
       </c>
       <c r="G135" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>11</v>
       </c>
       <c r="H135" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>25</v>
       </c>
       <c r="I135" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>55</v>
       </c>
       <c r="J135" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>115</v>
       </c>
       <c r="K135" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>295</v>
       </c>
       <c r="L135" s="2" t="s">
@@ -7839,31 +7912,31 @@
     </row>
     <row r="136" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E136" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="F136" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>4</v>
       </c>
       <c r="G136" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>11</v>
       </c>
       <c r="H136" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>25</v>
       </c>
       <c r="I136" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>55</v>
       </c>
       <c r="J136" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>115</v>
       </c>
       <c r="K136" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>295</v>
       </c>
       <c r="L136" s="2" t="s">
@@ -7872,31 +7945,31 @@
     </row>
     <row r="137" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E137" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="F137" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>4</v>
       </c>
       <c r="G137" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>11</v>
       </c>
       <c r="H137" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>25</v>
       </c>
       <c r="I137" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>55</v>
       </c>
       <c r="J137" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>115</v>
       </c>
       <c r="K137" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>295</v>
       </c>
       <c r="L137" s="2" t="s">
@@ -7905,31 +7978,31 @@
     </row>
     <row r="138" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E138" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="F138" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>4</v>
       </c>
       <c r="G138" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>11</v>
       </c>
       <c r="H138" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>25</v>
       </c>
       <c r="I138" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>55</v>
       </c>
       <c r="J138" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>115</v>
       </c>
       <c r="K138" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>295</v>
       </c>
       <c r="L138" s="2" t="s">
@@ -7938,31 +8011,31 @@
     </row>
     <row r="139" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E139" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="F139" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>4</v>
       </c>
       <c r="G139" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>11</v>
       </c>
       <c r="H139" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>25</v>
       </c>
       <c r="I139" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>55</v>
       </c>
       <c r="J139" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>115</v>
       </c>
       <c r="K139" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>295</v>
       </c>
       <c r="L139" s="2" t="s">
@@ -7971,31 +8044,31 @@
     </row>
     <row r="140" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E140" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="F140" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>4</v>
       </c>
       <c r="G140" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>11</v>
       </c>
       <c r="H140" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>25</v>
       </c>
       <c r="I140" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>55</v>
       </c>
       <c r="J140" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>115</v>
       </c>
       <c r="K140" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>295</v>
       </c>
       <c r="L140" s="2" t="s">
@@ -8004,31 +8077,31 @@
     </row>
     <row r="141" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E141" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="F141" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>4</v>
       </c>
       <c r="G141" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>11</v>
       </c>
       <c r="H141" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>25</v>
       </c>
       <c r="I141" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>55</v>
       </c>
       <c r="J141" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>115</v>
       </c>
       <c r="K141" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>295</v>
       </c>
       <c r="L141" s="2" t="s">
@@ -8037,31 +8110,31 @@
     </row>
     <row r="142" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E142" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="F142" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>4</v>
       </c>
       <c r="G142" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>11</v>
       </c>
       <c r="H142" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>25</v>
       </c>
       <c r="I142" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>55</v>
       </c>
       <c r="J142" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>115</v>
       </c>
       <c r="K142" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>295</v>
       </c>
       <c r="L142" s="2" t="s">
@@ -8070,31 +8143,31 @@
     </row>
     <row r="143" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E143" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="F143" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>4</v>
       </c>
       <c r="G143" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>11</v>
       </c>
       <c r="H143" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>25</v>
       </c>
       <c r="I143" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>55</v>
       </c>
       <c r="J143" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>115</v>
       </c>
       <c r="K143" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>295</v>
       </c>
       <c r="L143" s="2" t="s">
@@ -8103,31 +8176,31 @@
     </row>
     <row r="144" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E144" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="F144" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>4</v>
       </c>
       <c r="G144" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>11</v>
       </c>
       <c r="H144" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>25</v>
       </c>
       <c r="I144" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>55</v>
       </c>
       <c r="J144" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>115</v>
       </c>
       <c r="K144" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>295</v>
       </c>
       <c r="L144" s="2" t="s">
@@ -8136,31 +8209,31 @@
     </row>
     <row r="145" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E145" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="F145" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>4</v>
       </c>
       <c r="G145" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>11</v>
       </c>
       <c r="H145" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>25</v>
       </c>
       <c r="I145" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>55</v>
       </c>
       <c r="J145" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>115</v>
       </c>
       <c r="K145" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>295</v>
       </c>
       <c r="L145" s="2" t="s">
@@ -8169,31 +8242,31 @@
     </row>
     <row r="146" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E146" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="F146" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>4</v>
       </c>
       <c r="G146" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>11</v>
       </c>
       <c r="H146" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>25</v>
       </c>
       <c r="I146" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>55</v>
       </c>
       <c r="J146" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>115</v>
       </c>
       <c r="K146" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>295</v>
       </c>
       <c r="L146" s="2" t="s">
@@ -8202,31 +8275,31 @@
     </row>
     <row r="147" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E147" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="F147" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>4</v>
       </c>
       <c r="G147" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>11</v>
       </c>
       <c r="H147" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>25</v>
       </c>
       <c r="I147" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>55</v>
       </c>
       <c r="J147" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>115</v>
       </c>
       <c r="K147" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>295</v>
       </c>
       <c r="L147" s="2" t="s">
@@ -8235,31 +8308,31 @@
     </row>
     <row r="148" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E148" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="F148" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>4</v>
       </c>
       <c r="G148" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>11</v>
       </c>
       <c r="H148" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>25</v>
       </c>
       <c r="I148" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>55</v>
       </c>
       <c r="J148" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>115</v>
       </c>
       <c r="K148" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>295</v>
       </c>
       <c r="L148" s="2" t="s">
@@ -8268,31 +8341,31 @@
     </row>
     <row r="149" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E149" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="F149" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>4</v>
       </c>
       <c r="G149" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>11</v>
       </c>
       <c r="H149" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>25</v>
       </c>
       <c r="I149" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>55</v>
       </c>
       <c r="J149" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>115</v>
       </c>
       <c r="K149" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>295</v>
       </c>
       <c r="L149" s="2" t="s">
@@ -8301,31 +8374,31 @@
     </row>
     <row r="150" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E150" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="F150" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>4</v>
       </c>
       <c r="G150" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>11</v>
       </c>
       <c r="H150" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>25</v>
       </c>
       <c r="I150" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>55</v>
       </c>
       <c r="J150" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>115</v>
       </c>
       <c r="K150" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>295</v>
       </c>
       <c r="L150" s="2" t="s">
@@ -8334,31 +8407,31 @@
     </row>
     <row r="151" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E151" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="F151" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>4</v>
       </c>
       <c r="G151" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>11</v>
       </c>
       <c r="H151" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>25</v>
       </c>
       <c r="I151" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>55</v>
       </c>
       <c r="J151" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>115</v>
       </c>
       <c r="K151" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>295</v>
       </c>
       <c r="L151" s="2" t="s">
@@ -8367,31 +8440,31 @@
     </row>
     <row r="152" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E152" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="F152" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>4</v>
       </c>
       <c r="G152" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>11</v>
       </c>
       <c r="H152" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>25</v>
       </c>
       <c r="I152" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>55</v>
       </c>
       <c r="J152" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>115</v>
       </c>
       <c r="K152" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>295</v>
       </c>
       <c r="L152" s="2" t="s">
@@ -8400,31 +8473,31 @@
     </row>
     <row r="153" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E153" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="F153" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>4</v>
       </c>
       <c r="G153" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>11</v>
       </c>
       <c r="H153" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>25</v>
       </c>
       <c r="I153" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>55</v>
       </c>
       <c r="J153" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>115</v>
       </c>
       <c r="K153" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>295</v>
       </c>
       <c r="L153" s="2" t="s">
@@ -8433,31 +8506,31 @@
     </row>
     <row r="154" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E154" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="F154" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>4</v>
       </c>
       <c r="G154" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>11</v>
       </c>
       <c r="H154" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>25</v>
       </c>
       <c r="I154" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>55</v>
       </c>
       <c r="J154" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>115</v>
       </c>
       <c r="K154" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>295</v>
       </c>
       <c r="L154" s="2" t="s">
@@ -8466,31 +8539,31 @@
     </row>
     <row r="155" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E155" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="F155" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>4</v>
       </c>
       <c r="G155" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>11</v>
       </c>
       <c r="H155" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>25</v>
       </c>
       <c r="I155" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>55</v>
       </c>
       <c r="J155" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>115</v>
       </c>
       <c r="K155" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>295</v>
       </c>
       <c r="L155" s="2" t="s">
@@ -8499,31 +8572,31 @@
     </row>
     <row r="156" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E156" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="F156" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>4</v>
       </c>
       <c r="G156" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>11</v>
       </c>
       <c r="H156" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>25</v>
       </c>
       <c r="I156" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>55</v>
       </c>
       <c r="J156" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>115</v>
       </c>
       <c r="K156" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>295</v>
       </c>
       <c r="L156" s="2" t="s">
@@ -8532,31 +8605,31 @@
     </row>
     <row r="157" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E157" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="F157" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>4</v>
       </c>
       <c r="G157" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>11</v>
       </c>
       <c r="H157" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>25</v>
       </c>
       <c r="I157" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>55</v>
       </c>
       <c r="J157" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>115</v>
       </c>
       <c r="K157" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>295</v>
       </c>
       <c r="L157" s="2" t="s">
@@ -8565,31 +8638,31 @@
     </row>
     <row r="158" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E158" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="F158" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>4</v>
       </c>
       <c r="G158" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>11</v>
       </c>
       <c r="H158" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>25</v>
       </c>
       <c r="I158" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>55</v>
       </c>
       <c r="J158" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>115</v>
       </c>
       <c r="K158" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>295</v>
       </c>
       <c r="L158" s="2" t="s">
@@ -8598,31 +8671,31 @@
     </row>
     <row r="159" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E159" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="F159" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>4</v>
       </c>
       <c r="G159" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>11</v>
       </c>
       <c r="H159" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>25</v>
       </c>
       <c r="I159" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>55</v>
       </c>
       <c r="J159" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>115</v>
       </c>
       <c r="K159" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>295</v>
       </c>
       <c r="L159" s="2" t="s">
@@ -8631,31 +8704,31 @@
     </row>
     <row r="160" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E160" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="F160" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>4</v>
       </c>
       <c r="G160" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>11</v>
       </c>
       <c r="H160" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>25</v>
       </c>
       <c r="I160" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>55</v>
       </c>
       <c r="J160" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>115</v>
       </c>
       <c r="K160" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>295</v>
       </c>
       <c r="L160" s="2" t="s">
@@ -8664,31 +8737,31 @@
     </row>
     <row r="161" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E161" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="F161" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>4</v>
       </c>
       <c r="G161" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>11</v>
       </c>
       <c r="H161" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>25</v>
       </c>
       <c r="I161" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>55</v>
       </c>
       <c r="J161" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>115</v>
       </c>
       <c r="K161" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>295</v>
       </c>
       <c r="L161" s="2" t="s">
@@ -8697,31 +8770,31 @@
     </row>
     <row r="162" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E162" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="F162" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>4</v>
       </c>
       <c r="G162" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>11</v>
       </c>
       <c r="H162" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>25</v>
       </c>
       <c r="I162" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>55</v>
       </c>
       <c r="J162" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>115</v>
       </c>
       <c r="K162" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>295</v>
       </c>
       <c r="L162" s="2" t="s">
@@ -8730,31 +8803,31 @@
     </row>
     <row r="163" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E163" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="F163" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>4</v>
       </c>
       <c r="G163" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>11</v>
       </c>
       <c r="H163" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>25</v>
       </c>
       <c r="I163" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>55</v>
       </c>
       <c r="J163" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>115</v>
       </c>
       <c r="K163" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>295</v>
       </c>
       <c r="L163" s="2" t="s">
@@ -8763,31 +8836,31 @@
     </row>
     <row r="164" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E164" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="F164" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>4</v>
       </c>
       <c r="G164" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>11</v>
       </c>
       <c r="H164" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>25</v>
       </c>
       <c r="I164" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>55</v>
       </c>
       <c r="J164" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>115</v>
       </c>
       <c r="K164" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>295</v>
       </c>
       <c r="L164" s="2" t="s">
@@ -8796,31 +8869,31 @@
     </row>
     <row r="165" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E165" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="F165" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>4</v>
       </c>
       <c r="G165" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>11</v>
       </c>
       <c r="H165" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>25</v>
       </c>
       <c r="I165" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>55</v>
       </c>
       <c r="J165" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>115</v>
       </c>
       <c r="K165" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>295</v>
       </c>
       <c r="L165" s="2" t="s">
@@ -8829,31 +8902,31 @@
     </row>
     <row r="166" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E166" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="F166" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>4</v>
       </c>
       <c r="G166" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>11</v>
       </c>
       <c r="H166" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>25</v>
       </c>
       <c r="I166" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>55</v>
       </c>
       <c r="J166" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>115</v>
       </c>
       <c r="K166" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>295</v>
       </c>
       <c r="L166" s="2" t="s">
@@ -8862,31 +8935,31 @@
     </row>
     <row r="167" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E167" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="F167" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>4</v>
       </c>
       <c r="G167" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>11</v>
       </c>
       <c r="H167" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>25</v>
       </c>
       <c r="I167" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>55</v>
       </c>
       <c r="J167" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>115</v>
       </c>
       <c r="K167" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>295</v>
       </c>
       <c r="L167" s="2" t="s">
@@ -8895,31 +8968,31 @@
     </row>
     <row r="168" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E168" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="F168" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>4</v>
       </c>
       <c r="G168" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>11</v>
       </c>
       <c r="H168" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>25</v>
       </c>
       <c r="I168" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>55</v>
       </c>
       <c r="J168" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>115</v>
       </c>
       <c r="K168" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>295</v>
       </c>
       <c r="L168" s="2" t="s">
@@ -8928,31 +9001,31 @@
     </row>
     <row r="169" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E169" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="F169" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>4</v>
       </c>
       <c r="G169" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>11</v>
       </c>
       <c r="H169" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>25</v>
       </c>
       <c r="I169" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>55</v>
       </c>
       <c r="J169" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>115</v>
       </c>
       <c r="K169" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>295</v>
       </c>
       <c r="L169" s="2" t="s">
@@ -8961,31 +9034,31 @@
     </row>
     <row r="170" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E170" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="F170" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>4</v>
       </c>
       <c r="G170" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>11</v>
       </c>
       <c r="H170" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>25</v>
       </c>
       <c r="I170" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>55</v>
       </c>
       <c r="J170" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>115</v>
       </c>
       <c r="K170" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>295</v>
       </c>
       <c r="L170" s="2" t="s">
@@ -8994,31 +9067,31 @@
     </row>
     <row r="171" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E171" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="F171" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>4</v>
       </c>
       <c r="G171" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>11</v>
       </c>
       <c r="H171" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>25</v>
       </c>
       <c r="I171" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>55</v>
       </c>
       <c r="J171" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>115</v>
       </c>
       <c r="K171" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>295</v>
       </c>
       <c r="L171" s="2" t="s">
@@ -9027,31 +9100,31 @@
     </row>
     <row r="172" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E172" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="F172" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>4</v>
       </c>
       <c r="G172" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>11</v>
       </c>
       <c r="H172" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>25</v>
       </c>
       <c r="I172" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>55</v>
       </c>
       <c r="J172" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>115</v>
       </c>
       <c r="K172" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>295</v>
       </c>
       <c r="L172" s="2" t="s">
@@ -9060,31 +9133,31 @@
     </row>
     <row r="173" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E173" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="F173" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>4</v>
       </c>
       <c r="G173" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>11</v>
       </c>
       <c r="H173" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>25</v>
       </c>
       <c r="I173" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>55</v>
       </c>
       <c r="J173" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>115</v>
       </c>
       <c r="K173" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>295</v>
       </c>
       <c r="L173" s="2" t="s">
@@ -9093,31 +9166,31 @@
     </row>
     <row r="174" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E174" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="F174" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>4</v>
       </c>
       <c r="G174" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>11</v>
       </c>
       <c r="H174" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>25</v>
       </c>
       <c r="I174" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>55</v>
       </c>
       <c r="J174" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>115</v>
       </c>
       <c r="K174" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>295</v>
       </c>
       <c r="L174" s="2" t="s">
@@ -9126,31 +9199,31 @@
     </row>
     <row r="175" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E175" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="F175" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>4</v>
       </c>
       <c r="G175" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>11</v>
       </c>
       <c r="H175" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>25</v>
       </c>
       <c r="I175" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>55</v>
       </c>
       <c r="J175" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>115</v>
       </c>
       <c r="K175" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>295</v>
       </c>
       <c r="L175" s="2" t="s">
@@ -9159,31 +9232,31 @@
     </row>
     <row r="176" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E176" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="F176" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>4</v>
       </c>
       <c r="G176" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>11</v>
       </c>
       <c r="H176" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>25</v>
       </c>
       <c r="I176" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>55</v>
       </c>
       <c r="J176" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>115</v>
       </c>
       <c r="K176" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>295</v>
       </c>
       <c r="L176" s="2" t="s">
@@ -9192,31 +9265,31 @@
     </row>
     <row r="177" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E177" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="F177" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>4</v>
       </c>
       <c r="G177" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>11</v>
       </c>
       <c r="H177" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>25</v>
       </c>
       <c r="I177" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>55</v>
       </c>
       <c r="J177" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>115</v>
       </c>
       <c r="K177" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>295</v>
       </c>
       <c r="L177" s="2" t="s">
@@ -9225,31 +9298,31 @@
     </row>
     <row r="178" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E178" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="F178" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>4</v>
       </c>
       <c r="G178" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>11</v>
       </c>
       <c r="H178" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>25</v>
       </c>
       <c r="I178" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>55</v>
       </c>
       <c r="J178" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>115</v>
       </c>
       <c r="K178" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>295</v>
       </c>
       <c r="L178" s="2" t="s">
@@ -9258,31 +9331,31 @@
     </row>
     <row r="179" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E179" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="F179" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>4</v>
       </c>
       <c r="G179" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>11</v>
       </c>
       <c r="H179" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>25</v>
       </c>
       <c r="I179" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>55</v>
       </c>
       <c r="J179" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>115</v>
       </c>
       <c r="K179" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>295</v>
       </c>
       <c r="L179" s="2" t="s">
@@ -9291,31 +9364,31 @@
     </row>
     <row r="180" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E180" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="F180" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>4</v>
       </c>
       <c r="G180" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>11</v>
       </c>
       <c r="H180" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>25</v>
       </c>
       <c r="I180" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>55</v>
       </c>
       <c r="J180" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>115</v>
       </c>
       <c r="K180" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>295</v>
       </c>
       <c r="L180" s="2" t="s">
@@ -9324,31 +9397,31 @@
     </row>
     <row r="181" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E181" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="F181" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>4</v>
       </c>
       <c r="G181" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>11</v>
       </c>
       <c r="H181" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>25</v>
       </c>
       <c r="I181" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>55</v>
       </c>
       <c r="J181" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>115</v>
       </c>
       <c r="K181" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>295</v>
       </c>
       <c r="L181" s="2" t="s">
@@ -9357,31 +9430,31 @@
     </row>
     <row r="182" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E182" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="F182" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>4</v>
       </c>
       <c r="G182" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>11</v>
       </c>
       <c r="H182" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>25</v>
       </c>
       <c r="I182" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>55</v>
       </c>
       <c r="J182" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>115</v>
       </c>
       <c r="K182" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>295</v>
       </c>
       <c r="L182" s="2" t="s">
@@ -9390,31 +9463,31 @@
     </row>
     <row r="183" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E183" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="F183" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>4</v>
       </c>
       <c r="G183" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>11</v>
       </c>
       <c r="H183" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>25</v>
       </c>
       <c r="I183" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>55</v>
       </c>
       <c r="J183" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>115</v>
       </c>
       <c r="K183" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>295</v>
       </c>
       <c r="L183" s="2" t="s">
@@ -9423,31 +9496,31 @@
     </row>
     <row r="184" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E184" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="F184" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>4</v>
       </c>
       <c r="G184" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>11</v>
       </c>
       <c r="H184" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>25</v>
       </c>
       <c r="I184" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>55</v>
       </c>
       <c r="J184" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>115</v>
       </c>
       <c r="K184" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>295</v>
       </c>
       <c r="L184" s="2" t="s">
@@ -9456,31 +9529,31 @@
     </row>
     <row r="185" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E185" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="F185" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>4</v>
       </c>
       <c r="G185" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>11</v>
       </c>
       <c r="H185" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>25</v>
       </c>
       <c r="I185" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>55</v>
       </c>
       <c r="J185" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>115</v>
       </c>
       <c r="K185" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>295</v>
       </c>
       <c r="L185" s="2" t="s">
@@ -9489,31 +9562,31 @@
     </row>
     <row r="186" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E186" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="F186" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>4</v>
       </c>
       <c r="G186" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>11</v>
       </c>
       <c r="H186" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>25</v>
       </c>
       <c r="I186" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>55</v>
       </c>
       <c r="J186" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>115</v>
       </c>
       <c r="K186" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>295</v>
       </c>
       <c r="L186" s="2" t="s">
@@ -9522,31 +9595,31 @@
     </row>
     <row r="187" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E187" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="F187" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>4</v>
       </c>
       <c r="G187" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>11</v>
       </c>
       <c r="H187" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>25</v>
       </c>
       <c r="I187" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>55</v>
       </c>
       <c r="J187" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>115</v>
       </c>
       <c r="K187" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>295</v>
       </c>
       <c r="L187" s="2" t="s">
@@ -9555,31 +9628,31 @@
     </row>
     <row r="188" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E188" s="3">
-        <f t="shared" ref="E188:E251" si="45">D188+1</f>
+        <f t="shared" ref="E188:E251" si="52">D188+1</f>
         <v>1</v>
       </c>
       <c r="F188" s="3">
-        <f t="shared" ref="F188:F251" si="46">E188 + 3</f>
+        <f t="shared" ref="F188:F251" si="53">E188 + 3</f>
         <v>4</v>
       </c>
       <c r="G188" s="3">
-        <f t="shared" ref="G188:G251" si="47">F188+7</f>
+        <f t="shared" ref="G188:G251" si="54">F188+7</f>
         <v>11</v>
       </c>
       <c r="H188" s="3">
-        <f t="shared" ref="H188:H251" si="48">G188+14</f>
+        <f t="shared" ref="H188:H251" si="55">G188+14</f>
         <v>25</v>
       </c>
       <c r="I188" s="3">
-        <f t="shared" ref="I188:I251" si="49">H188+30</f>
+        <f t="shared" ref="I188:I251" si="56">H188+30</f>
         <v>55</v>
       </c>
       <c r="J188" s="3">
-        <f t="shared" ref="J188:J251" si="50">I188+60</f>
+        <f t="shared" ref="J188:J251" si="57">I188+60</f>
         <v>115</v>
       </c>
       <c r="K188" s="3">
-        <f t="shared" ref="K188:K251" si="51">J188 + 180</f>
+        <f t="shared" ref="K188:K251" si="58">J188 + 180</f>
         <v>295</v>
       </c>
       <c r="L188" s="2" t="s">
@@ -9588,31 +9661,31 @@
     </row>
     <row r="189" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E189" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="F189" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="53"/>
         <v>4</v>
       </c>
       <c r="G189" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="54"/>
         <v>11</v>
       </c>
       <c r="H189" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>25</v>
       </c>
       <c r="I189" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>55</v>
       </c>
       <c r="J189" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>115</v>
       </c>
       <c r="K189" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>295</v>
       </c>
       <c r="L189" s="2" t="s">
@@ -9621,31 +9694,31 @@
     </row>
     <row r="190" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E190" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="F190" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="53"/>
         <v>4</v>
       </c>
       <c r="G190" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="54"/>
         <v>11</v>
       </c>
       <c r="H190" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>25</v>
       </c>
       <c r="I190" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>55</v>
       </c>
       <c r="J190" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>115</v>
       </c>
       <c r="K190" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>295</v>
       </c>
       <c r="L190" s="2" t="s">
@@ -9654,31 +9727,31 @@
     </row>
     <row r="191" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E191" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="F191" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="53"/>
         <v>4</v>
       </c>
       <c r="G191" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="54"/>
         <v>11</v>
       </c>
       <c r="H191" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>25</v>
       </c>
       <c r="I191" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>55</v>
       </c>
       <c r="J191" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>115</v>
       </c>
       <c r="K191" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>295</v>
       </c>
       <c r="L191" s="2" t="s">
@@ -9687,31 +9760,31 @@
     </row>
     <row r="192" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E192" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="F192" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="53"/>
         <v>4</v>
       </c>
       <c r="G192" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="54"/>
         <v>11</v>
       </c>
       <c r="H192" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>25</v>
       </c>
       <c r="I192" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>55</v>
       </c>
       <c r="J192" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>115</v>
       </c>
       <c r="K192" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>295</v>
       </c>
       <c r="L192" s="2" t="s">
@@ -9720,31 +9793,31 @@
     </row>
     <row r="193" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E193" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="F193" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="53"/>
         <v>4</v>
       </c>
       <c r="G193" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="54"/>
         <v>11</v>
       </c>
       <c r="H193" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>25</v>
       </c>
       <c r="I193" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>55</v>
       </c>
       <c r="J193" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>115</v>
       </c>
       <c r="K193" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>295</v>
       </c>
       <c r="L193" s="2" t="s">
@@ -9753,31 +9826,31 @@
     </row>
     <row r="194" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E194" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="F194" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="53"/>
         <v>4</v>
       </c>
       <c r="G194" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="54"/>
         <v>11</v>
       </c>
       <c r="H194" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>25</v>
       </c>
       <c r="I194" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>55</v>
       </c>
       <c r="J194" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>115</v>
       </c>
       <c r="K194" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>295</v>
       </c>
       <c r="L194" s="2" t="s">
@@ -9786,31 +9859,31 @@
     </row>
     <row r="195" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E195" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="F195" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="53"/>
         <v>4</v>
       </c>
       <c r="G195" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="54"/>
         <v>11</v>
       </c>
       <c r="H195" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>25</v>
       </c>
       <c r="I195" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>55</v>
       </c>
       <c r="J195" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>115</v>
       </c>
       <c r="K195" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>295</v>
       </c>
       <c r="L195" s="2" t="s">
@@ -9819,31 +9892,31 @@
     </row>
     <row r="196" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E196" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="F196" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="53"/>
         <v>4</v>
       </c>
       <c r="G196" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="54"/>
         <v>11</v>
       </c>
       <c r="H196" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>25</v>
       </c>
       <c r="I196" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>55</v>
       </c>
       <c r="J196" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>115</v>
       </c>
       <c r="K196" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>295</v>
       </c>
       <c r="L196" s="2" t="s">
@@ -9852,31 +9925,31 @@
     </row>
     <row r="197" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E197" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="F197" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="53"/>
         <v>4</v>
       </c>
       <c r="G197" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="54"/>
         <v>11</v>
       </c>
       <c r="H197" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>25</v>
       </c>
       <c r="I197" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>55</v>
       </c>
       <c r="J197" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>115</v>
       </c>
       <c r="K197" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>295</v>
       </c>
       <c r="L197" s="2" t="s">
@@ -9885,31 +9958,31 @@
     </row>
     <row r="198" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E198" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="F198" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="53"/>
         <v>4</v>
       </c>
       <c r="G198" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="54"/>
         <v>11</v>
       </c>
       <c r="H198" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>25</v>
       </c>
       <c r="I198" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>55</v>
       </c>
       <c r="J198" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>115</v>
       </c>
       <c r="K198" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>295</v>
       </c>
       <c r="L198" s="2" t="s">
@@ -9918,31 +9991,31 @@
     </row>
     <row r="199" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E199" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="F199" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="53"/>
         <v>4</v>
       </c>
       <c r="G199" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="54"/>
         <v>11</v>
       </c>
       <c r="H199" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>25</v>
       </c>
       <c r="I199" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>55</v>
       </c>
       <c r="J199" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>115</v>
       </c>
       <c r="K199" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>295</v>
       </c>
       <c r="L199" s="2" t="s">
@@ -9951,31 +10024,31 @@
     </row>
     <row r="200" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E200" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="F200" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="53"/>
         <v>4</v>
       </c>
       <c r="G200" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="54"/>
         <v>11</v>
       </c>
       <c r="H200" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>25</v>
       </c>
       <c r="I200" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>55</v>
       </c>
       <c r="J200" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>115</v>
       </c>
       <c r="K200" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>295</v>
       </c>
       <c r="L200" s="2" t="s">
@@ -9984,31 +10057,31 @@
     </row>
     <row r="201" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E201" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="F201" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="53"/>
         <v>4</v>
       </c>
       <c r="G201" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="54"/>
         <v>11</v>
       </c>
       <c r="H201" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>25</v>
       </c>
       <c r="I201" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>55</v>
       </c>
       <c r="J201" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>115</v>
       </c>
       <c r="K201" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>295</v>
       </c>
       <c r="L201" s="2" t="s">
@@ -10017,31 +10090,31 @@
     </row>
     <row r="202" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E202" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="F202" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="53"/>
         <v>4</v>
       </c>
       <c r="G202" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="54"/>
         <v>11</v>
       </c>
       <c r="H202" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>25</v>
       </c>
       <c r="I202" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>55</v>
       </c>
       <c r="J202" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>115</v>
       </c>
       <c r="K202" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>295</v>
       </c>
       <c r="L202" s="2" t="s">
@@ -10050,31 +10123,31 @@
     </row>
     <row r="203" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E203" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="F203" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="53"/>
         <v>4</v>
       </c>
       <c r="G203" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="54"/>
         <v>11</v>
       </c>
       <c r="H203" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>25</v>
       </c>
       <c r="I203" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>55</v>
       </c>
       <c r="J203" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>115</v>
       </c>
       <c r="K203" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>295</v>
       </c>
       <c r="L203" s="2" t="s">
@@ -10083,31 +10156,31 @@
     </row>
     <row r="204" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E204" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="F204" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="53"/>
         <v>4</v>
       </c>
       <c r="G204" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="54"/>
         <v>11</v>
       </c>
       <c r="H204" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>25</v>
       </c>
       <c r="I204" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>55</v>
       </c>
       <c r="J204" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>115</v>
       </c>
       <c r="K204" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>295</v>
       </c>
       <c r="L204" s="2" t="s">
@@ -10116,31 +10189,31 @@
     </row>
     <row r="205" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E205" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="F205" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="53"/>
         <v>4</v>
       </c>
       <c r="G205" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="54"/>
         <v>11</v>
       </c>
       <c r="H205" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>25</v>
       </c>
       <c r="I205" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>55</v>
       </c>
       <c r="J205" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>115</v>
       </c>
       <c r="K205" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>295</v>
       </c>
       <c r="L205" s="2" t="s">
@@ -10149,31 +10222,31 @@
     </row>
     <row r="206" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E206" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="F206" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="53"/>
         <v>4</v>
       </c>
       <c r="G206" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="54"/>
         <v>11</v>
       </c>
       <c r="H206" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>25</v>
       </c>
       <c r="I206" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>55</v>
       </c>
       <c r="J206" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>115</v>
       </c>
       <c r="K206" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>295</v>
       </c>
       <c r="L206" s="2" t="s">
@@ -10182,31 +10255,31 @@
     </row>
     <row r="207" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E207" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="F207" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="53"/>
         <v>4</v>
       </c>
       <c r="G207" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="54"/>
         <v>11</v>
       </c>
       <c r="H207" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>25</v>
       </c>
       <c r="I207" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>55</v>
       </c>
       <c r="J207" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>115</v>
       </c>
       <c r="K207" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>295</v>
       </c>
       <c r="L207" s="2" t="s">
@@ -10215,31 +10288,31 @@
     </row>
     <row r="208" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E208" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="F208" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="53"/>
         <v>4</v>
       </c>
       <c r="G208" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="54"/>
         <v>11</v>
       </c>
       <c r="H208" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>25</v>
       </c>
       <c r="I208" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>55</v>
       </c>
       <c r="J208" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>115</v>
       </c>
       <c r="K208" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>295</v>
       </c>
       <c r="L208" s="2" t="s">
@@ -10248,31 +10321,31 @@
     </row>
     <row r="209" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E209" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="F209" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="53"/>
         <v>4</v>
       </c>
       <c r="G209" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="54"/>
         <v>11</v>
       </c>
       <c r="H209" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>25</v>
       </c>
       <c r="I209" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>55</v>
       </c>
       <c r="J209" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>115</v>
       </c>
       <c r="K209" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>295</v>
       </c>
       <c r="L209" s="2" t="s">
@@ -10281,31 +10354,31 @@
     </row>
     <row r="210" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E210" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="F210" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="53"/>
         <v>4</v>
       </c>
       <c r="G210" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="54"/>
         <v>11</v>
       </c>
       <c r="H210" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>25</v>
       </c>
       <c r="I210" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>55</v>
       </c>
       <c r="J210" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>115</v>
       </c>
       <c r="K210" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>295</v>
       </c>
       <c r="L210" s="2" t="s">
@@ -10314,31 +10387,31 @@
     </row>
     <row r="211" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E211" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="F211" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="53"/>
         <v>4</v>
       </c>
       <c r="G211" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="54"/>
         <v>11</v>
       </c>
       <c r="H211" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>25</v>
       </c>
       <c r="I211" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>55</v>
       </c>
       <c r="J211" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>115</v>
       </c>
       <c r="K211" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>295</v>
       </c>
       <c r="L211" s="2" t="s">
@@ -10347,31 +10420,31 @@
     </row>
     <row r="212" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E212" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="F212" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="53"/>
         <v>4</v>
       </c>
       <c r="G212" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="54"/>
         <v>11</v>
       </c>
       <c r="H212" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>25</v>
       </c>
       <c r="I212" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>55</v>
       </c>
       <c r="J212" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>115</v>
       </c>
       <c r="K212" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>295</v>
       </c>
       <c r="L212" s="2" t="s">
@@ -10380,31 +10453,31 @@
     </row>
     <row r="213" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E213" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="F213" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="53"/>
         <v>4</v>
       </c>
       <c r="G213" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="54"/>
         <v>11</v>
       </c>
       <c r="H213" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>25</v>
       </c>
       <c r="I213" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>55</v>
       </c>
       <c r="J213" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>115</v>
       </c>
       <c r="K213" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>295</v>
       </c>
       <c r="L213" s="2" t="s">
@@ -10413,31 +10486,31 @@
     </row>
     <row r="214" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E214" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="F214" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="53"/>
         <v>4</v>
       </c>
       <c r="G214" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="54"/>
         <v>11</v>
       </c>
       <c r="H214" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>25</v>
       </c>
       <c r="I214" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>55</v>
       </c>
       <c r="J214" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>115</v>
       </c>
       <c r="K214" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>295</v>
       </c>
       <c r="L214" s="2" t="s">
@@ -10446,31 +10519,31 @@
     </row>
     <row r="215" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E215" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="F215" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="53"/>
         <v>4</v>
       </c>
       <c r="G215" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="54"/>
         <v>11</v>
       </c>
       <c r="H215" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>25</v>
       </c>
       <c r="I215" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>55</v>
       </c>
       <c r="J215" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>115</v>
       </c>
       <c r="K215" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>295</v>
       </c>
       <c r="L215" s="2" t="s">
@@ -10479,31 +10552,31 @@
     </row>
     <row r="216" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E216" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="F216" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="53"/>
         <v>4</v>
       </c>
       <c r="G216" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="54"/>
         <v>11</v>
       </c>
       <c r="H216" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>25</v>
       </c>
       <c r="I216" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>55</v>
       </c>
       <c r="J216" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>115</v>
       </c>
       <c r="K216" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>295</v>
       </c>
       <c r="L216" s="2" t="s">
@@ -10512,31 +10585,31 @@
     </row>
     <row r="217" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E217" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="F217" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="53"/>
         <v>4</v>
       </c>
       <c r="G217" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="54"/>
         <v>11</v>
       </c>
       <c r="H217" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>25</v>
       </c>
       <c r="I217" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>55</v>
       </c>
       <c r="J217" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>115</v>
       </c>
       <c r="K217" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>295</v>
       </c>
       <c r="L217" s="2" t="s">
@@ -10545,31 +10618,31 @@
     </row>
     <row r="218" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E218" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="F218" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="53"/>
         <v>4</v>
       </c>
       <c r="G218" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="54"/>
         <v>11</v>
       </c>
       <c r="H218" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>25</v>
       </c>
       <c r="I218" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>55</v>
       </c>
       <c r="J218" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>115</v>
       </c>
       <c r="K218" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>295</v>
       </c>
       <c r="L218" s="2" t="s">
@@ -10578,31 +10651,31 @@
     </row>
     <row r="219" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E219" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="F219" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="53"/>
         <v>4</v>
       </c>
       <c r="G219" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="54"/>
         <v>11</v>
       </c>
       <c r="H219" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>25</v>
       </c>
       <c r="I219" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>55</v>
       </c>
       <c r="J219" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>115</v>
       </c>
       <c r="K219" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>295</v>
       </c>
       <c r="L219" s="2" t="s">
@@ -10611,31 +10684,31 @@
     </row>
     <row r="220" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E220" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="F220" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="53"/>
         <v>4</v>
       </c>
       <c r="G220" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="54"/>
         <v>11</v>
       </c>
       <c r="H220" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>25</v>
       </c>
       <c r="I220" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>55</v>
       </c>
       <c r="J220" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>115</v>
       </c>
       <c r="K220" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>295</v>
       </c>
       <c r="L220" s="2" t="s">
@@ -10644,31 +10717,31 @@
     </row>
     <row r="221" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E221" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="F221" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="53"/>
         <v>4</v>
       </c>
       <c r="G221" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="54"/>
         <v>11</v>
       </c>
       <c r="H221" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>25</v>
       </c>
       <c r="I221" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>55</v>
       </c>
       <c r="J221" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>115</v>
       </c>
       <c r="K221" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>295</v>
       </c>
       <c r="L221" s="2" t="s">
@@ -10677,31 +10750,31 @@
     </row>
     <row r="222" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E222" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="F222" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="53"/>
         <v>4</v>
       </c>
       <c r="G222" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="54"/>
         <v>11</v>
       </c>
       <c r="H222" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>25</v>
       </c>
       <c r="I222" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>55</v>
       </c>
       <c r="J222" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>115</v>
       </c>
       <c r="K222" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>295</v>
       </c>
       <c r="L222" s="2" t="s">
@@ -10710,31 +10783,31 @@
     </row>
     <row r="223" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E223" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="F223" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="53"/>
         <v>4</v>
       </c>
       <c r="G223" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="54"/>
         <v>11</v>
       </c>
       <c r="H223" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>25</v>
       </c>
       <c r="I223" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>55</v>
       </c>
       <c r="J223" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>115</v>
       </c>
       <c r="K223" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>295</v>
       </c>
       <c r="L223" s="2" t="s">
@@ -10743,31 +10816,31 @@
     </row>
     <row r="224" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E224" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="F224" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="53"/>
         <v>4</v>
       </c>
       <c r="G224" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="54"/>
         <v>11</v>
       </c>
       <c r="H224" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>25</v>
       </c>
       <c r="I224" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>55</v>
       </c>
       <c r="J224" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>115</v>
       </c>
       <c r="K224" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>295</v>
       </c>
       <c r="L224" s="2" t="s">
@@ -10776,31 +10849,31 @@
     </row>
     <row r="225" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E225" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="F225" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="53"/>
         <v>4</v>
       </c>
       <c r="G225" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="54"/>
         <v>11</v>
       </c>
       <c r="H225" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>25</v>
       </c>
       <c r="I225" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>55</v>
       </c>
       <c r="J225" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>115</v>
       </c>
       <c r="K225" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>295</v>
       </c>
       <c r="L225" s="2" t="s">
@@ -10809,31 +10882,31 @@
     </row>
     <row r="226" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E226" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="F226" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="53"/>
         <v>4</v>
       </c>
       <c r="G226" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="54"/>
         <v>11</v>
       </c>
       <c r="H226" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>25</v>
       </c>
       <c r="I226" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>55</v>
       </c>
       <c r="J226" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>115</v>
       </c>
       <c r="K226" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>295</v>
       </c>
       <c r="L226" s="2" t="s">
@@ -10842,31 +10915,31 @@
     </row>
     <row r="227" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E227" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="F227" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="53"/>
         <v>4</v>
       </c>
       <c r="G227" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="54"/>
         <v>11</v>
       </c>
       <c r="H227" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>25</v>
       </c>
       <c r="I227" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>55</v>
       </c>
       <c r="J227" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>115</v>
       </c>
       <c r="K227" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>295</v>
       </c>
       <c r="L227" s="2" t="s">
@@ -10875,31 +10948,31 @@
     </row>
     <row r="228" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E228" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="F228" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="53"/>
         <v>4</v>
       </c>
       <c r="G228" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="54"/>
         <v>11</v>
       </c>
       <c r="H228" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>25</v>
       </c>
       <c r="I228" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>55</v>
       </c>
       <c r="J228" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>115</v>
       </c>
       <c r="K228" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>295</v>
       </c>
       <c r="L228" s="2" t="s">
@@ -10908,31 +10981,31 @@
     </row>
     <row r="229" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E229" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="F229" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="53"/>
         <v>4</v>
       </c>
       <c r="G229" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="54"/>
         <v>11</v>
       </c>
       <c r="H229" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>25</v>
       </c>
       <c r="I229" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>55</v>
       </c>
       <c r="J229" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>115</v>
       </c>
       <c r="K229" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>295</v>
       </c>
       <c r="L229" s="2" t="s">
@@ -10941,31 +11014,31 @@
     </row>
     <row r="230" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E230" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="F230" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="53"/>
         <v>4</v>
       </c>
       <c r="G230" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="54"/>
         <v>11</v>
       </c>
       <c r="H230" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>25</v>
       </c>
       <c r="I230" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>55</v>
       </c>
       <c r="J230" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>115</v>
       </c>
       <c r="K230" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>295</v>
       </c>
       <c r="L230" s="2" t="s">
@@ -10974,31 +11047,31 @@
     </row>
     <row r="231" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E231" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="F231" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="53"/>
         <v>4</v>
       </c>
       <c r="G231" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="54"/>
         <v>11</v>
       </c>
       <c r="H231" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>25</v>
       </c>
       <c r="I231" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>55</v>
       </c>
       <c r="J231" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>115</v>
       </c>
       <c r="K231" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>295</v>
       </c>
       <c r="L231" s="2" t="s">
@@ -11007,31 +11080,31 @@
     </row>
     <row r="232" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E232" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="F232" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="53"/>
         <v>4</v>
       </c>
       <c r="G232" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="54"/>
         <v>11</v>
       </c>
       <c r="H232" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>25</v>
       </c>
       <c r="I232" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>55</v>
       </c>
       <c r="J232" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>115</v>
       </c>
       <c r="K232" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>295</v>
       </c>
       <c r="L232" s="2" t="s">
@@ -11040,31 +11113,31 @@
     </row>
     <row r="233" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E233" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="F233" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="53"/>
         <v>4</v>
       </c>
       <c r="G233" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="54"/>
         <v>11</v>
       </c>
       <c r="H233" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>25</v>
       </c>
       <c r="I233" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>55</v>
       </c>
       <c r="J233" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>115</v>
       </c>
       <c r="K233" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>295</v>
       </c>
       <c r="L233" s="2" t="s">
@@ -11073,31 +11146,31 @@
     </row>
     <row r="234" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E234" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="F234" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="53"/>
         <v>4</v>
       </c>
       <c r="G234" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="54"/>
         <v>11</v>
       </c>
       <c r="H234" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>25</v>
       </c>
       <c r="I234" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>55</v>
       </c>
       <c r="J234" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>115</v>
       </c>
       <c r="K234" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>295</v>
       </c>
       <c r="L234" s="2" t="s">
@@ -11106,31 +11179,31 @@
     </row>
     <row r="235" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E235" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="F235" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="53"/>
         <v>4</v>
       </c>
       <c r="G235" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="54"/>
         <v>11</v>
       </c>
       <c r="H235" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>25</v>
       </c>
       <c r="I235" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>55</v>
       </c>
       <c r="J235" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>115</v>
       </c>
       <c r="K235" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>295</v>
       </c>
       <c r="L235" s="2" t="s">
@@ -11139,31 +11212,31 @@
     </row>
     <row r="236" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E236" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="F236" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="53"/>
         <v>4</v>
       </c>
       <c r="G236" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="54"/>
         <v>11</v>
       </c>
       <c r="H236" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>25</v>
       </c>
       <c r="I236" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>55</v>
       </c>
       <c r="J236" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>115</v>
       </c>
       <c r="K236" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>295</v>
       </c>
       <c r="L236" s="2" t="s">
@@ -11172,31 +11245,31 @@
     </row>
     <row r="237" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E237" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="F237" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="53"/>
         <v>4</v>
       </c>
       <c r="G237" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="54"/>
         <v>11</v>
       </c>
       <c r="H237" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>25</v>
       </c>
       <c r="I237" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>55</v>
       </c>
       <c r="J237" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>115</v>
       </c>
       <c r="K237" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>295</v>
       </c>
       <c r="L237" s="2" t="s">
@@ -11205,31 +11278,31 @@
     </row>
     <row r="238" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E238" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="F238" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="53"/>
         <v>4</v>
       </c>
       <c r="G238" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="54"/>
         <v>11</v>
       </c>
       <c r="H238" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>25</v>
       </c>
       <c r="I238" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>55</v>
       </c>
       <c r="J238" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>115</v>
       </c>
       <c r="K238" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>295</v>
       </c>
       <c r="L238" s="2" t="s">
@@ -11238,31 +11311,31 @@
     </row>
     <row r="239" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E239" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="F239" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="53"/>
         <v>4</v>
       </c>
       <c r="G239" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="54"/>
         <v>11</v>
       </c>
       <c r="H239" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>25</v>
       </c>
       <c r="I239" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>55</v>
       </c>
       <c r="J239" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>115</v>
       </c>
       <c r="K239" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>295</v>
       </c>
       <c r="L239" s="2" t="s">
@@ -11271,31 +11344,31 @@
     </row>
     <row r="240" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E240" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="F240" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="53"/>
         <v>4</v>
       </c>
       <c r="G240" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="54"/>
         <v>11</v>
       </c>
       <c r="H240" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>25</v>
       </c>
       <c r="I240" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>55</v>
       </c>
       <c r="J240" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>115</v>
       </c>
       <c r="K240" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>295</v>
       </c>
       <c r="L240" s="2" t="s">
@@ -11304,31 +11377,31 @@
     </row>
     <row r="241" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E241" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="F241" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="53"/>
         <v>4</v>
       </c>
       <c r="G241" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="54"/>
         <v>11</v>
       </c>
       <c r="H241" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>25</v>
       </c>
       <c r="I241" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>55</v>
       </c>
       <c r="J241" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>115</v>
       </c>
       <c r="K241" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>295</v>
       </c>
       <c r="L241" s="2" t="s">
@@ -11337,31 +11410,31 @@
     </row>
     <row r="242" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E242" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="F242" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="53"/>
         <v>4</v>
       </c>
       <c r="G242" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="54"/>
         <v>11</v>
       </c>
       <c r="H242" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>25</v>
       </c>
       <c r="I242" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>55</v>
       </c>
       <c r="J242" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>115</v>
       </c>
       <c r="K242" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>295</v>
       </c>
       <c r="L242" s="2" t="s">
@@ -11370,31 +11443,31 @@
     </row>
     <row r="243" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E243" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="F243" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="53"/>
         <v>4</v>
       </c>
       <c r="G243" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="54"/>
         <v>11</v>
       </c>
       <c r="H243" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>25</v>
       </c>
       <c r="I243" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>55</v>
       </c>
       <c r="J243" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>115</v>
       </c>
       <c r="K243" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>295</v>
       </c>
       <c r="L243" s="2" t="s">
@@ -11403,31 +11476,31 @@
     </row>
     <row r="244" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E244" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="F244" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="53"/>
         <v>4</v>
       </c>
       <c r="G244" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="54"/>
         <v>11</v>
       </c>
       <c r="H244" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>25</v>
       </c>
       <c r="I244" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>55</v>
       </c>
       <c r="J244" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>115</v>
       </c>
       <c r="K244" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>295</v>
       </c>
       <c r="L244" s="2" t="s">
@@ -11436,31 +11509,31 @@
     </row>
     <row r="245" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E245" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="F245" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="53"/>
         <v>4</v>
       </c>
       <c r="G245" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="54"/>
         <v>11</v>
       </c>
       <c r="H245" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>25</v>
       </c>
       <c r="I245" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>55</v>
       </c>
       <c r="J245" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>115</v>
       </c>
       <c r="K245" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>295</v>
       </c>
       <c r="L245" s="2" t="s">
@@ -11469,31 +11542,31 @@
     </row>
     <row r="246" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E246" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="F246" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="53"/>
         <v>4</v>
       </c>
       <c r="G246" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="54"/>
         <v>11</v>
       </c>
       <c r="H246" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>25</v>
       </c>
       <c r="I246" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>55</v>
       </c>
       <c r="J246" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>115</v>
       </c>
       <c r="K246" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>295</v>
       </c>
       <c r="L246" s="2" t="s">
@@ -11502,31 +11575,31 @@
     </row>
     <row r="247" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E247" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="F247" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="53"/>
         <v>4</v>
       </c>
       <c r="G247" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="54"/>
         <v>11</v>
       </c>
       <c r="H247" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>25</v>
       </c>
       <c r="I247" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>55</v>
       </c>
       <c r="J247" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>115</v>
       </c>
       <c r="K247" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>295</v>
       </c>
       <c r="L247" s="2" t="s">
@@ -11535,31 +11608,31 @@
     </row>
     <row r="248" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E248" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="F248" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="53"/>
         <v>4</v>
       </c>
       <c r="G248" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="54"/>
         <v>11</v>
       </c>
       <c r="H248" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>25</v>
       </c>
       <c r="I248" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>55</v>
       </c>
       <c r="J248" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>115</v>
       </c>
       <c r="K248" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>295</v>
       </c>
       <c r="L248" s="2" t="s">
@@ -11568,31 +11641,31 @@
     </row>
     <row r="249" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E249" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="F249" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="53"/>
         <v>4</v>
       </c>
       <c r="G249" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="54"/>
         <v>11</v>
       </c>
       <c r="H249" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>25</v>
       </c>
       <c r="I249" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>55</v>
       </c>
       <c r="J249" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>115</v>
       </c>
       <c r="K249" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>295</v>
       </c>
       <c r="L249" s="2" t="s">
@@ -11601,31 +11674,31 @@
     </row>
     <row r="250" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E250" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="F250" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="53"/>
         <v>4</v>
       </c>
       <c r="G250" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="54"/>
         <v>11</v>
       </c>
       <c r="H250" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>25</v>
       </c>
       <c r="I250" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>55</v>
       </c>
       <c r="J250" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>115</v>
       </c>
       <c r="K250" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>295</v>
       </c>
       <c r="L250" s="2" t="s">
@@ -11634,31 +11707,31 @@
     </row>
     <row r="251" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E251" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="F251" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="53"/>
         <v>4</v>
       </c>
       <c r="G251" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="54"/>
         <v>11</v>
       </c>
       <c r="H251" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>25</v>
       </c>
       <c r="I251" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>55</v>
       </c>
       <c r="J251" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>115</v>
       </c>
       <c r="K251" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>295</v>
       </c>
       <c r="L251" s="2" t="s">
@@ -11667,31 +11740,31 @@
     </row>
     <row r="252" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E252" s="3">
-        <f t="shared" ref="E252:E315" si="52">D252+1</f>
+        <f t="shared" ref="E252:E315" si="59">D252+1</f>
         <v>1</v>
       </c>
       <c r="F252" s="3">
-        <f t="shared" ref="F252:F315" si="53">E252 + 3</f>
+        <f t="shared" ref="F252:F315" si="60">E252 + 3</f>
         <v>4</v>
       </c>
       <c r="G252" s="3">
-        <f t="shared" ref="G252:G315" si="54">F252+7</f>
+        <f t="shared" ref="G252:G315" si="61">F252+7</f>
         <v>11</v>
       </c>
       <c r="H252" s="3">
-        <f t="shared" ref="H252:H315" si="55">G252+14</f>
+        <f t="shared" ref="H252:H315" si="62">G252+14</f>
         <v>25</v>
       </c>
       <c r="I252" s="3">
-        <f t="shared" ref="I252:I315" si="56">H252+30</f>
+        <f t="shared" ref="I252:I315" si="63">H252+30</f>
         <v>55</v>
       </c>
       <c r="J252" s="3">
-        <f t="shared" ref="J252:J315" si="57">I252+60</f>
+        <f t="shared" ref="J252:J315" si="64">I252+60</f>
         <v>115</v>
       </c>
       <c r="K252" s="3">
-        <f t="shared" ref="K252:K315" si="58">J252 + 180</f>
+        <f t="shared" ref="K252:K315" si="65">J252 + 180</f>
         <v>295</v>
       </c>
       <c r="L252" s="2" t="s">
@@ -11700,31 +11773,31 @@
     </row>
     <row r="253" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E253" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="F253" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="60"/>
         <v>4</v>
       </c>
       <c r="G253" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>11</v>
       </c>
       <c r="H253" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>25</v>
       </c>
       <c r="I253" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>55</v>
       </c>
       <c r="J253" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>115</v>
       </c>
       <c r="K253" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>295</v>
       </c>
       <c r="L253" s="2" t="s">
@@ -11733,31 +11806,31 @@
     </row>
     <row r="254" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E254" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="F254" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="60"/>
         <v>4</v>
       </c>
       <c r="G254" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>11</v>
       </c>
       <c r="H254" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>25</v>
       </c>
       <c r="I254" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>55</v>
       </c>
       <c r="J254" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>115</v>
       </c>
       <c r="K254" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>295</v>
       </c>
       <c r="L254" s="2" t="s">
@@ -11766,31 +11839,31 @@
     </row>
     <row r="255" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E255" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="F255" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="60"/>
         <v>4</v>
       </c>
       <c r="G255" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>11</v>
       </c>
       <c r="H255" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>25</v>
       </c>
       <c r="I255" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>55</v>
       </c>
       <c r="J255" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>115</v>
       </c>
       <c r="K255" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>295</v>
       </c>
       <c r="L255" s="2" t="s">
@@ -11799,31 +11872,31 @@
     </row>
     <row r="256" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E256" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="F256" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="60"/>
         <v>4</v>
       </c>
       <c r="G256" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>11</v>
       </c>
       <c r="H256" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>25</v>
       </c>
       <c r="I256" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>55</v>
       </c>
       <c r="J256" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>115</v>
       </c>
       <c r="K256" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>295</v>
       </c>
       <c r="L256" s="2" t="s">
@@ -11832,31 +11905,31 @@
     </row>
     <row r="257" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E257" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="F257" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="60"/>
         <v>4</v>
       </c>
       <c r="G257" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>11</v>
       </c>
       <c r="H257" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>25</v>
       </c>
       <c r="I257" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>55</v>
       </c>
       <c r="J257" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>115</v>
       </c>
       <c r="K257" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>295</v>
       </c>
       <c r="L257" s="2" t="s">
@@ -11865,31 +11938,31 @@
     </row>
     <row r="258" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E258" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="F258" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="60"/>
         <v>4</v>
       </c>
       <c r="G258" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>11</v>
       </c>
       <c r="H258" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>25</v>
       </c>
       <c r="I258" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>55</v>
       </c>
       <c r="J258" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>115</v>
       </c>
       <c r="K258" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>295</v>
       </c>
       <c r="L258" s="2" t="s">
@@ -11898,31 +11971,31 @@
     </row>
     <row r="259" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E259" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="F259" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="60"/>
         <v>4</v>
       </c>
       <c r="G259" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>11</v>
       </c>
       <c r="H259" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>25</v>
       </c>
       <c r="I259" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>55</v>
       </c>
       <c r="J259" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>115</v>
       </c>
       <c r="K259" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>295</v>
       </c>
       <c r="L259" s="2" t="s">
@@ -11931,31 +12004,31 @@
     </row>
     <row r="260" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E260" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="F260" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="60"/>
         <v>4</v>
       </c>
       <c r="G260" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>11</v>
       </c>
       <c r="H260" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>25</v>
       </c>
       <c r="I260" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>55</v>
       </c>
       <c r="J260" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>115</v>
       </c>
       <c r="K260" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>295</v>
       </c>
       <c r="L260" s="2" t="s">
@@ -11964,31 +12037,31 @@
     </row>
     <row r="261" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E261" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="F261" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="60"/>
         <v>4</v>
       </c>
       <c r="G261" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>11</v>
       </c>
       <c r="H261" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>25</v>
       </c>
       <c r="I261" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>55</v>
       </c>
       <c r="J261" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>115</v>
       </c>
       <c r="K261" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>295</v>
       </c>
       <c r="L261" s="2" t="s">
@@ -11997,31 +12070,31 @@
     </row>
     <row r="262" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E262" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="F262" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="60"/>
         <v>4</v>
       </c>
       <c r="G262" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>11</v>
       </c>
       <c r="H262" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>25</v>
       </c>
       <c r="I262" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>55</v>
       </c>
       <c r="J262" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>115</v>
       </c>
       <c r="K262" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>295</v>
       </c>
       <c r="L262" s="2" t="s">
@@ -12030,31 +12103,31 @@
     </row>
     <row r="263" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E263" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="F263" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="60"/>
         <v>4</v>
       </c>
       <c r="G263" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>11</v>
       </c>
       <c r="H263" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>25</v>
       </c>
       <c r="I263" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>55</v>
       </c>
       <c r="J263" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>115</v>
       </c>
       <c r="K263" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>295</v>
       </c>
       <c r="L263" s="2" t="s">
@@ -12063,31 +12136,31 @@
     </row>
     <row r="264" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E264" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="F264" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="60"/>
         <v>4</v>
       </c>
       <c r="G264" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>11</v>
       </c>
       <c r="H264" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>25</v>
       </c>
       <c r="I264" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>55</v>
       </c>
       <c r="J264" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>115</v>
       </c>
       <c r="K264" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>295</v>
       </c>
       <c r="L264" s="2" t="s">
@@ -12096,31 +12169,31 @@
     </row>
     <row r="265" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E265" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="F265" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="60"/>
         <v>4</v>
       </c>
       <c r="G265" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>11</v>
       </c>
       <c r="H265" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>25</v>
       </c>
       <c r="I265" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>55</v>
       </c>
       <c r="J265" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>115</v>
       </c>
       <c r="K265" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>295</v>
       </c>
       <c r="L265" s="2" t="s">
@@ -12129,31 +12202,31 @@
     </row>
     <row r="266" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E266" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="F266" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="60"/>
         <v>4</v>
       </c>
       <c r="G266" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>11</v>
       </c>
       <c r="H266" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>25</v>
       </c>
       <c r="I266" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>55</v>
       </c>
       <c r="J266" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>115</v>
       </c>
       <c r="K266" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>295</v>
       </c>
       <c r="L266" s="2" t="s">
@@ -12162,31 +12235,31 @@
     </row>
     <row r="267" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E267" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="F267" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="60"/>
         <v>4</v>
       </c>
       <c r="G267" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>11</v>
       </c>
       <c r="H267" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>25</v>
       </c>
       <c r="I267" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>55</v>
       </c>
       <c r="J267" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>115</v>
       </c>
       <c r="K267" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>295</v>
       </c>
       <c r="L267" s="2" t="s">
@@ -12195,31 +12268,31 @@
     </row>
     <row r="268" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E268" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="F268" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="60"/>
         <v>4</v>
       </c>
       <c r="G268" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>11</v>
       </c>
       <c r="H268" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>25</v>
       </c>
       <c r="I268" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>55</v>
       </c>
       <c r="J268" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>115</v>
       </c>
       <c r="K268" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>295</v>
       </c>
       <c r="L268" s="2" t="s">
@@ -12228,31 +12301,31 @@
     </row>
     <row r="269" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E269" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="F269" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="60"/>
         <v>4</v>
       </c>
       <c r="G269" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>11</v>
       </c>
       <c r="H269" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>25</v>
       </c>
       <c r="I269" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>55</v>
       </c>
       <c r="J269" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>115</v>
       </c>
       <c r="K269" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>295</v>
       </c>
       <c r="L269" s="2" t="s">
@@ -12261,31 +12334,31 @@
     </row>
     <row r="270" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E270" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="F270" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="60"/>
         <v>4</v>
       </c>
       <c r="G270" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>11</v>
       </c>
       <c r="H270" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>25</v>
       </c>
       <c r="I270" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>55</v>
       </c>
       <c r="J270" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>115</v>
       </c>
       <c r="K270" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>295</v>
       </c>
       <c r="L270" s="2" t="s">
@@ -12294,31 +12367,31 @@
     </row>
     <row r="271" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E271" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="F271" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="60"/>
         <v>4</v>
       </c>
       <c r="G271" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>11</v>
       </c>
       <c r="H271" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>25</v>
       </c>
       <c r="I271" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>55</v>
       </c>
       <c r="J271" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>115</v>
       </c>
       <c r="K271" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>295</v>
       </c>
       <c r="L271" s="2" t="s">
@@ -12327,31 +12400,31 @@
     </row>
     <row r="272" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E272" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="F272" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="60"/>
         <v>4</v>
       </c>
       <c r="G272" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>11</v>
       </c>
       <c r="H272" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>25</v>
       </c>
       <c r="I272" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>55</v>
       </c>
       <c r="J272" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>115</v>
       </c>
       <c r="K272" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>295</v>
       </c>
       <c r="L272" s="2" t="s">
@@ -12360,31 +12433,31 @@
     </row>
     <row r="273" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E273" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="F273" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="60"/>
         <v>4</v>
       </c>
       <c r="G273" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>11</v>
       </c>
       <c r="H273" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>25</v>
       </c>
       <c r="I273" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>55</v>
       </c>
       <c r="J273" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>115</v>
       </c>
       <c r="K273" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>295</v>
       </c>
       <c r="L273" s="2" t="s">
@@ -12393,31 +12466,31 @@
     </row>
     <row r="274" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E274" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="F274" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="60"/>
         <v>4</v>
       </c>
       <c r="G274" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>11</v>
       </c>
       <c r="H274" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>25</v>
       </c>
       <c r="I274" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>55</v>
       </c>
       <c r="J274" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>115</v>
       </c>
       <c r="K274" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>295</v>
       </c>
       <c r="L274" s="2" t="s">
@@ -12426,31 +12499,31 @@
     </row>
     <row r="275" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E275" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="F275" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="60"/>
         <v>4</v>
       </c>
       <c r="G275" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>11</v>
       </c>
       <c r="H275" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>25</v>
       </c>
       <c r="I275" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>55</v>
       </c>
       <c r="J275" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>115</v>
       </c>
       <c r="K275" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>295</v>
       </c>
       <c r="L275" s="2" t="s">
@@ -12459,31 +12532,31 @@
     </row>
     <row r="276" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E276" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="F276" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="60"/>
         <v>4</v>
       </c>
       <c r="G276" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>11</v>
       </c>
       <c r="H276" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>25</v>
       </c>
       <c r="I276" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>55</v>
       </c>
       <c r="J276" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>115</v>
       </c>
       <c r="K276" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>295</v>
       </c>
       <c r="L276" s="2" t="s">
@@ -12492,31 +12565,31 @@
     </row>
     <row r="277" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E277" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="F277" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="60"/>
         <v>4</v>
       </c>
       <c r="G277" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>11</v>
       </c>
       <c r="H277" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>25</v>
       </c>
       <c r="I277" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>55</v>
       </c>
       <c r="J277" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>115</v>
       </c>
       <c r="K277" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>295</v>
       </c>
       <c r="L277" s="2" t="s">
@@ -12525,31 +12598,31 @@
     </row>
     <row r="278" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E278" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="F278" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="60"/>
         <v>4</v>
       </c>
       <c r="G278" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>11</v>
       </c>
       <c r="H278" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>25</v>
       </c>
       <c r="I278" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>55</v>
       </c>
       <c r="J278" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>115</v>
       </c>
       <c r="K278" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>295</v>
       </c>
       <c r="L278" s="2" t="s">
@@ -12558,31 +12631,31 @@
     </row>
     <row r="279" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E279" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="F279" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="60"/>
         <v>4</v>
       </c>
       <c r="G279" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>11</v>
       </c>
       <c r="H279" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>25</v>
       </c>
       <c r="I279" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>55</v>
       </c>
       <c r="J279" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>115</v>
       </c>
       <c r="K279" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>295</v>
       </c>
       <c r="L279" s="2" t="s">
@@ -12591,31 +12664,31 @@
     </row>
     <row r="280" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E280" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="F280" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="60"/>
         <v>4</v>
       </c>
       <c r="G280" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>11</v>
       </c>
       <c r="H280" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>25</v>
       </c>
       <c r="I280" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>55</v>
       </c>
       <c r="J280" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>115</v>
       </c>
       <c r="K280" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>295</v>
       </c>
       <c r="L280" s="2" t="s">
@@ -12624,31 +12697,31 @@
     </row>
     <row r="281" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E281" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="F281" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="60"/>
         <v>4</v>
       </c>
       <c r="G281" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>11</v>
       </c>
       <c r="H281" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>25</v>
       </c>
       <c r="I281" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>55</v>
       </c>
       <c r="J281" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>115</v>
       </c>
       <c r="K281" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>295</v>
       </c>
       <c r="L281" s="2" t="s">
@@ -12657,31 +12730,31 @@
     </row>
     <row r="282" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E282" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="F282" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="60"/>
         <v>4</v>
       </c>
       <c r="G282" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>11</v>
       </c>
       <c r="H282" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>25</v>
       </c>
       <c r="I282" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>55</v>
       </c>
       <c r="J282" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>115</v>
       </c>
       <c r="K282" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>295</v>
       </c>
       <c r="L282" s="2" t="s">
@@ -12690,31 +12763,31 @@
     </row>
     <row r="283" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E283" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="F283" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="60"/>
         <v>4</v>
       </c>
       <c r="G283" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>11</v>
       </c>
       <c r="H283" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>25</v>
       </c>
       <c r="I283" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>55</v>
       </c>
       <c r="J283" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>115</v>
       </c>
       <c r="K283" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>295</v>
       </c>
       <c r="L283" s="2" t="s">
@@ -12723,31 +12796,31 @@
     </row>
     <row r="284" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E284" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="F284" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="60"/>
         <v>4</v>
       </c>
       <c r="G284" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>11</v>
       </c>
       <c r="H284" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>25</v>
       </c>
       <c r="I284" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>55</v>
       </c>
       <c r="J284" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>115</v>
       </c>
       <c r="K284" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>295</v>
       </c>
       <c r="L284" s="2" t="s">
@@ -12756,31 +12829,31 @@
     </row>
     <row r="285" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E285" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="F285" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="60"/>
         <v>4</v>
       </c>
       <c r="G285" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>11</v>
       </c>
       <c r="H285" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>25</v>
       </c>
       <c r="I285" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>55</v>
       </c>
       <c r="J285" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>115</v>
       </c>
       <c r="K285" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>295</v>
       </c>
       <c r="L285" s="2" t="s">
@@ -12789,31 +12862,31 @@
     </row>
     <row r="286" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E286" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="F286" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="60"/>
         <v>4</v>
       </c>
       <c r="G286" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>11</v>
       </c>
       <c r="H286" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>25</v>
       </c>
       <c r="I286" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>55</v>
       </c>
       <c r="J286" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>115</v>
       </c>
       <c r="K286" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>295</v>
       </c>
       <c r="L286" s="2" t="s">
@@ -12822,31 +12895,31 @@
     </row>
     <row r="287" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E287" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="F287" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="60"/>
         <v>4</v>
       </c>
       <c r="G287" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>11</v>
       </c>
       <c r="H287" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>25</v>
       </c>
       <c r="I287" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>55</v>
       </c>
       <c r="J287" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>115</v>
       </c>
       <c r="K287" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>295</v>
       </c>
       <c r="L287" s="2" t="s">
@@ -12855,31 +12928,31 @@
     </row>
     <row r="288" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E288" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="F288" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="60"/>
         <v>4</v>
       </c>
       <c r="G288" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>11</v>
       </c>
       <c r="H288" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>25</v>
       </c>
       <c r="I288" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>55</v>
       </c>
       <c r="J288" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>115</v>
       </c>
       <c r="K288" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>295</v>
       </c>
       <c r="L288" s="2" t="s">
@@ -12888,31 +12961,31 @@
     </row>
     <row r="289" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E289" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="F289" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="60"/>
         <v>4</v>
       </c>
       <c r="G289" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>11</v>
       </c>
       <c r="H289" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>25</v>
       </c>
       <c r="I289" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>55</v>
       </c>
       <c r="J289" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>115</v>
       </c>
       <c r="K289" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>295</v>
       </c>
       <c r="L289" s="2" t="s">
@@ -12921,31 +12994,31 @@
     </row>
     <row r="290" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E290" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="F290" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="60"/>
         <v>4</v>
       </c>
       <c r="G290" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>11</v>
       </c>
       <c r="H290" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>25</v>
       </c>
       <c r="I290" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>55</v>
       </c>
       <c r="J290" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>115</v>
       </c>
       <c r="K290" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>295</v>
       </c>
       <c r="L290" s="2" t="s">
@@ -12954,31 +13027,31 @@
     </row>
     <row r="291" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E291" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="F291" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="60"/>
         <v>4</v>
       </c>
       <c r="G291" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>11</v>
       </c>
       <c r="H291" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>25</v>
       </c>
       <c r="I291" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>55</v>
       </c>
       <c r="J291" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>115</v>
       </c>
       <c r="K291" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>295</v>
       </c>
       <c r="L291" s="2" t="s">
@@ -12987,31 +13060,31 @@
     </row>
     <row r="292" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E292" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="F292" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="60"/>
         <v>4</v>
       </c>
       <c r="G292" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>11</v>
       </c>
       <c r="H292" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>25</v>
       </c>
       <c r="I292" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>55</v>
       </c>
       <c r="J292" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>115</v>
       </c>
       <c r="K292" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>295</v>
       </c>
       <c r="L292" s="2" t="s">
@@ -13020,31 +13093,31 @@
     </row>
     <row r="293" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E293" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="F293" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="60"/>
         <v>4</v>
       </c>
       <c r="G293" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>11</v>
       </c>
       <c r="H293" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>25</v>
       </c>
       <c r="I293" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>55</v>
       </c>
       <c r="J293" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>115</v>
       </c>
       <c r="K293" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>295</v>
       </c>
       <c r="L293" s="2" t="s">
@@ -13053,31 +13126,31 @@
     </row>
     <row r="294" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E294" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="F294" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="60"/>
         <v>4</v>
       </c>
       <c r="G294" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>11</v>
       </c>
       <c r="H294" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>25</v>
       </c>
       <c r="I294" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>55</v>
       </c>
       <c r="J294" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>115</v>
       </c>
       <c r="K294" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>295</v>
       </c>
       <c r="L294" s="2" t="s">
@@ -13086,31 +13159,31 @@
     </row>
     <row r="295" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E295" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="F295" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="60"/>
         <v>4</v>
       </c>
       <c r="G295" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>11</v>
       </c>
       <c r="H295" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>25</v>
       </c>
       <c r="I295" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>55</v>
       </c>
       <c r="J295" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>115</v>
       </c>
       <c r="K295" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>295</v>
       </c>
       <c r="L295" s="2" t="s">
@@ -13119,31 +13192,31 @@
     </row>
     <row r="296" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E296" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="F296" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="60"/>
         <v>4</v>
       </c>
       <c r="G296" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>11</v>
       </c>
       <c r="H296" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>25</v>
       </c>
       <c r="I296" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>55</v>
       </c>
       <c r="J296" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>115</v>
       </c>
       <c r="K296" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>295</v>
       </c>
       <c r="L296" s="2" t="s">
@@ -13152,31 +13225,31 @@
     </row>
     <row r="297" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E297" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="F297" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="60"/>
         <v>4</v>
       </c>
       <c r="G297" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>11</v>
       </c>
       <c r="H297" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>25</v>
       </c>
       <c r="I297" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>55</v>
       </c>
       <c r="J297" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>115</v>
       </c>
       <c r="K297" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>295</v>
       </c>
       <c r="L297" s="2" t="s">
@@ -13185,31 +13258,31 @@
     </row>
     <row r="298" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E298" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="F298" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="60"/>
         <v>4</v>
       </c>
       <c r="G298" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>11</v>
       </c>
       <c r="H298" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>25</v>
       </c>
       <c r="I298" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>55</v>
       </c>
       <c r="J298" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>115</v>
       </c>
       <c r="K298" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>295</v>
       </c>
       <c r="L298" s="2" t="s">
@@ -13218,31 +13291,31 @@
     </row>
     <row r="299" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E299" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="F299" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="60"/>
         <v>4</v>
       </c>
       <c r="G299" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>11</v>
       </c>
       <c r="H299" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>25</v>
       </c>
       <c r="I299" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>55</v>
       </c>
       <c r="J299" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>115</v>
       </c>
       <c r="K299" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>295</v>
       </c>
       <c r="L299" s="2" t="s">
@@ -13251,31 +13324,31 @@
     </row>
     <row r="300" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E300" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="F300" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="60"/>
         <v>4</v>
       </c>
       <c r="G300" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>11</v>
       </c>
       <c r="H300" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>25</v>
       </c>
       <c r="I300" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>55</v>
       </c>
       <c r="J300" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>115</v>
       </c>
       <c r="K300" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>295</v>
       </c>
       <c r="L300" s="2" t="s">
@@ -13284,31 +13357,31 @@
     </row>
     <row r="301" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E301" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="F301" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="60"/>
         <v>4</v>
       </c>
       <c r="G301" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>11</v>
       </c>
       <c r="H301" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>25</v>
       </c>
       <c r="I301" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>55</v>
       </c>
       <c r="J301" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>115</v>
       </c>
       <c r="K301" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>295</v>
       </c>
       <c r="L301" s="2" t="s">
@@ -13317,31 +13390,31 @@
     </row>
     <row r="302" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E302" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="F302" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="60"/>
         <v>4</v>
       </c>
       <c r="G302" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>11</v>
       </c>
       <c r="H302" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>25</v>
       </c>
       <c r="I302" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>55</v>
       </c>
       <c r="J302" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>115</v>
       </c>
       <c r="K302" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>295</v>
       </c>
       <c r="L302" s="2" t="s">
@@ -13350,31 +13423,31 @@
     </row>
     <row r="303" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E303" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="F303" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="60"/>
         <v>4</v>
       </c>
       <c r="G303" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>11</v>
       </c>
       <c r="H303" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>25</v>
       </c>
       <c r="I303" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>55</v>
       </c>
       <c r="J303" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>115</v>
       </c>
       <c r="K303" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>295</v>
       </c>
       <c r="L303" s="2" t="s">
@@ -13383,31 +13456,31 @@
     </row>
     <row r="304" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E304" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="F304" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="60"/>
         <v>4</v>
       </c>
       <c r="G304" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>11</v>
       </c>
       <c r="H304" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>25</v>
       </c>
       <c r="I304" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>55</v>
       </c>
       <c r="J304" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>115</v>
       </c>
       <c r="K304" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>295</v>
       </c>
       <c r="L304" s="2" t="s">
@@ -13416,31 +13489,31 @@
     </row>
     <row r="305" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E305" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="F305" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="60"/>
         <v>4</v>
       </c>
       <c r="G305" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>11</v>
       </c>
       <c r="H305" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>25</v>
       </c>
       <c r="I305" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>55</v>
       </c>
       <c r="J305" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>115</v>
       </c>
       <c r="K305" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>295</v>
       </c>
       <c r="L305" s="2" t="s">
@@ -13449,31 +13522,31 @@
     </row>
     <row r="306" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E306" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="F306" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="60"/>
         <v>4</v>
       </c>
       <c r="G306" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>11</v>
       </c>
       <c r="H306" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>25</v>
       </c>
       <c r="I306" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>55</v>
       </c>
       <c r="J306" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>115</v>
       </c>
       <c r="K306" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>295</v>
       </c>
       <c r="L306" s="2" t="s">
@@ -13482,31 +13555,31 @@
     </row>
     <row r="307" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E307" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="F307" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="60"/>
         <v>4</v>
       </c>
       <c r="G307" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>11</v>
       </c>
       <c r="H307" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>25</v>
       </c>
       <c r="I307" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>55</v>
       </c>
       <c r="J307" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>115</v>
       </c>
       <c r="K307" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>295</v>
       </c>
       <c r="L307" s="2" t="s">
@@ -13515,31 +13588,31 @@
     </row>
     <row r="308" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E308" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="F308" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="60"/>
         <v>4</v>
       </c>
       <c r="G308" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>11</v>
       </c>
       <c r="H308" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>25</v>
       </c>
       <c r="I308" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>55</v>
       </c>
       <c r="J308" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>115</v>
       </c>
       <c r="K308" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>295</v>
       </c>
       <c r="L308" s="2" t="s">
@@ -13548,31 +13621,31 @@
     </row>
     <row r="309" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E309" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="F309" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="60"/>
         <v>4</v>
       </c>
       <c r="G309" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>11</v>
       </c>
       <c r="H309" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>25</v>
       </c>
       <c r="I309" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>55</v>
       </c>
       <c r="J309" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>115</v>
       </c>
       <c r="K309" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>295</v>
       </c>
       <c r="L309" s="2" t="s">
@@ -13581,31 +13654,31 @@
     </row>
     <row r="310" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E310" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="F310" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="60"/>
         <v>4</v>
       </c>
       <c r="G310" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>11</v>
       </c>
       <c r="H310" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>25</v>
       </c>
       <c r="I310" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>55</v>
       </c>
       <c r="J310" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>115</v>
       </c>
       <c r="K310" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>295</v>
       </c>
       <c r="L310" s="2" t="s">
@@ -13614,31 +13687,31 @@
     </row>
     <row r="311" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E311" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="F311" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="60"/>
         <v>4</v>
       </c>
       <c r="G311" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>11</v>
       </c>
       <c r="H311" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>25</v>
       </c>
       <c r="I311" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>55</v>
       </c>
       <c r="J311" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>115</v>
       </c>
       <c r="K311" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>295</v>
       </c>
       <c r="L311" s="2" t="s">
@@ -13647,31 +13720,31 @@
     </row>
     <row r="312" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E312" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="F312" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="60"/>
         <v>4</v>
       </c>
       <c r="G312" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>11</v>
       </c>
       <c r="H312" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>25</v>
       </c>
       <c r="I312" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>55</v>
       </c>
       <c r="J312" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>115</v>
       </c>
       <c r="K312" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>295</v>
       </c>
       <c r="L312" s="2" t="s">
@@ -13680,31 +13753,31 @@
     </row>
     <row r="313" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E313" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="F313" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="60"/>
         <v>4</v>
       </c>
       <c r="G313" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>11</v>
       </c>
       <c r="H313" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>25</v>
       </c>
       <c r="I313" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>55</v>
       </c>
       <c r="J313" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>115</v>
       </c>
       <c r="K313" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>295</v>
       </c>
       <c r="L313" s="2" t="s">
@@ -13713,31 +13786,31 @@
     </row>
     <row r="314" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E314" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="F314" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="60"/>
         <v>4</v>
       </c>
       <c r="G314" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>11</v>
       </c>
       <c r="H314" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>25</v>
       </c>
       <c r="I314" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>55</v>
       </c>
       <c r="J314" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>115</v>
       </c>
       <c r="K314" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>295</v>
       </c>
       <c r="L314" s="2" t="s">
@@ -13746,31 +13819,31 @@
     </row>
     <row r="315" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E315" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="F315" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="60"/>
         <v>4</v>
       </c>
       <c r="G315" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>11</v>
       </c>
       <c r="H315" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>25</v>
       </c>
       <c r="I315" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>55</v>
       </c>
       <c r="J315" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>115</v>
       </c>
       <c r="K315" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>295</v>
       </c>
       <c r="L315" s="2" t="s">
@@ -13779,31 +13852,31 @@
     </row>
     <row r="316" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E316" s="3">
-        <f t="shared" ref="E316:E346" si="59">D316+1</f>
+        <f t="shared" ref="E316:E346" si="66">D316+1</f>
         <v>1</v>
       </c>
       <c r="F316" s="3">
-        <f t="shared" ref="F316:F346" si="60">E316 + 3</f>
+        <f t="shared" ref="F316:F346" si="67">E316 + 3</f>
         <v>4</v>
       </c>
       <c r="G316" s="3">
-        <f t="shared" ref="G316:G346" si="61">F316+7</f>
+        <f t="shared" ref="G316:G346" si="68">F316+7</f>
         <v>11</v>
       </c>
       <c r="H316" s="3">
-        <f t="shared" ref="H316:H346" si="62">G316+14</f>
+        <f t="shared" ref="H316:H346" si="69">G316+14</f>
         <v>25</v>
       </c>
       <c r="I316" s="3">
-        <f t="shared" ref="I316:I346" si="63">H316+30</f>
+        <f t="shared" ref="I316:I346" si="70">H316+30</f>
         <v>55</v>
       </c>
       <c r="J316" s="3">
-        <f t="shared" ref="J316:J346" si="64">I316+60</f>
+        <f t="shared" ref="J316:J346" si="71">I316+60</f>
         <v>115</v>
       </c>
       <c r="K316" s="3">
-        <f t="shared" ref="K316:K346" si="65">J316 + 180</f>
+        <f t="shared" ref="K316:K346" si="72">J316 + 180</f>
         <v>295</v>
       </c>
       <c r="L316" s="2" t="s">
@@ -13812,31 +13885,31 @@
     </row>
     <row r="317" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E317" s="3">
-        <f t="shared" si="59"/>
+        <f t="shared" si="66"/>
         <v>1</v>
       </c>
       <c r="F317" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>4</v>
       </c>
       <c r="G317" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="68"/>
         <v>11</v>
       </c>
       <c r="H317" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="69"/>
         <v>25</v>
       </c>
       <c r="I317" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="70"/>
         <v>55</v>
       </c>
       <c r="J317" s="3">
-        <f t="shared" si="64"/>
+        <f t="shared" si="71"/>
         <v>115</v>
       </c>
       <c r="K317" s="3">
-        <f t="shared" si="65"/>
+        <f t="shared" si="72"/>
         <v>295</v>
       </c>
       <c r="L317" s="2" t="s">
@@ -13845,31 +13918,31 @@
     </row>
     <row r="318" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E318" s="3">
-        <f t="shared" si="59"/>
+        <f t="shared" si="66"/>
         <v>1</v>
       </c>
       <c r="F318" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>4</v>
       </c>
       <c r="G318" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="68"/>
         <v>11</v>
       </c>
       <c r="H318" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="69"/>
         <v>25</v>
       </c>
       <c r="I318" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="70"/>
         <v>55</v>
       </c>
       <c r="J318" s="3">
-        <f t="shared" si="64"/>
+        <f t="shared" si="71"/>
         <v>115</v>
       </c>
       <c r="K318" s="3">
-        <f t="shared" si="65"/>
+        <f t="shared" si="72"/>
         <v>295</v>
       </c>
       <c r="L318" s="2" t="s">
@@ -13878,31 +13951,31 @@
     </row>
     <row r="319" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E319" s="3">
-        <f t="shared" si="59"/>
+        <f t="shared" si="66"/>
         <v>1</v>
       </c>
       <c r="F319" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>4</v>
       </c>
       <c r="G319" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="68"/>
         <v>11</v>
       </c>
       <c r="H319" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="69"/>
         <v>25</v>
       </c>
       <c r="I319" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="70"/>
         <v>55</v>
       </c>
       <c r="J319" s="3">
-        <f t="shared" si="64"/>
+        <f t="shared" si="71"/>
         <v>115</v>
       </c>
       <c r="K319" s="3">
-        <f t="shared" si="65"/>
+        <f t="shared" si="72"/>
         <v>295</v>
       </c>
       <c r="L319" s="2" t="s">
@@ -13911,31 +13984,31 @@
     </row>
     <row r="320" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E320" s="3">
-        <f t="shared" si="59"/>
+        <f t="shared" si="66"/>
         <v>1</v>
       </c>
       <c r="F320" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>4</v>
       </c>
       <c r="G320" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="68"/>
         <v>11</v>
       </c>
       <c r="H320" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="69"/>
         <v>25</v>
       </c>
       <c r="I320" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="70"/>
         <v>55</v>
       </c>
       <c r="J320" s="3">
-        <f t="shared" si="64"/>
+        <f t="shared" si="71"/>
         <v>115</v>
       </c>
       <c r="K320" s="3">
-        <f t="shared" si="65"/>
+        <f t="shared" si="72"/>
         <v>295</v>
       </c>
       <c r="L320" s="2" t="s">
@@ -13944,31 +14017,31 @@
     </row>
     <row r="321" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E321" s="3">
-        <f t="shared" si="59"/>
+        <f t="shared" si="66"/>
         <v>1</v>
       </c>
       <c r="F321" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>4</v>
       </c>
       <c r="G321" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="68"/>
         <v>11</v>
       </c>
       <c r="H321" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="69"/>
         <v>25</v>
       </c>
       <c r="I321" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="70"/>
         <v>55</v>
       </c>
       <c r="J321" s="3">
-        <f t="shared" si="64"/>
+        <f t="shared" si="71"/>
         <v>115</v>
       </c>
       <c r="K321" s="3">
-        <f t="shared" si="65"/>
+        <f t="shared" si="72"/>
         <v>295</v>
       </c>
       <c r="L321" s="2" t="s">
@@ -13977,31 +14050,31 @@
     </row>
     <row r="322" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E322" s="3">
-        <f t="shared" si="59"/>
+        <f t="shared" si="66"/>
         <v>1</v>
       </c>
       <c r="F322" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>4</v>
       </c>
       <c r="G322" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="68"/>
         <v>11</v>
       </c>
       <c r="H322" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="69"/>
         <v>25</v>
       </c>
       <c r="I322" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="70"/>
         <v>55</v>
       </c>
       <c r="J322" s="3">
-        <f t="shared" si="64"/>
+        <f t="shared" si="71"/>
         <v>115</v>
       </c>
       <c r="K322" s="3">
-        <f t="shared" si="65"/>
+        <f t="shared" si="72"/>
         <v>295</v>
       </c>
       <c r="L322" s="2" t="s">
@@ -14010,31 +14083,31 @@
     </row>
     <row r="323" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E323" s="3">
-        <f t="shared" si="59"/>
+        <f t="shared" si="66"/>
         <v>1</v>
       </c>
       <c r="F323" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>4</v>
       </c>
       <c r="G323" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="68"/>
         <v>11</v>
       </c>
       <c r="H323" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="69"/>
         <v>25</v>
       </c>
       <c r="I323" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="70"/>
         <v>55</v>
       </c>
       <c r="J323" s="3">
-        <f t="shared" si="64"/>
+        <f t="shared" si="71"/>
         <v>115</v>
       </c>
       <c r="K323" s="3">
-        <f t="shared" si="65"/>
+        <f t="shared" si="72"/>
         <v>295</v>
       </c>
       <c r="L323" s="2" t="s">
@@ -14043,31 +14116,31 @@
     </row>
     <row r="324" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E324" s="3">
-        <f t="shared" si="59"/>
+        <f t="shared" si="66"/>
         <v>1</v>
       </c>
       <c r="F324" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>4</v>
       </c>
       <c r="G324" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="68"/>
         <v>11</v>
       </c>
       <c r="H324" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="69"/>
         <v>25</v>
       </c>
       <c r="I324" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="70"/>
         <v>55</v>
       </c>
       <c r="J324" s="3">
-        <f t="shared" si="64"/>
+        <f t="shared" si="71"/>
         <v>115</v>
       </c>
       <c r="K324" s="3">
-        <f t="shared" si="65"/>
+        <f t="shared" si="72"/>
         <v>295</v>
       </c>
       <c r="L324" s="2" t="s">
@@ -14076,31 +14149,31 @@
     </row>
     <row r="325" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E325" s="3">
-        <f t="shared" si="59"/>
+        <f t="shared" si="66"/>
         <v>1</v>
       </c>
       <c r="F325" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>4</v>
       </c>
       <c r="G325" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="68"/>
         <v>11</v>
       </c>
       <c r="H325" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="69"/>
         <v>25</v>
       </c>
       <c r="I325" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="70"/>
         <v>55</v>
       </c>
       <c r="J325" s="3">
-        <f t="shared" si="64"/>
+        <f t="shared" si="71"/>
         <v>115</v>
       </c>
       <c r="K325" s="3">
-        <f t="shared" si="65"/>
+        <f t="shared" si="72"/>
         <v>295</v>
       </c>
       <c r="L325" s="2" t="s">
@@ -14109,31 +14182,31 @@
     </row>
     <row r="326" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E326" s="3">
-        <f t="shared" si="59"/>
+        <f t="shared" si="66"/>
         <v>1</v>
       </c>
       <c r="F326" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>4</v>
       </c>
       <c r="G326" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="68"/>
         <v>11</v>
       </c>
       <c r="H326" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="69"/>
         <v>25</v>
       </c>
       <c r="I326" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="70"/>
         <v>55</v>
       </c>
       <c r="J326" s="3">
-        <f t="shared" si="64"/>
+        <f t="shared" si="71"/>
         <v>115</v>
       </c>
       <c r="K326" s="3">
-        <f t="shared" si="65"/>
+        <f t="shared" si="72"/>
         <v>295</v>
       </c>
       <c r="L326" s="2" t="s">
@@ -14142,31 +14215,31 @@
     </row>
     <row r="327" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E327" s="3">
-        <f t="shared" si="59"/>
+        <f t="shared" si="66"/>
         <v>1</v>
       </c>
       <c r="F327" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>4</v>
       </c>
       <c r="G327" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="68"/>
         <v>11</v>
       </c>
       <c r="H327" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="69"/>
         <v>25</v>
       </c>
       <c r="I327" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="70"/>
         <v>55</v>
       </c>
       <c r="J327" s="3">
-        <f t="shared" si="64"/>
+        <f t="shared" si="71"/>
         <v>115</v>
       </c>
       <c r="K327" s="3">
-        <f t="shared" si="65"/>
+        <f t="shared" si="72"/>
         <v>295</v>
       </c>
       <c r="L327" s="2" t="s">
@@ -14175,31 +14248,31 @@
     </row>
     <row r="328" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E328" s="3">
-        <f t="shared" si="59"/>
+        <f t="shared" si="66"/>
         <v>1</v>
       </c>
       <c r="F328" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>4</v>
       </c>
       <c r="G328" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="68"/>
         <v>11</v>
       </c>
       <c r="H328" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="69"/>
         <v>25</v>
       </c>
       <c r="I328" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="70"/>
         <v>55</v>
       </c>
       <c r="J328" s="3">
-        <f t="shared" si="64"/>
+        <f t="shared" si="71"/>
         <v>115</v>
       </c>
       <c r="K328" s="3">
-        <f t="shared" si="65"/>
+        <f t="shared" si="72"/>
         <v>295</v>
       </c>
       <c r="L328" s="2" t="s">
@@ -14208,31 +14281,31 @@
     </row>
     <row r="329" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E329" s="3">
-        <f t="shared" si="59"/>
+        <f t="shared" si="66"/>
         <v>1</v>
       </c>
       <c r="F329" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>4</v>
       </c>
       <c r="G329" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="68"/>
         <v>11</v>
       </c>
       <c r="H329" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="69"/>
         <v>25</v>
       </c>
       <c r="I329" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="70"/>
         <v>55</v>
       </c>
       <c r="J329" s="3">
-        <f t="shared" si="64"/>
+        <f t="shared" si="71"/>
         <v>115</v>
       </c>
       <c r="K329" s="3">
-        <f t="shared" si="65"/>
+        <f t="shared" si="72"/>
         <v>295</v>
       </c>
       <c r="L329" s="2" t="s">
@@ -14241,31 +14314,31 @@
     </row>
     <row r="330" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E330" s="3">
-        <f t="shared" si="59"/>
+        <f t="shared" si="66"/>
         <v>1</v>
       </c>
       <c r="F330" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>4</v>
       </c>
       <c r="G330" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="68"/>
         <v>11</v>
       </c>
       <c r="H330" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="69"/>
         <v>25</v>
       </c>
       <c r="I330" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="70"/>
         <v>55</v>
       </c>
       <c r="J330" s="3">
-        <f t="shared" si="64"/>
+        <f t="shared" si="71"/>
         <v>115</v>
       </c>
       <c r="K330" s="3">
-        <f t="shared" si="65"/>
+        <f t="shared" si="72"/>
         <v>295</v>
       </c>
       <c r="L330" s="2" t="s">
@@ -14274,31 +14347,31 @@
     </row>
     <row r="331" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E331" s="3">
-        <f t="shared" si="59"/>
+        <f t="shared" si="66"/>
         <v>1</v>
       </c>
       <c r="F331" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>4</v>
       </c>
       <c r="G331" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="68"/>
         <v>11</v>
       </c>
       <c r="H331" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="69"/>
         <v>25</v>
       </c>
       <c r="I331" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="70"/>
         <v>55</v>
       </c>
       <c r="J331" s="3">
-        <f t="shared" si="64"/>
+        <f t="shared" si="71"/>
         <v>115</v>
       </c>
       <c r="K331" s="3">
-        <f t="shared" si="65"/>
+        <f t="shared" si="72"/>
         <v>295</v>
       </c>
       <c r="L331" s="2" t="s">
@@ -14307,31 +14380,31 @@
     </row>
     <row r="332" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E332" s="3">
-        <f t="shared" si="59"/>
+        <f t="shared" si="66"/>
         <v>1</v>
       </c>
       <c r="F332" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>4</v>
       </c>
       <c r="G332" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="68"/>
         <v>11</v>
       </c>
       <c r="H332" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="69"/>
         <v>25</v>
       </c>
       <c r="I332" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="70"/>
         <v>55</v>
       </c>
       <c r="J332" s="3">
-        <f t="shared" si="64"/>
+        <f t="shared" si="71"/>
         <v>115</v>
       </c>
       <c r="K332" s="3">
-        <f t="shared" si="65"/>
+        <f t="shared" si="72"/>
         <v>295</v>
       </c>
       <c r="L332" s="2" t="s">
@@ -14340,31 +14413,31 @@
     </row>
     <row r="333" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E333" s="3">
-        <f t="shared" si="59"/>
+        <f t="shared" si="66"/>
         <v>1</v>
       </c>
       <c r="F333" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>4</v>
       </c>
       <c r="G333" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="68"/>
         <v>11</v>
       </c>
       <c r="H333" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="69"/>
         <v>25</v>
       </c>
       <c r="I333" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="70"/>
         <v>55</v>
       </c>
       <c r="J333" s="3">
-        <f t="shared" si="64"/>
+        <f t="shared" si="71"/>
         <v>115</v>
       </c>
       <c r="K333" s="3">
-        <f t="shared" si="65"/>
+        <f t="shared" si="72"/>
         <v>295</v>
       </c>
       <c r="L333" s="2" t="s">
@@ -14373,31 +14446,31 @@
     </row>
     <row r="334" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E334" s="3">
-        <f t="shared" si="59"/>
+        <f t="shared" si="66"/>
         <v>1</v>
       </c>
       <c r="F334" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>4</v>
       </c>
       <c r="G334" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="68"/>
         <v>11</v>
       </c>
       <c r="H334" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="69"/>
         <v>25</v>
       </c>
       <c r="I334" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="70"/>
         <v>55</v>
       </c>
       <c r="J334" s="3">
-        <f t="shared" si="64"/>
+        <f t="shared" si="71"/>
         <v>115</v>
       </c>
       <c r="K334" s="3">
-        <f t="shared" si="65"/>
+        <f t="shared" si="72"/>
         <v>295</v>
       </c>
       <c r="L334" s="2" t="s">
@@ -14406,31 +14479,31 @@
     </row>
     <row r="335" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E335" s="3">
-        <f t="shared" si="59"/>
+        <f t="shared" si="66"/>
         <v>1</v>
       </c>
       <c r="F335" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>4</v>
       </c>
       <c r="G335" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="68"/>
         <v>11</v>
       </c>
       <c r="H335" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="69"/>
         <v>25</v>
       </c>
       <c r="I335" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="70"/>
         <v>55</v>
       </c>
       <c r="J335" s="3">
-        <f t="shared" si="64"/>
+        <f t="shared" si="71"/>
         <v>115</v>
       </c>
       <c r="K335" s="3">
-        <f t="shared" si="65"/>
+        <f t="shared" si="72"/>
         <v>295</v>
       </c>
       <c r="L335" s="2" t="s">
@@ -14439,31 +14512,31 @@
     </row>
     <row r="336" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E336" s="3">
-        <f t="shared" si="59"/>
+        <f t="shared" si="66"/>
         <v>1</v>
       </c>
       <c r="F336" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>4</v>
       </c>
       <c r="G336" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="68"/>
         <v>11</v>
       </c>
       <c r="H336" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="69"/>
         <v>25</v>
       </c>
       <c r="I336" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="70"/>
         <v>55</v>
       </c>
       <c r="J336" s="3">
-        <f t="shared" si="64"/>
+        <f t="shared" si="71"/>
         <v>115</v>
       </c>
       <c r="K336" s="3">
-        <f t="shared" si="65"/>
+        <f t="shared" si="72"/>
         <v>295</v>
       </c>
       <c r="L336" s="2" t="s">
@@ -14472,31 +14545,31 @@
     </row>
     <row r="337" spans="3:12" x14ac:dyDescent="0.25">
       <c r="E337" s="3">
-        <f t="shared" si="59"/>
+        <f t="shared" si="66"/>
         <v>1</v>
       </c>
       <c r="F337" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>4</v>
       </c>
       <c r="G337" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="68"/>
         <v>11</v>
       </c>
       <c r="H337" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="69"/>
         <v>25</v>
       </c>
       <c r="I337" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="70"/>
         <v>55</v>
       </c>
       <c r="J337" s="3">
-        <f t="shared" si="64"/>
+        <f t="shared" si="71"/>
         <v>115</v>
       </c>
       <c r="K337" s="3">
-        <f t="shared" si="65"/>
+        <f t="shared" si="72"/>
         <v>295</v>
       </c>
       <c r="L337" s="2" t="s">
@@ -14505,31 +14578,31 @@
     </row>
     <row r="338" spans="3:12" x14ac:dyDescent="0.25">
       <c r="E338" s="3">
-        <f t="shared" si="59"/>
+        <f t="shared" si="66"/>
         <v>1</v>
       </c>
       <c r="F338" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>4</v>
       </c>
       <c r="G338" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="68"/>
         <v>11</v>
       </c>
       <c r="H338" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="69"/>
         <v>25</v>
       </c>
       <c r="I338" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="70"/>
         <v>55</v>
       </c>
       <c r="J338" s="3">
-        <f t="shared" si="64"/>
+        <f t="shared" si="71"/>
         <v>115</v>
       </c>
       <c r="K338" s="3">
-        <f t="shared" si="65"/>
+        <f t="shared" si="72"/>
         <v>295</v>
       </c>
       <c r="L338" s="2" t="s">
@@ -14538,31 +14611,31 @@
     </row>
     <row r="339" spans="3:12" x14ac:dyDescent="0.25">
       <c r="E339" s="3">
-        <f t="shared" si="59"/>
+        <f t="shared" si="66"/>
         <v>1</v>
       </c>
       <c r="F339" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>4</v>
       </c>
       <c r="G339" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="68"/>
         <v>11</v>
       </c>
       <c r="H339" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="69"/>
         <v>25</v>
       </c>
       <c r="I339" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="70"/>
         <v>55</v>
       </c>
       <c r="J339" s="3">
-        <f t="shared" si="64"/>
+        <f t="shared" si="71"/>
         <v>115</v>
       </c>
       <c r="K339" s="3">
-        <f t="shared" si="65"/>
+        <f t="shared" si="72"/>
         <v>295</v>
       </c>
       <c r="L339" s="2" t="s">
@@ -14571,31 +14644,31 @@
     </row>
     <row r="340" spans="3:12" x14ac:dyDescent="0.25">
       <c r="E340" s="3">
-        <f t="shared" si="59"/>
+        <f t="shared" si="66"/>
         <v>1</v>
       </c>
       <c r="F340" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>4</v>
       </c>
       <c r="G340" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="68"/>
         <v>11</v>
       </c>
       <c r="H340" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="69"/>
         <v>25</v>
       </c>
       <c r="I340" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="70"/>
         <v>55</v>
       </c>
       <c r="J340" s="3">
-        <f t="shared" si="64"/>
+        <f t="shared" si="71"/>
         <v>115</v>
       </c>
       <c r="K340" s="3">
-        <f t="shared" si="65"/>
+        <f t="shared" si="72"/>
         <v>295</v>
       </c>
       <c r="L340" s="2" t="s">
@@ -14604,31 +14677,31 @@
     </row>
     <row r="341" spans="3:12" x14ac:dyDescent="0.25">
       <c r="E341" s="3">
-        <f t="shared" si="59"/>
+        <f t="shared" si="66"/>
         <v>1</v>
       </c>
       <c r="F341" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>4</v>
       </c>
       <c r="G341" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="68"/>
         <v>11</v>
       </c>
       <c r="H341" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="69"/>
         <v>25</v>
       </c>
       <c r="I341" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="70"/>
         <v>55</v>
       </c>
       <c r="J341" s="3">
-        <f t="shared" si="64"/>
+        <f t="shared" si="71"/>
         <v>115</v>
       </c>
       <c r="K341" s="3">
-        <f t="shared" si="65"/>
+        <f t="shared" si="72"/>
         <v>295</v>
       </c>
       <c r="L341" s="2" t="s">
@@ -14637,31 +14710,31 @@
     </row>
     <row r="342" spans="3:12" x14ac:dyDescent="0.25">
       <c r="E342" s="3">
-        <f t="shared" si="59"/>
+        <f t="shared" si="66"/>
         <v>1</v>
       </c>
       <c r="F342" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>4</v>
       </c>
       <c r="G342" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="68"/>
         <v>11</v>
       </c>
       <c r="H342" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="69"/>
         <v>25</v>
       </c>
       <c r="I342" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="70"/>
         <v>55</v>
       </c>
       <c r="J342" s="3">
-        <f t="shared" si="64"/>
+        <f t="shared" si="71"/>
         <v>115</v>
       </c>
       <c r="K342" s="3">
-        <f t="shared" si="65"/>
+        <f t="shared" si="72"/>
         <v>295</v>
       </c>
       <c r="L342" s="2" t="s">
@@ -14670,31 +14743,31 @@
     </row>
     <row r="343" spans="3:12" x14ac:dyDescent="0.25">
       <c r="E343" s="3">
-        <f t="shared" si="59"/>
+        <f t="shared" si="66"/>
         <v>1</v>
       </c>
       <c r="F343" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>4</v>
       </c>
       <c r="G343" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="68"/>
         <v>11</v>
       </c>
       <c r="H343" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="69"/>
         <v>25</v>
       </c>
       <c r="I343" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="70"/>
         <v>55</v>
       </c>
       <c r="J343" s="3">
-        <f t="shared" si="64"/>
+        <f t="shared" si="71"/>
         <v>115</v>
       </c>
       <c r="K343" s="3">
-        <f t="shared" si="65"/>
+        <f t="shared" si="72"/>
         <v>295</v>
       </c>
       <c r="L343" s="2" t="s">
@@ -14703,31 +14776,31 @@
     </row>
     <row r="344" spans="3:12" x14ac:dyDescent="0.25">
       <c r="E344" s="3">
-        <f t="shared" si="59"/>
+        <f t="shared" si="66"/>
         <v>1</v>
       </c>
       <c r="F344" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>4</v>
       </c>
       <c r="G344" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="68"/>
         <v>11</v>
       </c>
       <c r="H344" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="69"/>
         <v>25</v>
       </c>
       <c r="I344" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="70"/>
         <v>55</v>
       </c>
       <c r="J344" s="3">
-        <f t="shared" si="64"/>
+        <f t="shared" si="71"/>
         <v>115</v>
       </c>
       <c r="K344" s="3">
-        <f t="shared" si="65"/>
+        <f t="shared" si="72"/>
         <v>295</v>
       </c>
       <c r="L344" s="2" t="s">
@@ -14736,31 +14809,31 @@
     </row>
     <row r="345" spans="3:12" x14ac:dyDescent="0.25">
       <c r="E345" s="3">
-        <f t="shared" si="59"/>
+        <f t="shared" si="66"/>
         <v>1</v>
       </c>
       <c r="F345" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>4</v>
       </c>
       <c r="G345" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="68"/>
         <v>11</v>
       </c>
       <c r="H345" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="69"/>
         <v>25</v>
       </c>
       <c r="I345" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="70"/>
         <v>55</v>
       </c>
       <c r="J345" s="3">
-        <f t="shared" si="64"/>
+        <f t="shared" si="71"/>
         <v>115</v>
       </c>
       <c r="K345" s="3">
-        <f t="shared" si="65"/>
+        <f t="shared" si="72"/>
         <v>295</v>
       </c>
       <c r="L345" s="2" t="s">
@@ -14769,31 +14842,31 @@
     </row>
     <row r="346" spans="3:12" x14ac:dyDescent="0.25">
       <c r="E346" s="3">
-        <f t="shared" si="59"/>
+        <f t="shared" si="66"/>
         <v>1</v>
       </c>
       <c r="F346" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>4</v>
       </c>
       <c r="G346" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="68"/>
         <v>11</v>
       </c>
       <c r="H346" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="69"/>
         <v>25</v>
       </c>
       <c r="I346" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="70"/>
         <v>55</v>
       </c>
       <c r="J346" s="3">
-        <f t="shared" si="64"/>
+        <f t="shared" si="71"/>
         <v>115</v>
       </c>
       <c r="K346" s="3">
-        <f t="shared" si="65"/>
+        <f t="shared" si="72"/>
         <v>295</v>
       </c>
       <c r="L346" s="2" t="s">
@@ -14819,7 +14892,233 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A655F9C-3632-45BC-9047-C697D974CA4B}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B1" t="s">
+        <v>524</v>
+      </c>
+      <c r="C1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B2" t="s">
+        <v>525</v>
+      </c>
+      <c r="C2" s="1">
+        <v>44134</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9E4377A-DE25-4421-A0B6-38A4CF76972C}">
+  <dimension ref="A1:C22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B1" t="s">
+        <v>524</v>
+      </c>
+      <c r="C1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>750</v>
+      </c>
+      <c r="B2" t="s">
+        <v>751</v>
+      </c>
+      <c r="C2" s="5">
+        <v>44153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>752</v>
+      </c>
+      <c r="C3" s="5">
+        <v>44153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>753</v>
+      </c>
+      <c r="C4" s="5">
+        <v>44153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>754</v>
+      </c>
+      <c r="C5" s="5">
+        <v>44153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>755</v>
+      </c>
+      <c r="C6" s="5">
+        <v>44153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>756</v>
+      </c>
+      <c r="C7" s="5">
+        <v>44153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>760</v>
+      </c>
+      <c r="B8" t="s">
+        <v>757</v>
+      </c>
+      <c r="C8" s="5">
+        <v>44153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>758</v>
+      </c>
+      <c r="C9" s="5">
+        <v>44153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>759</v>
+      </c>
+      <c r="C10" s="5">
+        <v>44153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>761</v>
+      </c>
+      <c r="C11" s="5">
+        <v>44153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>762</v>
+      </c>
+      <c r="C12" s="5">
+        <v>44153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>763</v>
+      </c>
+      <c r="C13" s="5">
+        <v>44153</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>764</v>
+      </c>
+      <c r="C18" s="5">
+        <v>44153</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>769</v>
+      </c>
+      <c r="B19" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>771</v>
+      </c>
+      <c r="C20" s="5">
+        <v>44153</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>772</v>
+      </c>
+      <c r="C21" s="5">
+        <v>44153</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>773</v>
+      </c>
+      <c r="C22" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0545E0D-D3B3-4BE0-98F0-24229D8CDC62}">
   <dimension ref="A1:E155"/>
   <sheetViews>
@@ -16790,7 +17089,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDE1E6E2-B483-4111-B2A8-0FBF9C6644B2}">
   <dimension ref="A1:D146"/>
   <sheetViews>
@@ -17658,7 +17957,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{963D7DE2-4C5F-4EF4-A175-66E0345F9474}">
   <dimension ref="A1:D84"/>
   <sheetViews>
@@ -18206,7 +18505,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8E95F3B-6A4B-4BEA-AE6E-74AD1B8176B1}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -18242,7 +18541,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7D8B6DB-11A5-44DD-9C5E-DABE8D2A7875}">
   <dimension ref="A1:B26"/>
   <sheetViews>
@@ -18418,7 +18717,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7E9EA51-886D-476A-A9D7-815503BCE85E}">
   <dimension ref="A1:B1048576"/>
   <sheetViews>
@@ -18552,7 +18851,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B102E085-AFB6-4AFF-9C82-74008326EE2A}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -18642,46 +18941,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A655F9C-3632-45BC-9047-C697D974CA4B}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B1" t="s">
-        <v>524</v>
-      </c>
-      <c r="C1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>357</v>
-      </c>
-      <c r="B2" t="s">
-        <v>525</v>
-      </c>
-      <c r="C2" s="1">
-        <v>44134</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -18689,15 +18948,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006522413CC6A60D498B37CD3854731189" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d69901270e2274f32db97cbc48ae1c90">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3cb962350dbf3e80c84db518e6224f7c">
     <xsd:element name="properties">
@@ -18811,6 +19061,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9E496BF-0A8B-43E4-AB12-4B2BAD91A9E6}">
   <ds:schemaRefs>
@@ -18821,14 +19080,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52E299C4-492D-4E68-A807-C7DF706F8165}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8D81427-E7A1-4C0E-AF7A-68D6458FB4E3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18842,4 +19093,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52E299C4-492D-4E68-A807-C7DF706F8165}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/My_Road.xlsx
+++ b/My_Road.xlsx
@@ -8,24 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phill\wsl_share_folder\python_jupyter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47591400-2B1D-4F6E-8CB3-8AA2B3A7DA68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A3329C7-5252-455F-AF60-7D58E84FB897}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4110" yWindow="2325" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{2E3D5B4E-200F-40C0-9AC0-5A6D59069395}"/>
+    <workbookView xWindow="5700" yWindow="330" windowWidth="21600" windowHeight="11385" firstSheet="2" activeTab="2" xr2:uid="{2E3D5B4E-200F-40C0-9AC0-5A6D59069395}"/>
   </bookViews>
   <sheets>
     <sheet name="space_repetition" sheetId="2" r:id="rId1"/>
     <sheet name="Java" sheetId="12" r:id="rId2"/>
-    <sheet name="Resource" sheetId="1" r:id="rId3"/>
-    <sheet name="Pytyhon Data Structure" sheetId="3" r:id="rId4"/>
-    <sheet name="Master Code" sheetId="6" r:id="rId5"/>
-    <sheet name="Tools" sheetId="7" r:id="rId6"/>
-    <sheet name="SysExpert" sheetId="8" r:id="rId7"/>
-    <sheet name="AlgoExpert" sheetId="9" r:id="rId8"/>
+    <sheet name="AlgoExpert" sheetId="13" r:id="rId3"/>
+    <sheet name="Resource" sheetId="1" r:id="rId4"/>
+    <sheet name="Pytyhon Data Structure" sheetId="3" r:id="rId5"/>
+    <sheet name="Master Code" sheetId="6" r:id="rId6"/>
+    <sheet name="Tools" sheetId="7" r:id="rId7"/>
+    <sheet name="SysExpert" sheetId="8" r:id="rId8"/>
     <sheet name="JS" sheetId="10" r:id="rId9"/>
     <sheet name="Design" sheetId="11" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Resource!$A$1:$E$155</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Resource!$A$1:$E$155</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">space_repetition!$A$1:$N$1</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1537" uniqueCount="774">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1660" uniqueCount="835">
   <si>
     <t>Topic</t>
   </si>
@@ -2369,6 +2369,189 @@
   </si>
   <si>
     <t>21. Hello world challenge and common erros</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Two Number Sum</t>
+  </si>
+  <si>
+    <t>Arrays</t>
+  </si>
+  <si>
+    <t>Easy</t>
+  </si>
+  <si>
+    <t>Validate Subsequence</t>
+  </si>
+  <si>
+    <t>Three Number Sum</t>
+  </si>
+  <si>
+    <t>Smallest Difference</t>
+  </si>
+  <si>
+    <t>Move Element To End</t>
+  </si>
+  <si>
+    <t>Monotonic Array</t>
+  </si>
+  <si>
+    <t>Spiral Traverse</t>
+  </si>
+  <si>
+    <t>Max Subset Sum No Adjacent</t>
+  </si>
+  <si>
+    <t>Dynamic Programming</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Depth-first search</t>
+  </si>
+  <si>
+    <t>Graphs</t>
+  </si>
+  <si>
+    <t>Binary Search</t>
+  </si>
+  <si>
+    <t>Searching</t>
+  </si>
+  <si>
+    <t>需要看视频</t>
+  </si>
+  <si>
+    <t>Bubble Sort</t>
+  </si>
+  <si>
+    <t>Sorting</t>
+  </si>
+  <si>
+    <t>Insertion Sort</t>
+  </si>
+  <si>
+    <t>Selection Sort</t>
+  </si>
+  <si>
+    <t>Palindrome Check</t>
+  </si>
+  <si>
+    <t>Strings</t>
+  </si>
+  <si>
+    <t>Caesar Cipher Encryptor</t>
+  </si>
+  <si>
+    <t>need to see video</t>
+  </si>
+  <si>
+    <t>Find Three Largest Numbers</t>
+  </si>
+  <si>
+    <t>未解出, 看视频</t>
+  </si>
+  <si>
+    <t>Run-Length Encoding</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Nth Fibonacci</t>
+  </si>
+  <si>
+    <t>Recursion</t>
+  </si>
+  <si>
+    <t>Product Sum</t>
+  </si>
+  <si>
+    <t>没解出, 看视频</t>
+  </si>
+  <si>
+    <t>Branch Sums</t>
+  </si>
+  <si>
+    <t>Binary Trees</t>
+  </si>
+  <si>
+    <t>Quick Sort</t>
+  </si>
+  <si>
+    <t>Hard</t>
+  </si>
+  <si>
+    <t>Three Number Sort</t>
+  </si>
+  <si>
+    <t>Node Depths</t>
+  </si>
+  <si>
+    <t>Find Closest Value in BST</t>
+  </si>
+  <si>
+    <t>Binary Search Trees</t>
+  </si>
+  <si>
+    <t>Longest Peak</t>
+  </si>
+  <si>
+    <t>Array of Products</t>
+  </si>
+  <si>
+    <t>Heap Sort</t>
+  </si>
+  <si>
+    <t>Difficult</t>
+  </si>
+  <si>
+    <t>Search In Sorted Matrix</t>
+  </si>
+  <si>
+    <t>BST Construction</t>
+  </si>
+  <si>
+    <t>需要看多次, 递归解法没有看</t>
+  </si>
+  <si>
+    <t>Linked List Construction</t>
+  </si>
+  <si>
+    <t>Linked List</t>
+  </si>
+  <si>
+    <t>Min Heap Construction</t>
+  </si>
+  <si>
+    <t>Heaps</t>
+  </si>
+  <si>
+    <t>Permutations</t>
+  </si>
+  <si>
+    <t>第二种算法没有看懂和实现</t>
+  </si>
+  <si>
+    <t>Powerset</t>
+  </si>
+  <si>
+    <t>看视频</t>
   </si>
 </sst>
 </file>
@@ -14936,7 +15119,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9E4377A-DE25-4421-A0B6-38A4CF76972C}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -15119,6 +15302,767 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00757855-8043-45A9-AE1A-A265B01FCF6C}">
+  <dimension ref="A1:F50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>774</v>
+      </c>
+      <c r="B1" t="s">
+        <v>775</v>
+      </c>
+      <c r="C1" t="s">
+        <v>776</v>
+      </c>
+      <c r="D1" t="s">
+        <v>777</v>
+      </c>
+      <c r="E1" t="s">
+        <v>778</v>
+      </c>
+      <c r="F1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>357</v>
+      </c>
+      <c r="F2" s="1">
+        <v>44123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>467</v>
+      </c>
+      <c r="F3" s="1">
+        <v>44123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>468</v>
+      </c>
+      <c r="F4" s="1">
+        <v>44134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>469</v>
+      </c>
+      <c r="F5" s="1">
+        <v>44134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>470</v>
+      </c>
+      <c r="F6" s="1">
+        <v>44135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>471</v>
+      </c>
+      <c r="F7" s="1">
+        <v>44135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>472</v>
+      </c>
+      <c r="F8" s="1">
+        <v>44135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>473</v>
+      </c>
+      <c r="F9" s="1">
+        <v>44135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>474</v>
+      </c>
+      <c r="F10" s="1">
+        <v>44135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>475</v>
+      </c>
+      <c r="F11" s="1">
+        <v>44135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>476</v>
+      </c>
+      <c r="F12" s="1">
+        <v>44135</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>477</v>
+      </c>
+      <c r="F13" s="1">
+        <v>44135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>478</v>
+      </c>
+      <c r="F14" s="1">
+        <v>44135</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>779</v>
+      </c>
+      <c r="C18" t="s">
+        <v>780</v>
+      </c>
+      <c r="D18" t="s">
+        <v>781</v>
+      </c>
+      <c r="F18" s="1">
+        <v>44114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>782</v>
+      </c>
+      <c r="C19" t="s">
+        <v>780</v>
+      </c>
+      <c r="D19" t="s">
+        <v>781</v>
+      </c>
+      <c r="F19" s="1">
+        <v>44114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>783</v>
+      </c>
+      <c r="C20" t="s">
+        <v>780</v>
+      </c>
+      <c r="D20" t="s">
+        <v>781</v>
+      </c>
+      <c r="F20" s="1">
+        <v>44114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>784</v>
+      </c>
+      <c r="C21" t="s">
+        <v>780</v>
+      </c>
+      <c r="D21" t="s">
+        <v>781</v>
+      </c>
+      <c r="F21" s="1">
+        <v>44114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>785</v>
+      </c>
+      <c r="C22" t="s">
+        <v>780</v>
+      </c>
+      <c r="D22" t="s">
+        <v>781</v>
+      </c>
+      <c r="F22" s="1">
+        <v>44114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>6</v>
+      </c>
+      <c r="B23" t="s">
+        <v>786</v>
+      </c>
+      <c r="C23" t="s">
+        <v>780</v>
+      </c>
+      <c r="D23" t="s">
+        <v>781</v>
+      </c>
+      <c r="F23" s="1">
+        <v>44114</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>7</v>
+      </c>
+      <c r="B24" t="s">
+        <v>787</v>
+      </c>
+      <c r="C24" t="s">
+        <v>780</v>
+      </c>
+      <c r="D24" t="s">
+        <v>781</v>
+      </c>
+      <c r="F24" s="1">
+        <v>44114</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>8</v>
+      </c>
+      <c r="B25" t="s">
+        <v>788</v>
+      </c>
+      <c r="C25" t="s">
+        <v>789</v>
+      </c>
+      <c r="D25" t="s">
+        <v>790</v>
+      </c>
+      <c r="F25" s="1">
+        <v>44114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>9</v>
+      </c>
+      <c r="B26" t="s">
+        <v>791</v>
+      </c>
+      <c r="C26" t="s">
+        <v>792</v>
+      </c>
+      <c r="D26" t="s">
+        <v>781</v>
+      </c>
+      <c r="F26" s="1">
+        <v>44114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>10</v>
+      </c>
+      <c r="B27" t="s">
+        <v>793</v>
+      </c>
+      <c r="C27" t="s">
+        <v>794</v>
+      </c>
+      <c r="D27" t="s">
+        <v>781</v>
+      </c>
+      <c r="E27" t="s">
+        <v>795</v>
+      </c>
+      <c r="F27" s="1">
+        <v>44114</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>11</v>
+      </c>
+      <c r="B28" t="s">
+        <v>796</v>
+      </c>
+      <c r="C28" t="s">
+        <v>797</v>
+      </c>
+      <c r="D28" t="s">
+        <v>781</v>
+      </c>
+      <c r="E28" t="s">
+        <v>795</v>
+      </c>
+      <c r="F28" s="1">
+        <v>44114</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>12</v>
+      </c>
+      <c r="B29" t="s">
+        <v>798</v>
+      </c>
+      <c r="C29" t="s">
+        <v>797</v>
+      </c>
+      <c r="D29" t="s">
+        <v>781</v>
+      </c>
+      <c r="F29" s="1">
+        <v>44114</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>13</v>
+      </c>
+      <c r="B30" t="s">
+        <v>799</v>
+      </c>
+      <c r="C30" t="s">
+        <v>797</v>
+      </c>
+      <c r="D30" t="s">
+        <v>781</v>
+      </c>
+      <c r="F30" s="1">
+        <v>44114</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>14</v>
+      </c>
+      <c r="B31" t="s">
+        <v>800</v>
+      </c>
+      <c r="C31" t="s">
+        <v>801</v>
+      </c>
+      <c r="D31" t="s">
+        <v>781</v>
+      </c>
+      <c r="E31" t="s">
+        <v>795</v>
+      </c>
+      <c r="F31" s="1">
+        <v>44114</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>15</v>
+      </c>
+      <c r="B32" t="s">
+        <v>802</v>
+      </c>
+      <c r="C32" t="s">
+        <v>801</v>
+      </c>
+      <c r="D32" t="s">
+        <v>781</v>
+      </c>
+      <c r="E32" t="s">
+        <v>803</v>
+      </c>
+      <c r="F32" s="1">
+        <v>44151</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>16</v>
+      </c>
+      <c r="B33" t="s">
+        <v>804</v>
+      </c>
+      <c r="C33" t="s">
+        <v>794</v>
+      </c>
+      <c r="D33" t="s">
+        <v>781</v>
+      </c>
+      <c r="E33" t="s">
+        <v>805</v>
+      </c>
+      <c r="F33" s="1">
+        <v>44151</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>17</v>
+      </c>
+      <c r="B34" t="s">
+        <v>806</v>
+      </c>
+      <c r="C34" t="s">
+        <v>807</v>
+      </c>
+      <c r="D34" t="s">
+        <v>781</v>
+      </c>
+      <c r="E34" t="s">
+        <v>795</v>
+      </c>
+      <c r="F34" s="1">
+        <v>44151</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>18</v>
+      </c>
+      <c r="B35" t="s">
+        <v>808</v>
+      </c>
+      <c r="C35" t="s">
+        <v>809</v>
+      </c>
+      <c r="D35" t="s">
+        <v>781</v>
+      </c>
+      <c r="E35" t="s">
+        <v>795</v>
+      </c>
+      <c r="F35" s="1">
+        <v>44151</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>19</v>
+      </c>
+      <c r="B36" t="s">
+        <v>810</v>
+      </c>
+      <c r="C36" t="s">
+        <v>809</v>
+      </c>
+      <c r="D36" t="s">
+        <v>781</v>
+      </c>
+      <c r="E36" t="s">
+        <v>811</v>
+      </c>
+      <c r="F36" s="1">
+        <v>44151</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>20</v>
+      </c>
+      <c r="B37" t="s">
+        <v>812</v>
+      </c>
+      <c r="C37" t="s">
+        <v>813</v>
+      </c>
+      <c r="D37" t="s">
+        <v>781</v>
+      </c>
+      <c r="E37" t="s">
+        <v>811</v>
+      </c>
+      <c r="F37" s="1">
+        <v>44151</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>21</v>
+      </c>
+      <c r="B38" t="s">
+        <v>814</v>
+      </c>
+      <c r="C38" t="s">
+        <v>797</v>
+      </c>
+      <c r="D38" t="s">
+        <v>815</v>
+      </c>
+      <c r="E38" t="s">
+        <v>811</v>
+      </c>
+      <c r="F38" s="1">
+        <v>44152</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>22</v>
+      </c>
+      <c r="B39" t="s">
+        <v>816</v>
+      </c>
+      <c r="C39" t="s">
+        <v>797</v>
+      </c>
+      <c r="D39" t="s">
+        <v>790</v>
+      </c>
+      <c r="E39" t="s">
+        <v>795</v>
+      </c>
+      <c r="F39" s="1">
+        <v>44152</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>23</v>
+      </c>
+      <c r="B40" t="s">
+        <v>817</v>
+      </c>
+      <c r="C40" t="s">
+        <v>813</v>
+      </c>
+      <c r="D40" t="s">
+        <v>781</v>
+      </c>
+      <c r="E40" t="s">
+        <v>795</v>
+      </c>
+      <c r="F40" s="1">
+        <v>44152</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>24</v>
+      </c>
+      <c r="B41" t="s">
+        <v>818</v>
+      </c>
+      <c r="C41" t="s">
+        <v>819</v>
+      </c>
+      <c r="D41" t="s">
+        <v>781</v>
+      </c>
+      <c r="E41" t="s">
+        <v>811</v>
+      </c>
+      <c r="F41" s="1">
+        <v>44154</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>25</v>
+      </c>
+      <c r="B42" t="s">
+        <v>820</v>
+      </c>
+      <c r="C42" t="s">
+        <v>780</v>
+      </c>
+      <c r="D42" t="s">
+        <v>790</v>
+      </c>
+      <c r="E42" t="s">
+        <v>811</v>
+      </c>
+      <c r="F42" s="1">
+        <v>44154</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>26</v>
+      </c>
+      <c r="B43" t="s">
+        <v>821</v>
+      </c>
+      <c r="C43" t="s">
+        <v>780</v>
+      </c>
+      <c r="D43" t="s">
+        <v>790</v>
+      </c>
+      <c r="E43" t="s">
+        <v>795</v>
+      </c>
+      <c r="F43" s="1">
+        <v>44154</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>27</v>
+      </c>
+      <c r="B44" t="s">
+        <v>822</v>
+      </c>
+      <c r="C44" t="s">
+        <v>797</v>
+      </c>
+      <c r="D44" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>28</v>
+      </c>
+      <c r="B45" t="s">
+        <v>824</v>
+      </c>
+      <c r="C45" t="s">
+        <v>794</v>
+      </c>
+      <c r="D45" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>29</v>
+      </c>
+      <c r="B46" t="s">
+        <v>825</v>
+      </c>
+      <c r="C46" t="s">
+        <v>819</v>
+      </c>
+      <c r="D46" t="s">
+        <v>790</v>
+      </c>
+      <c r="E46" t="s">
+        <v>826</v>
+      </c>
+      <c r="F46" s="1">
+        <v>44154</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>30</v>
+      </c>
+      <c r="B47" t="s">
+        <v>827</v>
+      </c>
+      <c r="C47" t="s">
+        <v>828</v>
+      </c>
+      <c r="D47" t="s">
+        <v>790</v>
+      </c>
+      <c r="E47" t="s">
+        <v>834</v>
+      </c>
+      <c r="F47" s="1">
+        <v>44157</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>31</v>
+      </c>
+      <c r="B48" t="s">
+        <v>829</v>
+      </c>
+      <c r="C48" t="s">
+        <v>830</v>
+      </c>
+      <c r="D48" t="s">
+        <v>790</v>
+      </c>
+      <c r="E48" t="s">
+        <v>811</v>
+      </c>
+      <c r="F48" s="1">
+        <v>44154</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>32</v>
+      </c>
+      <c r="B49" t="s">
+        <v>831</v>
+      </c>
+      <c r="C49" t="s">
+        <v>809</v>
+      </c>
+      <c r="D49" t="s">
+        <v>790</v>
+      </c>
+      <c r="E49" t="s">
+        <v>832</v>
+      </c>
+      <c r="F49" s="1">
+        <v>44157</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>33</v>
+      </c>
+      <c r="B50" t="s">
+        <v>833</v>
+      </c>
+      <c r="C50" t="s">
+        <v>809</v>
+      </c>
+      <c r="D50" t="s">
+        <v>790</v>
+      </c>
+      <c r="E50" t="s">
+        <v>811</v>
+      </c>
+      <c r="F50" s="1">
+        <v>44154</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0545E0D-D3B3-4BE0-98F0-24229D8CDC62}">
   <dimension ref="A1:E155"/>
   <sheetViews>
@@ -17089,7 +18033,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDE1E6E2-B483-4111-B2A8-0FBF9C6644B2}">
   <dimension ref="A1:D146"/>
   <sheetViews>
@@ -17957,7 +18901,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{963D7DE2-4C5F-4EF4-A175-66E0345F9474}">
   <dimension ref="A1:D84"/>
   <sheetViews>
@@ -18505,7 +19449,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8E95F3B-6A4B-4BEA-AE6E-74AD1B8176B1}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -18541,7 +19485,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7D8B6DB-11A5-44DD-9C5E-DABE8D2A7875}">
   <dimension ref="A1:B26"/>
   <sheetViews>
@@ -18711,140 +19655,6 @@
       <c r="A26" t="s">
         <v>458</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7E9EA51-886D-476A-A9D7-815503BCE85E}">
-  <dimension ref="A1:B1048576"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.28515625" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>466</v>
-      </c>
-      <c r="B1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>357</v>
-      </c>
-      <c r="B2" s="1">
-        <v>44123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>467</v>
-      </c>
-      <c r="B3" s="1">
-        <v>44123</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>468</v>
-      </c>
-      <c r="B4" s="1">
-        <v>44134</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>469</v>
-      </c>
-      <c r="B5" s="1">
-        <v>44134</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>470</v>
-      </c>
-      <c r="B6" s="1">
-        <v>44135</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>471</v>
-      </c>
-      <c r="B7" s="1">
-        <v>44135</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>472</v>
-      </c>
-      <c r="B8" s="1">
-        <v>44135</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>473</v>
-      </c>
-      <c r="B9" s="1">
-        <v>44135</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>474</v>
-      </c>
-      <c r="B10" s="1">
-        <v>44135</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>475</v>
-      </c>
-      <c r="B11" s="1">
-        <v>44135</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>476</v>
-      </c>
-      <c r="B12" s="1">
-        <v>44135</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>477</v>
-      </c>
-      <c r="B13" s="1">
-        <v>44135</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>478</v>
-      </c>
-      <c r="B14" s="1">
-        <v>44135</v>
-      </c>
-    </row>
-    <row r="1048576" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1048576" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18942,9 +19752,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -19062,19 +19875,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9E496BF-0A8B-43E4-AB12-4B2BAD91A9E6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52E299C4-492D-4E68-A807-C7DF706F8165}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -19096,9 +19905,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52E299C4-492D-4E68-A807-C7DF706F8165}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9E496BF-0A8B-43E4-AB12-4B2BAD91A9E6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/My_Road.xlsx
+++ b/My_Road.xlsx
@@ -8,24 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phill\wsl_share_folder\python_jupyter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A3329C7-5252-455F-AF60-7D58E84FB897}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FA79E13-A890-49C6-BF31-C4A496D5C0DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5700" yWindow="330" windowWidth="21600" windowHeight="11385" firstSheet="2" activeTab="2" xr2:uid="{2E3D5B4E-200F-40C0-9AC0-5A6D59069395}"/>
+    <workbookView xWindow="5700" yWindow="330" windowWidth="21600" windowHeight="11385" firstSheet="2" activeTab="3" xr2:uid="{2E3D5B4E-200F-40C0-9AC0-5A6D59069395}"/>
   </bookViews>
   <sheets>
     <sheet name="space_repetition" sheetId="2" r:id="rId1"/>
     <sheet name="Java" sheetId="12" r:id="rId2"/>
     <sheet name="AlgoExpert" sheetId="13" r:id="rId3"/>
-    <sheet name="Resource" sheetId="1" r:id="rId4"/>
-    <sheet name="Pytyhon Data Structure" sheetId="3" r:id="rId5"/>
-    <sheet name="Master Code" sheetId="6" r:id="rId6"/>
-    <sheet name="Tools" sheetId="7" r:id="rId7"/>
-    <sheet name="SysExpert" sheetId="8" r:id="rId8"/>
-    <sheet name="JS" sheetId="10" r:id="rId9"/>
-    <sheet name="Design" sheetId="11" r:id="rId10"/>
+    <sheet name="DataStructureJava" sheetId="14" r:id="rId4"/>
+    <sheet name="Resource" sheetId="1" r:id="rId5"/>
+    <sheet name="Pytyhon Data Structure" sheetId="3" r:id="rId6"/>
+    <sheet name="Master Code" sheetId="6" r:id="rId7"/>
+    <sheet name="Tools" sheetId="7" r:id="rId8"/>
+    <sheet name="SysExpert" sheetId="8" r:id="rId9"/>
+    <sheet name="JS" sheetId="10" r:id="rId10"/>
+    <sheet name="Design" sheetId="11" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Resource!$A$1:$E$155</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Resource!$A$1:$E$155</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">space_repetition!$A$1:$N$1</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1660" uniqueCount="835">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1681" uniqueCount="839">
   <si>
     <t>Topic</t>
   </si>
@@ -2552,6 +2553,18 @@
   </si>
   <si>
     <t>看视频</t>
+  </si>
+  <si>
+    <t>Concept Course</t>
+  </si>
+  <si>
+    <t>Merge Sort</t>
+  </si>
+  <si>
+    <t>9. Trees</t>
+  </si>
+  <si>
+    <t>88. Introduction to Trees</t>
   </si>
 </sst>
 </file>
@@ -15076,6 +15089,96 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B102E085-AFB6-4AFF-9C82-74008326EE2A}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.5703125" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B1" t="s">
+        <v>517</v>
+      </c>
+      <c r="C1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>502</v>
+      </c>
+      <c r="B2" t="s">
+        <v>510</v>
+      </c>
+      <c r="C2" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>511</v>
+      </c>
+      <c r="B3" t="s">
+        <v>512</v>
+      </c>
+      <c r="C3" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>518</v>
+      </c>
+      <c r="B4" t="s">
+        <v>515</v>
+      </c>
+      <c r="C4" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>519</v>
+      </c>
+      <c r="B5" t="s">
+        <v>520</v>
+      </c>
+      <c r="C5" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>522</v>
+      </c>
+      <c r="B7" t="s">
+        <v>510</v>
+      </c>
+      <c r="C7" t="s">
+        <v>523</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A655F9C-3632-45BC-9047-C697D974CA4B}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -15303,9 +15406,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00757855-8043-45A9-AE1A-A265B01FCF6C}">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
@@ -15342,6 +15445,9 @@
       <c r="B2" t="s">
         <v>357</v>
       </c>
+      <c r="C2" t="s">
+        <v>835</v>
+      </c>
       <c r="F2" s="1">
         <v>44123</v>
       </c>
@@ -15350,6 +15456,9 @@
       <c r="B3" t="s">
         <v>467</v>
       </c>
+      <c r="C3" t="s">
+        <v>835</v>
+      </c>
       <c r="F3" s="1">
         <v>44123</v>
       </c>
@@ -15358,6 +15467,9 @@
       <c r="B4" t="s">
         <v>468</v>
       </c>
+      <c r="C4" t="s">
+        <v>835</v>
+      </c>
       <c r="F4" s="1">
         <v>44134</v>
       </c>
@@ -15366,6 +15478,9 @@
       <c r="B5" t="s">
         <v>469</v>
       </c>
+      <c r="C5" t="s">
+        <v>835</v>
+      </c>
       <c r="F5" s="1">
         <v>44134</v>
       </c>
@@ -15374,6 +15489,9 @@
       <c r="B6" t="s">
         <v>470</v>
       </c>
+      <c r="C6" t="s">
+        <v>835</v>
+      </c>
       <c r="F6" s="1">
         <v>44135</v>
       </c>
@@ -15382,6 +15500,9 @@
       <c r="B7" t="s">
         <v>471</v>
       </c>
+      <c r="C7" t="s">
+        <v>835</v>
+      </c>
       <c r="F7" s="1">
         <v>44135</v>
       </c>
@@ -15390,6 +15511,9 @@
       <c r="B8" t="s">
         <v>472</v>
       </c>
+      <c r="C8" t="s">
+        <v>835</v>
+      </c>
       <c r="F8" s="1">
         <v>44135</v>
       </c>
@@ -15398,6 +15522,9 @@
       <c r="B9" t="s">
         <v>473</v>
       </c>
+      <c r="C9" t="s">
+        <v>835</v>
+      </c>
       <c r="F9" s="1">
         <v>44135</v>
       </c>
@@ -15406,6 +15533,9 @@
       <c r="B10" t="s">
         <v>474</v>
       </c>
+      <c r="C10" t="s">
+        <v>835</v>
+      </c>
       <c r="F10" s="1">
         <v>44135</v>
       </c>
@@ -15414,6 +15544,9 @@
       <c r="B11" t="s">
         <v>475</v>
       </c>
+      <c r="C11" t="s">
+        <v>835</v>
+      </c>
       <c r="F11" s="1">
         <v>44135</v>
       </c>
@@ -15422,6 +15555,9 @@
       <c r="B12" t="s">
         <v>476</v>
       </c>
+      <c r="C12" t="s">
+        <v>835</v>
+      </c>
       <c r="F12" s="1">
         <v>44135</v>
       </c>
@@ -15430,6 +15566,9 @@
       <c r="B13" t="s">
         <v>477</v>
       </c>
+      <c r="C13" t="s">
+        <v>835</v>
+      </c>
       <c r="F13" s="1">
         <v>44135</v>
       </c>
@@ -15438,16 +15577,70 @@
       <c r="B14" t="s">
         <v>478</v>
       </c>
+      <c r="C14" t="s">
+        <v>835</v>
+      </c>
       <c r="F14" s="1">
         <v>44135</v>
       </c>
     </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>779</v>
+      </c>
+      <c r="C15" t="s">
+        <v>780</v>
+      </c>
+      <c r="D15" t="s">
+        <v>781</v>
+      </c>
+      <c r="F15" s="1">
+        <v>44114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>782</v>
+      </c>
+      <c r="C16" t="s">
+        <v>780</v>
+      </c>
+      <c r="D16" t="s">
+        <v>781</v>
+      </c>
+      <c r="F16" s="1">
+        <v>44114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>783</v>
+      </c>
+      <c r="C17" t="s">
+        <v>780</v>
+      </c>
+      <c r="D17" t="s">
+        <v>781</v>
+      </c>
+      <c r="F17" s="1">
+        <v>44114</v>
+      </c>
+    </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>779</v>
+        <v>784</v>
       </c>
       <c r="C18" t="s">
         <v>780</v>
@@ -15461,10 +15654,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="C19" t="s">
         <v>780</v>
@@ -15478,10 +15671,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="C20" t="s">
         <v>780</v>
@@ -15495,10 +15688,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="C21" t="s">
         <v>780</v>
@@ -15512,16 +15705,16 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="C22" t="s">
-        <v>780</v>
+        <v>789</v>
       </c>
       <c r="D22" t="s">
-        <v>781</v>
+        <v>790</v>
       </c>
       <c r="F22" s="1">
         <v>44114</v>
@@ -15529,13 +15722,13 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>786</v>
+        <v>791</v>
       </c>
       <c r="C23" t="s">
-        <v>780</v>
+        <v>792</v>
       </c>
       <c r="D23" t="s">
         <v>781</v>
@@ -15546,33 +15739,39 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>787</v>
+        <v>793</v>
       </c>
       <c r="C24" t="s">
-        <v>780</v>
+        <v>794</v>
       </c>
       <c r="D24" t="s">
         <v>781</v>
       </c>
+      <c r="E24" t="s">
+        <v>795</v>
+      </c>
       <c r="F24" s="1">
         <v>44114</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>788</v>
+        <v>796</v>
       </c>
       <c r="C25" t="s">
-        <v>789</v>
+        <v>797</v>
       </c>
       <c r="D25" t="s">
-        <v>790</v>
+        <v>781</v>
+      </c>
+      <c r="E25" t="s">
+        <v>795</v>
       </c>
       <c r="F25" s="1">
         <v>44114</v>
@@ -15580,13 +15779,13 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>791</v>
+        <v>798</v>
       </c>
       <c r="C26" t="s">
-        <v>792</v>
+        <v>797</v>
       </c>
       <c r="D26" t="s">
         <v>781</v>
@@ -15597,33 +15796,30 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B27" t="s">
-        <v>793</v>
+        <v>799</v>
       </c>
       <c r="C27" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="D27" t="s">
         <v>781</v>
       </c>
-      <c r="E27" t="s">
-        <v>795</v>
-      </c>
       <c r="F27" s="1">
         <v>44114</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B28" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
       <c r="C28" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="D28" t="s">
         <v>781</v>
@@ -15637,47 +15833,53 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B29" t="s">
-        <v>798</v>
+        <v>802</v>
       </c>
       <c r="C29" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="D29" t="s">
         <v>781</v>
       </c>
+      <c r="E29" t="s">
+        <v>803</v>
+      </c>
       <c r="F29" s="1">
-        <v>44114</v>
+        <v>44151</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
       <c r="C30" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="D30" t="s">
         <v>781</v>
       </c>
+      <c r="E30" t="s">
+        <v>805</v>
+      </c>
       <c r="F30" s="1">
-        <v>44114</v>
+        <v>44151</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B31" t="s">
-        <v>800</v>
+        <v>806</v>
       </c>
       <c r="C31" t="s">
-        <v>801</v>
+        <v>807</v>
       </c>
       <c r="D31" t="s">
         <v>781</v>
@@ -15686,24 +15888,24 @@
         <v>795</v>
       </c>
       <c r="F31" s="1">
-        <v>44114</v>
+        <v>44151</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B32" t="s">
-        <v>802</v>
+        <v>808</v>
       </c>
       <c r="C32" t="s">
-        <v>801</v>
+        <v>809</v>
       </c>
       <c r="D32" t="s">
         <v>781</v>
       </c>
       <c r="E32" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
       <c r="F32" s="1">
         <v>44151</v>
@@ -15711,19 +15913,19 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B33" t="s">
-        <v>804</v>
+        <v>810</v>
       </c>
       <c r="C33" t="s">
-        <v>794</v>
+        <v>809</v>
       </c>
       <c r="D33" t="s">
         <v>781</v>
       </c>
       <c r="E33" t="s">
-        <v>805</v>
+        <v>811</v>
       </c>
       <c r="F33" s="1">
         <v>44151</v>
@@ -15731,19 +15933,19 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B34" t="s">
-        <v>806</v>
+        <v>812</v>
       </c>
       <c r="C34" t="s">
-        <v>807</v>
+        <v>813</v>
       </c>
       <c r="D34" t="s">
         <v>781</v>
       </c>
       <c r="E34" t="s">
-        <v>795</v>
+        <v>811</v>
       </c>
       <c r="F34" s="1">
         <v>44151</v>
@@ -15751,50 +15953,50 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B35" t="s">
-        <v>808</v>
+        <v>814</v>
       </c>
       <c r="C35" t="s">
-        <v>809</v>
+        <v>797</v>
       </c>
       <c r="D35" t="s">
-        <v>781</v>
+        <v>815</v>
       </c>
       <c r="E35" t="s">
-        <v>795</v>
+        <v>811</v>
       </c>
       <c r="F35" s="1">
-        <v>44151</v>
+        <v>44152</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B36" t="s">
-        <v>810</v>
+        <v>816</v>
       </c>
       <c r="C36" t="s">
-        <v>809</v>
+        <v>797</v>
       </c>
       <c r="D36" t="s">
-        <v>781</v>
+        <v>790</v>
       </c>
       <c r="E36" t="s">
-        <v>811</v>
+        <v>795</v>
       </c>
       <c r="F36" s="1">
-        <v>44151</v>
+        <v>44152</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B37" t="s">
-        <v>812</v>
+        <v>817</v>
       </c>
       <c r="C37" t="s">
         <v>813</v>
@@ -15803,127 +16005,115 @@
         <v>781</v>
       </c>
       <c r="E37" t="s">
-        <v>811</v>
+        <v>795</v>
       </c>
       <c r="F37" s="1">
-        <v>44151</v>
+        <v>44152</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B38" t="s">
-        <v>814</v>
+        <v>818</v>
       </c>
       <c r="C38" t="s">
-        <v>797</v>
+        <v>819</v>
       </c>
       <c r="D38" t="s">
-        <v>815</v>
+        <v>781</v>
       </c>
       <c r="E38" t="s">
         <v>811</v>
       </c>
       <c r="F38" s="1">
-        <v>44152</v>
+        <v>44154</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B39" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="C39" t="s">
-        <v>797</v>
+        <v>780</v>
       </c>
       <c r="D39" t="s">
         <v>790</v>
       </c>
       <c r="E39" t="s">
-        <v>795</v>
+        <v>811</v>
       </c>
       <c r="F39" s="1">
-        <v>44152</v>
+        <v>44154</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B40" t="s">
-        <v>817</v>
+        <v>821</v>
       </c>
       <c r="C40" t="s">
-        <v>813</v>
+        <v>780</v>
       </c>
       <c r="D40" t="s">
-        <v>781</v>
+        <v>790</v>
       </c>
       <c r="E40" t="s">
         <v>795</v>
       </c>
       <c r="F40" s="1">
-        <v>44152</v>
+        <v>44154</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B41" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
       <c r="C41" t="s">
-        <v>819</v>
+        <v>797</v>
       </c>
       <c r="D41" t="s">
-        <v>781</v>
-      </c>
-      <c r="E41" t="s">
-        <v>811</v>
-      </c>
-      <c r="F41" s="1">
-        <v>44154</v>
+        <v>823</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B42" t="s">
-        <v>820</v>
+        <v>824</v>
       </c>
       <c r="C42" t="s">
-        <v>780</v>
+        <v>794</v>
       </c>
       <c r="D42" t="s">
         <v>790</v>
       </c>
-      <c r="E42" t="s">
-        <v>811</v>
-      </c>
-      <c r="F42" s="1">
-        <v>44154</v>
-      </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B43" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
       <c r="C43" t="s">
-        <v>780</v>
+        <v>819</v>
       </c>
       <c r="D43" t="s">
         <v>790</v>
       </c>
       <c r="E43" t="s">
-        <v>795</v>
+        <v>826</v>
       </c>
       <c r="F43" s="1">
         <v>44154</v>
@@ -15931,130 +16121,96 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B44" t="s">
-        <v>822</v>
+        <v>827</v>
       </c>
       <c r="C44" t="s">
-        <v>797</v>
+        <v>828</v>
       </c>
       <c r="D44" t="s">
-        <v>823</v>
+        <v>790</v>
+      </c>
+      <c r="E44" t="s">
+        <v>834</v>
+      </c>
+      <c r="F44" s="1">
+        <v>44157</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B45" t="s">
-        <v>824</v>
+        <v>829</v>
       </c>
       <c r="C45" t="s">
-        <v>794</v>
+        <v>830</v>
       </c>
       <c r="D45" t="s">
         <v>790</v>
       </c>
+      <c r="E45" t="s">
+        <v>811</v>
+      </c>
+      <c r="F45" s="1">
+        <v>44154</v>
+      </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B46" t="s">
-        <v>825</v>
+        <v>831</v>
       </c>
       <c r="C46" t="s">
-        <v>819</v>
+        <v>809</v>
       </c>
       <c r="D46" t="s">
         <v>790</v>
       </c>
       <c r="E46" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="F46" s="1">
-        <v>44154</v>
+        <v>44157</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B47" t="s">
-        <v>827</v>
+        <v>833</v>
       </c>
       <c r="C47" t="s">
-        <v>828</v>
+        <v>809</v>
       </c>
       <c r="D47" t="s">
         <v>790</v>
       </c>
       <c r="E47" t="s">
-        <v>834</v>
+        <v>811</v>
       </c>
       <c r="F47" s="1">
-        <v>44157</v>
+        <v>44154</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B48" t="s">
-        <v>829</v>
+        <v>836</v>
       </c>
       <c r="C48" t="s">
-        <v>830</v>
+        <v>797</v>
       </c>
       <c r="D48" t="s">
         <v>790</v>
-      </c>
-      <c r="E48" t="s">
-        <v>811</v>
-      </c>
-      <c r="F48" s="1">
-        <v>44154</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>32</v>
-      </c>
-      <c r="B49" t="s">
-        <v>831</v>
-      </c>
-      <c r="C49" t="s">
-        <v>809</v>
-      </c>
-      <c r="D49" t="s">
-        <v>790</v>
-      </c>
-      <c r="E49" t="s">
-        <v>832</v>
-      </c>
-      <c r="F49" s="1">
-        <v>44157</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>33</v>
-      </c>
-      <c r="B50" t="s">
-        <v>833</v>
-      </c>
-      <c r="C50" t="s">
-        <v>809</v>
-      </c>
-      <c r="D50" t="s">
-        <v>790</v>
-      </c>
-      <c r="E50" t="s">
-        <v>811</v>
-      </c>
-      <c r="F50" s="1">
-        <v>44154</v>
       </c>
     </row>
   </sheetData>
@@ -16063,6 +16219,40 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2DB45DF-E076-45AE-BB70-C5D380909CF8}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B1" t="s">
+        <v>524</v>
+      </c>
+      <c r="C1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>837</v>
+      </c>
+      <c r="B6" t="s">
+        <v>838</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0545E0D-D3B3-4BE0-98F0-24229D8CDC62}">
   <dimension ref="A1:E155"/>
   <sheetViews>
@@ -18033,7 +18223,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDE1E6E2-B483-4111-B2A8-0FBF9C6644B2}">
   <dimension ref="A1:D146"/>
   <sheetViews>
@@ -18901,7 +19091,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{963D7DE2-4C5F-4EF4-A175-66E0345F9474}">
   <dimension ref="A1:D84"/>
   <sheetViews>
@@ -19449,7 +19639,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8E95F3B-6A4B-4BEA-AE6E-74AD1B8176B1}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -19485,7 +19675,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7D8B6DB-11A5-44DD-9C5E-DABE8D2A7875}">
   <dimension ref="A1:B26"/>
   <sheetViews>
@@ -19654,96 +19844,6 @@
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>458</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B102E085-AFB6-4AFF-9C82-74008326EE2A}">
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="28.5703125" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B1" t="s">
-        <v>517</v>
-      </c>
-      <c r="C1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>502</v>
-      </c>
-      <c r="B2" t="s">
-        <v>510</v>
-      </c>
-      <c r="C2" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>511</v>
-      </c>
-      <c r="B3" t="s">
-        <v>512</v>
-      </c>
-      <c r="C3" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>518</v>
-      </c>
-      <c r="B4" t="s">
-        <v>515</v>
-      </c>
-      <c r="C4" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>519</v>
-      </c>
-      <c r="B5" t="s">
-        <v>520</v>
-      </c>
-      <c r="C5" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>522</v>
-      </c>
-      <c r="B7" t="s">
-        <v>510</v>
-      </c>
-      <c r="C7" t="s">
-        <v>523</v>
       </c>
     </row>
   </sheetData>

--- a/My_Road.xlsx
+++ b/My_Road.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phill\wsl_share_folder\python_jupyter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FA79E13-A890-49C6-BF31-C4A496D5C0DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B13CDA-5CF3-458E-8442-5A46C893B007}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5700" yWindow="330" windowWidth="21600" windowHeight="11385" firstSheet="2" activeTab="3" xr2:uid="{2E3D5B4E-200F-40C0-9AC0-5A6D59069395}"/>
+    <workbookView xWindow="4095" yWindow="1755" windowWidth="12315" windowHeight="11385" firstSheet="2" activeTab="2" xr2:uid="{2E3D5B4E-200F-40C0-9AC0-5A6D59069395}"/>
   </bookViews>
   <sheets>
     <sheet name="space_repetition" sheetId="2" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1681" uniqueCount="839">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1693" uniqueCount="843">
   <si>
     <t>Topic</t>
   </si>
@@ -2565,6 +2565,18 @@
   </si>
   <si>
     <t>88. Introduction to Trees</t>
+  </si>
+  <si>
+    <t>需要结合max heap, min heap一起复习</t>
+  </si>
+  <si>
+    <t>Validate BST</t>
+  </si>
+  <si>
+    <t>BST Travesal</t>
+  </si>
+  <si>
+    <t>Min Height BST</t>
   </si>
 </sst>
 </file>
@@ -15406,10 +15418,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00757855-8043-45A9-AE1A-A265B01FCF6C}">
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16084,6 +16096,12 @@
       <c r="D41" t="s">
         <v>823</v>
       </c>
+      <c r="E41" t="s">
+        <v>839</v>
+      </c>
+      <c r="F41" s="1">
+        <v>44157</v>
+      </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
@@ -16098,6 +16116,12 @@
       <c r="D42" t="s">
         <v>790</v>
       </c>
+      <c r="E42" t="s">
+        <v>811</v>
+      </c>
+      <c r="F42" s="1">
+        <v>44157</v>
+      </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
@@ -16210,6 +16234,54 @@
         <v>797</v>
       </c>
       <c r="D48" t="s">
+        <v>790</v>
+      </c>
+      <c r="E48" t="s">
+        <v>795</v>
+      </c>
+      <c r="F48" s="1">
+        <v>44157</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>35</v>
+      </c>
+      <c r="B49" t="s">
+        <v>840</v>
+      </c>
+      <c r="C49" t="s">
+        <v>819</v>
+      </c>
+      <c r="D49" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>36</v>
+      </c>
+      <c r="B50" t="s">
+        <v>841</v>
+      </c>
+      <c r="C50" t="s">
+        <v>819</v>
+      </c>
+      <c r="D50" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>37</v>
+      </c>
+      <c r="B51" t="s">
+        <v>842</v>
+      </c>
+      <c r="C51" t="s">
+        <v>819</v>
+      </c>
+      <c r="D51" t="s">
         <v>790</v>
       </c>
     </row>
@@ -16222,8 +16294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2DB45DF-E076-45AE-BB70-C5D380909CF8}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/My_Road.xlsx
+++ b/My_Road.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phill\wsl_share_folder\python_jupyter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B13CDA-5CF3-458E-8442-5A46C893B007}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB5A42E6-86CC-473C-B30C-0C48FB45DAC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4095" yWindow="1755" windowWidth="12315" windowHeight="11385" firstSheet="2" activeTab="2" xr2:uid="{2E3D5B4E-200F-40C0-9AC0-5A6D59069395}"/>
+    <workbookView xWindow="12720" yWindow="1755" windowWidth="12315" windowHeight="11385" firstSheet="2" activeTab="2" xr2:uid="{2E3D5B4E-200F-40C0-9AC0-5A6D59069395}"/>
   </bookViews>
   <sheets>
     <sheet name="space_repetition" sheetId="2" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1693" uniqueCount="843">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1912" uniqueCount="918">
   <si>
     <t>Topic</t>
   </si>
@@ -2471,9 +2471,6 @@
     <t>Run-Length Encoding</t>
   </si>
   <si>
-    <t>String</t>
-  </si>
-  <si>
     <t>Nth Fibonacci</t>
   </si>
   <si>
@@ -2519,9 +2516,6 @@
     <t>Heap Sort</t>
   </si>
   <si>
-    <t>Difficult</t>
-  </si>
-  <si>
     <t>Search In Sorted Matrix</t>
   </si>
   <si>
@@ -2577,6 +2571,237 @@
   </si>
   <si>
     <t>Min Height BST</t>
+  </si>
+  <si>
+    <t>Invert Binary Tree</t>
+  </si>
+  <si>
+    <t>Binary Tree Diameter</t>
+  </si>
+  <si>
+    <t>Number of Ways to Make Change</t>
+  </si>
+  <si>
+    <t>Min Number of Coins for Change</t>
+  </si>
+  <si>
+    <t>Levenshtein Distance</t>
+  </si>
+  <si>
+    <t>Kadane's Algorithm</t>
+  </si>
+  <si>
+    <t>Famous Algorithms</t>
+  </si>
+  <si>
+    <t>Single Cycle Check</t>
+  </si>
+  <si>
+    <t>Breadth-first Search</t>
+  </si>
+  <si>
+    <t>River Sizes</t>
+  </si>
+  <si>
+    <t>Youngest Common Ancester</t>
+  </si>
+  <si>
+    <t>Remove Kth Node From End</t>
+  </si>
+  <si>
+    <t>Very Hard</t>
+  </si>
+  <si>
+    <t>Min Max Stack Construction</t>
+  </si>
+  <si>
+    <t>Stacks</t>
+  </si>
+  <si>
+    <t>Balanced Brackets</t>
+  </si>
+  <si>
+    <t>Longest Palindromic Substring</t>
+  </si>
+  <si>
+    <t>Group Anagrams</t>
+  </si>
+  <si>
+    <t>Suffix Trie Construction</t>
+  </si>
+  <si>
+    <t>Multi String Search</t>
+  </si>
+  <si>
+    <t>Tries</t>
+  </si>
+  <si>
+    <t>Longest Substring Without Duplicating</t>
+  </si>
+  <si>
+    <t>Underscorify Substring</t>
+  </si>
+  <si>
+    <t>Pattern Matcher</t>
+  </si>
+  <si>
+    <t>Shifted Binary Search</t>
+  </si>
+  <si>
+    <t>Search For Range</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quickselect </t>
+  </si>
+  <si>
+    <t>Index Equals Value</t>
+  </si>
+  <si>
+    <t>Shorten Path</t>
+  </si>
+  <si>
+    <t>Continous Median</t>
+  </si>
+  <si>
+    <t>Find Loop</t>
+  </si>
+  <si>
+    <t>Reverse Linked List</t>
+  </si>
+  <si>
+    <t>Merge Linked List</t>
+  </si>
+  <si>
+    <t>Shift Linked List</t>
+  </si>
+  <si>
+    <t>Lowest Common Manager</t>
+  </si>
+  <si>
+    <t>Interweaving String</t>
+  </si>
+  <si>
+    <t>Boggle Board</t>
+  </si>
+  <si>
+    <t>Max Sum Increasing Subsequence</t>
+  </si>
+  <si>
+    <t>Longest Common Subsequence</t>
+  </si>
+  <si>
+    <t>Min Number of Jumps</t>
+  </si>
+  <si>
+    <t>Water Area</t>
+  </si>
+  <si>
+    <t>Knapsack Problem</t>
+  </si>
+  <si>
+    <t>Disk Stacking</t>
+  </si>
+  <si>
+    <t>Numbers in Pi</t>
+  </si>
+  <si>
+    <t>Dijkstra's Algorithm</t>
+  </si>
+  <si>
+    <t>Topological Sort</t>
+  </si>
+  <si>
+    <t>Four Numbers Sum</t>
+  </si>
+  <si>
+    <t>Subarray Sort</t>
+  </si>
+  <si>
+    <t>Largest Range</t>
+  </si>
+  <si>
+    <t>Min Rewards</t>
+  </si>
+  <si>
+    <t>Zigzag Traverse</t>
+  </si>
+  <si>
+    <t>Apartment Hunting</t>
+  </si>
+  <si>
+    <t>Same BSTs</t>
+  </si>
+  <si>
+    <t>Max Path Sum in Binary Tree</t>
+  </si>
+  <si>
+    <t>Calendar Matching</t>
+  </si>
+  <si>
+    <t>Waterfall Streams</t>
+  </si>
+  <si>
+    <t>Right Smaller Than</t>
+  </si>
+  <si>
+    <t>Iterative In-Order Traversal</t>
+  </si>
+  <si>
+    <t>Flatten Binary Tree</t>
+  </si>
+  <si>
+    <t>Right Sibling Tree</t>
+  </si>
+  <si>
+    <t>All Kinds of node Depths</t>
+  </si>
+  <si>
+    <t>Max Profit With K Transaction</t>
+  </si>
+  <si>
+    <t>Palindrome Partition Min cuts</t>
+  </si>
+  <si>
+    <t>Longest Increasing Subsequency</t>
+  </si>
+  <si>
+    <t>Longest String Chain</t>
+  </si>
+  <si>
+    <t>Square of Zeroes</t>
+  </si>
+  <si>
+    <t>Knuth-Morris-Pratt Algorithm</t>
+  </si>
+  <si>
+    <t>A* Algorithms</t>
+  </si>
+  <si>
+    <t>Rectangle mania</t>
+  </si>
+  <si>
+    <t>Airport Connections</t>
+  </si>
+  <si>
+    <t>Merge Sorted Arrays</t>
+  </si>
+  <si>
+    <t>LRU Cache</t>
+  </si>
+  <si>
+    <t>Rearrange Linked List</t>
+  </si>
+  <si>
+    <t>Linked List palindrome</t>
+  </si>
+  <si>
+    <t>Number Of Binary Tree Topologies</t>
+  </si>
+  <si>
+    <t>Smalest Substring Containing</t>
+  </si>
+  <si>
+    <t>Longest Balanced Substring</t>
   </si>
 </sst>
 </file>
@@ -2673,7 +2898,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2715,6 +2940,16 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -15088,10 +15323,10 @@
   <autoFilter ref="A1:N1" xr:uid="{F271AB01-250A-4FD7-9E2F-E0BCA2E9BA5A}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="E1:K1048576">
-    <cfRule type="timePeriod" dxfId="4" priority="2" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="5" priority="2" timePeriod="today">
       <formula>FLOOR(E1,1)=TODAY()</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="3" priority="3" timePeriod="tomorrow">
+    <cfRule type="timePeriod" dxfId="4" priority="3" timePeriod="tomorrow">
       <formula>FLOOR(E1,1)=TODAY()+1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15418,10 +15653,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00757855-8043-45A9-AE1A-A265B01FCF6C}">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C95" sqref="C95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15458,7 +15693,7 @@
         <v>357</v>
       </c>
       <c r="C2" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F2" s="1">
         <v>44123</v>
@@ -15469,7 +15704,7 @@
         <v>467</v>
       </c>
       <c r="C3" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F3" s="1">
         <v>44123</v>
@@ -15480,7 +15715,7 @@
         <v>468</v>
       </c>
       <c r="C4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F4" s="1">
         <v>44134</v>
@@ -15491,7 +15726,7 @@
         <v>469</v>
       </c>
       <c r="C5" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F5" s="1">
         <v>44134</v>
@@ -15502,7 +15737,7 @@
         <v>470</v>
       </c>
       <c r="C6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F6" s="1">
         <v>44135</v>
@@ -15513,7 +15748,7 @@
         <v>471</v>
       </c>
       <c r="C7" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F7" s="1">
         <v>44135</v>
@@ -15524,7 +15759,7 @@
         <v>472</v>
       </c>
       <c r="C8" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F8" s="1">
         <v>44135</v>
@@ -15535,7 +15770,7 @@
         <v>473</v>
       </c>
       <c r="C9" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F9" s="1">
         <v>44135</v>
@@ -15546,7 +15781,7 @@
         <v>474</v>
       </c>
       <c r="C10" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F10" s="1">
         <v>44135</v>
@@ -15557,7 +15792,7 @@
         <v>475</v>
       </c>
       <c r="C11" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F11" s="1">
         <v>44135</v>
@@ -15568,7 +15803,7 @@
         <v>476</v>
       </c>
       <c r="C12" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F12" s="1">
         <v>44135</v>
@@ -15579,7 +15814,7 @@
         <v>477</v>
       </c>
       <c r="C13" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F13" s="1">
         <v>44135</v>
@@ -15590,7 +15825,7 @@
         <v>478</v>
       </c>
       <c r="C14" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F14" s="1">
         <v>44135</v>
@@ -15891,7 +16126,7 @@
         <v>806</v>
       </c>
       <c r="C31" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="D31" t="s">
         <v>781</v>
@@ -15908,10 +16143,10 @@
         <v>18</v>
       </c>
       <c r="B32" t="s">
+        <v>807</v>
+      </c>
+      <c r="C32" t="s">
         <v>808</v>
-      </c>
-      <c r="C32" t="s">
-        <v>809</v>
       </c>
       <c r="D32" t="s">
         <v>781</v>
@@ -15928,16 +16163,16 @@
         <v>19</v>
       </c>
       <c r="B33" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C33" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D33" t="s">
         <v>781</v>
       </c>
       <c r="E33" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="F33" s="1">
         <v>44151</v>
@@ -15948,16 +16183,16 @@
         <v>20</v>
       </c>
       <c r="B34" t="s">
+        <v>811</v>
+      </c>
+      <c r="C34" t="s">
         <v>812</v>
-      </c>
-      <c r="C34" t="s">
-        <v>813</v>
       </c>
       <c r="D34" t="s">
         <v>781</v>
       </c>
       <c r="E34" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="F34" s="1">
         <v>44151</v>
@@ -15968,16 +16203,16 @@
         <v>21</v>
       </c>
       <c r="B35" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C35" t="s">
         <v>797</v>
       </c>
       <c r="D35" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E35" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="F35" s="1">
         <v>44152</v>
@@ -15988,7 +16223,7 @@
         <v>22</v>
       </c>
       <c r="B36" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C36" t="s">
         <v>797</v>
@@ -16008,10 +16243,10 @@
         <v>23</v>
       </c>
       <c r="B37" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C37" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D37" t="s">
         <v>781</v>
@@ -16028,16 +16263,16 @@
         <v>24</v>
       </c>
       <c r="B38" t="s">
+        <v>817</v>
+      </c>
+      <c r="C38" t="s">
         <v>818</v>
-      </c>
-      <c r="C38" t="s">
-        <v>819</v>
       </c>
       <c r="D38" t="s">
         <v>781</v>
       </c>
       <c r="E38" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="F38" s="1">
         <v>44154</v>
@@ -16048,7 +16283,7 @@
         <v>25</v>
       </c>
       <c r="B39" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C39" t="s">
         <v>780</v>
@@ -16057,7 +16292,7 @@
         <v>790</v>
       </c>
       <c r="E39" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="F39" s="1">
         <v>44154</v>
@@ -16068,7 +16303,7 @@
         <v>26</v>
       </c>
       <c r="B40" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C40" t="s">
         <v>780</v>
@@ -16088,16 +16323,16 @@
         <v>27</v>
       </c>
       <c r="B41" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C41" t="s">
         <v>797</v>
       </c>
       <c r="D41" t="s">
-        <v>823</v>
+        <v>814</v>
       </c>
       <c r="E41" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="F41" s="1">
         <v>44157</v>
@@ -16108,7 +16343,7 @@
         <v>28</v>
       </c>
       <c r="B42" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="C42" t="s">
         <v>794</v>
@@ -16117,7 +16352,7 @@
         <v>790</v>
       </c>
       <c r="E42" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="F42" s="1">
         <v>44157</v>
@@ -16128,16 +16363,16 @@
         <v>29</v>
       </c>
       <c r="B43" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="C43" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D43" t="s">
         <v>790</v>
       </c>
       <c r="E43" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="F43" s="1">
         <v>44154</v>
@@ -16148,16 +16383,16 @@
         <v>30</v>
       </c>
       <c r="B44" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="C44" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="D44" t="s">
         <v>790</v>
       </c>
       <c r="E44" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="F44" s="1">
         <v>44157</v>
@@ -16168,16 +16403,16 @@
         <v>31</v>
       </c>
       <c r="B45" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="C45" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="D45" t="s">
         <v>790</v>
       </c>
       <c r="E45" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="F45" s="1">
         <v>44154</v>
@@ -16188,16 +16423,16 @@
         <v>32</v>
       </c>
       <c r="B46" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="C46" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D46" t="s">
         <v>790</v>
       </c>
       <c r="E46" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="F46" s="1">
         <v>44157</v>
@@ -16208,16 +16443,16 @@
         <v>33</v>
       </c>
       <c r="B47" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="C47" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D47" t="s">
         <v>790</v>
       </c>
       <c r="E47" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="F47" s="1">
         <v>44154</v>
@@ -16228,13 +16463,13 @@
         <v>34</v>
       </c>
       <c r="B48" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="C48" t="s">
         <v>797</v>
       </c>
       <c r="D48" t="s">
-        <v>790</v>
+        <v>853</v>
       </c>
       <c r="E48" t="s">
         <v>795</v>
@@ -16248,10 +16483,10 @@
         <v>35</v>
       </c>
       <c r="B49" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="C49" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D49" t="s">
         <v>790</v>
@@ -16262,10 +16497,10 @@
         <v>36</v>
       </c>
       <c r="B50" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="C50" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D50" t="s">
         <v>790</v>
@@ -16276,16 +16511,1041 @@
         <v>37</v>
       </c>
       <c r="B51" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="C51" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D51" t="s">
         <v>790</v>
       </c>
     </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>38</v>
+      </c>
+      <c r="B52" t="s">
+        <v>841</v>
+      </c>
+      <c r="C52" t="s">
+        <v>812</v>
+      </c>
+      <c r="D52" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>39</v>
+      </c>
+      <c r="B53" t="s">
+        <v>842</v>
+      </c>
+      <c r="C53" t="s">
+        <v>812</v>
+      </c>
+      <c r="D53" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>40</v>
+      </c>
+      <c r="B54" t="s">
+        <v>843</v>
+      </c>
+      <c r="C54" t="s">
+        <v>789</v>
+      </c>
+      <c r="D54" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>41</v>
+      </c>
+      <c r="B55" t="s">
+        <v>844</v>
+      </c>
+      <c r="C55" t="s">
+        <v>789</v>
+      </c>
+      <c r="D55" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>42</v>
+      </c>
+      <c r="B56" t="s">
+        <v>845</v>
+      </c>
+      <c r="C56" t="s">
+        <v>789</v>
+      </c>
+      <c r="D56" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>43</v>
+      </c>
+      <c r="B57" t="s">
+        <v>846</v>
+      </c>
+      <c r="C57" t="s">
+        <v>847</v>
+      </c>
+      <c r="D57" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>44</v>
+      </c>
+      <c r="B58" t="s">
+        <v>848</v>
+      </c>
+      <c r="C58" t="s">
+        <v>792</v>
+      </c>
+      <c r="D58" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>45</v>
+      </c>
+      <c r="B59" t="s">
+        <v>849</v>
+      </c>
+      <c r="C59" t="s">
+        <v>792</v>
+      </c>
+      <c r="D59" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>46</v>
+      </c>
+      <c r="B60" t="s">
+        <v>850</v>
+      </c>
+      <c r="C60" t="s">
+        <v>792</v>
+      </c>
+      <c r="D60" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>47</v>
+      </c>
+      <c r="B61" t="s">
+        <v>851</v>
+      </c>
+      <c r="C61" t="s">
+        <v>792</v>
+      </c>
+      <c r="D61" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>48</v>
+      </c>
+      <c r="B62" t="s">
+        <v>852</v>
+      </c>
+      <c r="C62" t="s">
+        <v>826</v>
+      </c>
+      <c r="D62" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>49</v>
+      </c>
+      <c r="B63" t="s">
+        <v>854</v>
+      </c>
+      <c r="C63" t="s">
+        <v>855</v>
+      </c>
+      <c r="D63" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>50</v>
+      </c>
+      <c r="B64" t="s">
+        <v>856</v>
+      </c>
+      <c r="C64" t="s">
+        <v>855</v>
+      </c>
+      <c r="D64" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>51</v>
+      </c>
+      <c r="B65" t="s">
+        <v>857</v>
+      </c>
+      <c r="C65" t="s">
+        <v>801</v>
+      </c>
+      <c r="D65" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>52</v>
+      </c>
+      <c r="B66" t="s">
+        <v>858</v>
+      </c>
+      <c r="C66" t="s">
+        <v>801</v>
+      </c>
+      <c r="D66" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>53</v>
+      </c>
+      <c r="B67" t="s">
+        <v>859</v>
+      </c>
+      <c r="C67" t="s">
+        <v>861</v>
+      </c>
+      <c r="D67" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>54</v>
+      </c>
+      <c r="B68" t="s">
+        <v>860</v>
+      </c>
+      <c r="C68" t="s">
+        <v>861</v>
+      </c>
+      <c r="D68" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>55</v>
+      </c>
+      <c r="B69" t="s">
+        <v>862</v>
+      </c>
+      <c r="C69" t="s">
+        <v>801</v>
+      </c>
+      <c r="D69" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>56</v>
+      </c>
+      <c r="B70" t="s">
+        <v>863</v>
+      </c>
+      <c r="C70" t="s">
+        <v>801</v>
+      </c>
+      <c r="D70" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>57</v>
+      </c>
+      <c r="B71" t="s">
+        <v>864</v>
+      </c>
+      <c r="C71" t="s">
+        <v>801</v>
+      </c>
+      <c r="D71" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>58</v>
+      </c>
+      <c r="B72" t="s">
+        <v>865</v>
+      </c>
+      <c r="C72" t="s">
+        <v>794</v>
+      </c>
+      <c r="D72" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>59</v>
+      </c>
+      <c r="B73" t="s">
+        <v>866</v>
+      </c>
+      <c r="C73" t="s">
+        <v>794</v>
+      </c>
+      <c r="D73" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>60</v>
+      </c>
+      <c r="B74" t="s">
+        <v>867</v>
+      </c>
+      <c r="C74" t="s">
+        <v>794</v>
+      </c>
+      <c r="D74" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>61</v>
+      </c>
+      <c r="B75" t="s">
+        <v>868</v>
+      </c>
+      <c r="C75" t="s">
+        <v>794</v>
+      </c>
+      <c r="D75" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>62</v>
+      </c>
+      <c r="B76" t="s">
+        <v>869</v>
+      </c>
+      <c r="C76" t="s">
+        <v>794</v>
+      </c>
+      <c r="D76" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>63</v>
+      </c>
+      <c r="B77" t="s">
+        <v>870</v>
+      </c>
+      <c r="C77" t="s">
+        <v>828</v>
+      </c>
+      <c r="D77" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>64</v>
+      </c>
+      <c r="B78" t="s">
+        <v>871</v>
+      </c>
+      <c r="C78" t="s">
+        <v>826</v>
+      </c>
+      <c r="D78" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>65</v>
+      </c>
+      <c r="B79" t="s">
+        <v>872</v>
+      </c>
+      <c r="C79" t="s">
+        <v>826</v>
+      </c>
+      <c r="D79" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>66</v>
+      </c>
+      <c r="B80" t="s">
+        <v>873</v>
+      </c>
+      <c r="C80" t="s">
+        <v>826</v>
+      </c>
+      <c r="D80" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>67</v>
+      </c>
+      <c r="B81" t="s">
+        <v>874</v>
+      </c>
+      <c r="C81" t="s">
+        <v>826</v>
+      </c>
+      <c r="D81" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>68</v>
+      </c>
+      <c r="B82" t="s">
+        <v>875</v>
+      </c>
+      <c r="C82" t="s">
+        <v>808</v>
+      </c>
+      <c r="D82" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>69</v>
+      </c>
+      <c r="B83" t="s">
+        <v>876</v>
+      </c>
+      <c r="C83" t="s">
+        <v>808</v>
+      </c>
+      <c r="D83" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>70</v>
+      </c>
+      <c r="B84" t="s">
+        <v>877</v>
+      </c>
+      <c r="C84" t="s">
+        <v>792</v>
+      </c>
+      <c r="D84" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>71</v>
+      </c>
+      <c r="B85" t="s">
+        <v>878</v>
+      </c>
+      <c r="C85" t="s">
+        <v>789</v>
+      </c>
+      <c r="D85" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>72</v>
+      </c>
+      <c r="B86" t="s">
+        <v>879</v>
+      </c>
+      <c r="C86" t="s">
+        <v>789</v>
+      </c>
+      <c r="D86" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>73</v>
+      </c>
+      <c r="B87" t="s">
+        <v>880</v>
+      </c>
+      <c r="C87" t="s">
+        <v>789</v>
+      </c>
+      <c r="D87" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>74</v>
+      </c>
+      <c r="B88" t="s">
+        <v>881</v>
+      </c>
+      <c r="C88" t="s">
+        <v>789</v>
+      </c>
+      <c r="D88" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>75</v>
+      </c>
+      <c r="B89" t="s">
+        <v>882</v>
+      </c>
+      <c r="C89" t="s">
+        <v>789</v>
+      </c>
+      <c r="D89" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>76</v>
+      </c>
+      <c r="B90" t="s">
+        <v>883</v>
+      </c>
+      <c r="C90" t="s">
+        <v>789</v>
+      </c>
+      <c r="D90" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>77</v>
+      </c>
+      <c r="B91" t="s">
+        <v>884</v>
+      </c>
+      <c r="C91" t="s">
+        <v>789</v>
+      </c>
+      <c r="D91" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>78</v>
+      </c>
+      <c r="B92" t="s">
+        <v>885</v>
+      </c>
+      <c r="C92" t="s">
+        <v>847</v>
+      </c>
+      <c r="D92" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>79</v>
+      </c>
+      <c r="B93" t="s">
+        <v>886</v>
+      </c>
+      <c r="C93" t="s">
+        <v>847</v>
+      </c>
+      <c r="D93" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>80</v>
+      </c>
+      <c r="B94" t="s">
+        <v>887</v>
+      </c>
+      <c r="C94" t="s">
+        <v>780</v>
+      </c>
+      <c r="D94" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>81</v>
+      </c>
+      <c r="B95" t="s">
+        <v>888</v>
+      </c>
+      <c r="C95" t="s">
+        <v>780</v>
+      </c>
+      <c r="D95" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>82</v>
+      </c>
+      <c r="B96" t="s">
+        <v>889</v>
+      </c>
+      <c r="C96" t="s">
+        <v>780</v>
+      </c>
+      <c r="D96" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>83</v>
+      </c>
+      <c r="B97" t="s">
+        <v>890</v>
+      </c>
+      <c r="C97" t="s">
+        <v>780</v>
+      </c>
+      <c r="D97" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>84</v>
+      </c>
+      <c r="B98" t="s">
+        <v>891</v>
+      </c>
+      <c r="C98" t="s">
+        <v>780</v>
+      </c>
+      <c r="D98" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>85</v>
+      </c>
+      <c r="B99" t="s">
+        <v>893</v>
+      </c>
+      <c r="C99" t="s">
+        <v>818</v>
+      </c>
+      <c r="D99" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>86</v>
+      </c>
+      <c r="B100" t="s">
+        <v>894</v>
+      </c>
+      <c r="C100" t="s">
+        <v>812</v>
+      </c>
+      <c r="D100" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>87</v>
+      </c>
+      <c r="B101" t="s">
+        <v>892</v>
+      </c>
+      <c r="C101" t="s">
+        <v>780</v>
+      </c>
+      <c r="D101" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>88</v>
+      </c>
+      <c r="B102" t="s">
+        <v>895</v>
+      </c>
+      <c r="C102" t="s">
+        <v>780</v>
+      </c>
+      <c r="D102" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>89</v>
+      </c>
+      <c r="B103" t="s">
+        <v>896</v>
+      </c>
+      <c r="C103" t="s">
+        <v>780</v>
+      </c>
+      <c r="D103" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>90</v>
+      </c>
+      <c r="B104" t="s">
+        <v>897</v>
+      </c>
+      <c r="C104" t="s">
+        <v>818</v>
+      </c>
+      <c r="D104" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>91</v>
+      </c>
+      <c r="B105" t="s">
+        <v>898</v>
+      </c>
+      <c r="C105" t="s">
+        <v>812</v>
+      </c>
+      <c r="D105" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>92</v>
+      </c>
+      <c r="B106" t="s">
+        <v>899</v>
+      </c>
+      <c r="C106" t="s">
+        <v>812</v>
+      </c>
+      <c r="D106" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>93</v>
+      </c>
+      <c r="B107" t="s">
+        <v>900</v>
+      </c>
+      <c r="C107" t="s">
+        <v>812</v>
+      </c>
+      <c r="D107" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>94</v>
+      </c>
+      <c r="B108" t="s">
+        <v>901</v>
+      </c>
+      <c r="C108" t="s">
+        <v>812</v>
+      </c>
+      <c r="D108" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>95</v>
+      </c>
+      <c r="B109" t="s">
+        <v>902</v>
+      </c>
+      <c r="C109" t="s">
+        <v>789</v>
+      </c>
+      <c r="D109" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>96</v>
+      </c>
+      <c r="B110" t="s">
+        <v>903</v>
+      </c>
+      <c r="C110" t="s">
+        <v>789</v>
+      </c>
+      <c r="D110" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>97</v>
+      </c>
+      <c r="B111" t="s">
+        <v>904</v>
+      </c>
+      <c r="C111" t="s">
+        <v>789</v>
+      </c>
+      <c r="D111" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>98</v>
+      </c>
+      <c r="B112" t="s">
+        <v>905</v>
+      </c>
+      <c r="C112" t="s">
+        <v>789</v>
+      </c>
+      <c r="D112" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>99</v>
+      </c>
+      <c r="B113" t="s">
+        <v>906</v>
+      </c>
+      <c r="C113" t="s">
+        <v>789</v>
+      </c>
+      <c r="D113" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>100</v>
+      </c>
+      <c r="B114" t="s">
+        <v>907</v>
+      </c>
+      <c r="C114" t="s">
+        <v>847</v>
+      </c>
+      <c r="D114" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>101</v>
+      </c>
+      <c r="B115" t="s">
+        <v>908</v>
+      </c>
+      <c r="C115" t="s">
+        <v>847</v>
+      </c>
+      <c r="D115" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>102</v>
+      </c>
+      <c r="B116" t="s">
+        <v>909</v>
+      </c>
+      <c r="C116" t="s">
+        <v>792</v>
+      </c>
+      <c r="D116" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>103</v>
+      </c>
+      <c r="B117" t="s">
+        <v>910</v>
+      </c>
+      <c r="C117" t="s">
+        <v>792</v>
+      </c>
+      <c r="D117" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>104</v>
+      </c>
+      <c r="B118" t="s">
+        <v>911</v>
+      </c>
+      <c r="C118" t="s">
+        <v>828</v>
+      </c>
+      <c r="D118" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>105</v>
+      </c>
+      <c r="B119" t="s">
+        <v>912</v>
+      </c>
+      <c r="C119" t="s">
+        <v>826</v>
+      </c>
+      <c r="D119" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>106</v>
+      </c>
+      <c r="B120" t="s">
+        <v>913</v>
+      </c>
+      <c r="C120" t="s">
+        <v>826</v>
+      </c>
+      <c r="D120" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>107</v>
+      </c>
+      <c r="B121" t="s">
+        <v>914</v>
+      </c>
+      <c r="C121" t="s">
+        <v>826</v>
+      </c>
+      <c r="D121" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>108</v>
+      </c>
+      <c r="B122" t="s">
+        <v>915</v>
+      </c>
+      <c r="C122" t="s">
+        <v>808</v>
+      </c>
+      <c r="D122" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>109</v>
+      </c>
+      <c r="B123" t="s">
+        <v>916</v>
+      </c>
+      <c r="C123" t="s">
+        <v>801</v>
+      </c>
+      <c r="D123" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>110</v>
+      </c>
+      <c r="B124" t="s">
+        <v>917</v>
+      </c>
+      <c r="C124" t="s">
+        <v>801</v>
+      </c>
+      <c r="D124" t="s">
+        <v>853</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -16313,10 +17573,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="B6" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
   </sheetData>

--- a/My_Road.xlsx
+++ b/My_Road.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phill\wsl_share_folder\python_jupyter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB5A42E6-86CC-473C-B30C-0C48FB45DAC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B309A4B5-0CDF-4A4B-8151-FADC45545A2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12720" yWindow="1755" windowWidth="12315" windowHeight="11385" firstSheet="2" activeTab="2" xr2:uid="{2E3D5B4E-200F-40C0-9AC0-5A6D59069395}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" firstSheet="2" activeTab="2" xr2:uid="{2E3D5B4E-200F-40C0-9AC0-5A6D59069395}"/>
   </bookViews>
   <sheets>
     <sheet name="space_repetition" sheetId="2" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1912" uniqueCount="918">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1914" uniqueCount="919">
   <si>
     <t>Topic</t>
   </si>
@@ -2802,6 +2802,9 @@
   </si>
   <si>
     <t>Longest Balanced Substring</t>
+  </si>
+  <si>
+    <t>需要看视频, 第二种算法比较难</t>
   </si>
 </sst>
 </file>
@@ -15655,8 +15658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00757855-8043-45A9-AE1A-A265B01FCF6C}">
   <dimension ref="A1:F124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C95" sqref="C95"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16472,13 +16475,13 @@
         <v>853</v>
       </c>
       <c r="E48" t="s">
-        <v>795</v>
+        <v>918</v>
       </c>
       <c r="F48" s="1">
         <v>44157</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>35</v>
       </c>
@@ -16491,8 +16494,14 @@
       <c r="D49" t="s">
         <v>790</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49" t="s">
+        <v>810</v>
+      </c>
+      <c r="F49" s="1">
+        <v>44158</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>36</v>
       </c>
@@ -16505,8 +16514,11 @@
       <c r="D50" t="s">
         <v>790</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>37</v>
       </c>
@@ -16520,7 +16532,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>38</v>
       </c>
@@ -16534,7 +16546,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>39</v>
       </c>
@@ -16548,7 +16560,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>40</v>
       </c>
@@ -16562,7 +16574,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>41</v>
       </c>
@@ -16576,7 +16588,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>42</v>
       </c>
@@ -16590,7 +16602,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>43</v>
       </c>
@@ -16604,7 +16616,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>44</v>
       </c>
@@ -16618,7 +16630,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>45</v>
       </c>
@@ -16632,7 +16644,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>46</v>
       </c>
@@ -16646,7 +16658,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>47</v>
       </c>
@@ -16660,7 +16672,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>48</v>
       </c>
@@ -16674,7 +16686,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>49</v>
       </c>
@@ -16688,7 +16700,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>50</v>
       </c>
@@ -21184,12 +21196,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -21307,15 +21316,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52E299C4-492D-4E68-A807-C7DF706F8165}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9E496BF-0A8B-43E4-AB12-4B2BAD91A9E6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -21337,10 +21350,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9E496BF-0A8B-43E4-AB12-4B2BAD91A9E6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52E299C4-492D-4E68-A807-C7DF706F8165}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/My_Road.xlsx
+++ b/My_Road.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phill\wsl_share_folder\python_jupyter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B309A4B5-0CDF-4A4B-8151-FADC45545A2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DD69858-6D06-42EB-BFEA-D8B158307539}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" firstSheet="2" activeTab="2" xr2:uid="{2E3D5B4E-200F-40C0-9AC0-5A6D59069395}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1914" uniqueCount="919">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1915" uniqueCount="919">
   <si>
     <t>Topic</t>
   </si>
@@ -16517,6 +16517,9 @@
       <c r="E50" t="s">
         <v>810</v>
       </c>
+      <c r="F50" s="1">
+        <v>44158</v>
+      </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
@@ -16530,6 +16533,9 @@
       </c>
       <c r="D51" t="s">
         <v>790</v>
+      </c>
+      <c r="E51" t="s">
+        <v>810</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">

--- a/My_Road.xlsx
+++ b/My_Road.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phill\wsl_share_folder\python_jupyter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DD69858-6D06-42EB-BFEA-D8B158307539}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA20A92-98AE-4E98-B3D1-A09037AECE15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" firstSheet="2" activeTab="2" xr2:uid="{2E3D5B4E-200F-40C0-9AC0-5A6D59069395}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{2E3D5B4E-200F-40C0-9AC0-5A6D59069395}"/>
   </bookViews>
   <sheets>
     <sheet name="space_repetition" sheetId="2" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1915" uniqueCount="919">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1918" uniqueCount="921">
   <si>
     <t>Topic</t>
   </si>
@@ -2805,6 +2805,12 @@
   </si>
   <si>
     <t>需要看视频, 第二种算法比较难</t>
+  </si>
+  <si>
+    <t>https://realtoughcandy.com/learn-to-code-for-free/</t>
+  </si>
+  <si>
+    <t>100 free resource</t>
   </si>
 </sst>
 </file>
@@ -15658,7 +15664,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00757855-8043-45A9-AE1A-A265B01FCF6C}">
   <dimension ref="A1:F124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
@@ -17604,10 +17610,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0545E0D-D3B3-4BE0-98F0-24229D8CDC62}">
-  <dimension ref="A1:E155"/>
+  <dimension ref="A1:E156"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="A156" sqref="A156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19531,6 +19537,17 @@
       </c>
       <c r="D155" t="s">
         <v>725</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B156" t="s">
+        <v>611</v>
+      </c>
+      <c r="C156" t="s">
+        <v>920</v>
+      </c>
+      <c r="D156" t="s">
+        <v>919</v>
       </c>
     </row>
   </sheetData>
@@ -21202,9 +21219,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -21322,19 +21342,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9E496BF-0A8B-43E4-AB12-4B2BAD91A9E6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52E299C4-492D-4E68-A807-C7DF706F8165}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -21356,9 +21372,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52E299C4-492D-4E68-A807-C7DF706F8165}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9E496BF-0A8B-43E4-AB12-4B2BAD91A9E6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/My_Road.xlsx
+++ b/My_Road.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phill\wsl_share_folder\python_jupyter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA20A92-98AE-4E98-B3D1-A09037AECE15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7133D9D5-4038-4247-B230-DAECC50CD90D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{2E3D5B4E-200F-40C0-9AC0-5A6D59069395}"/>
+    <workbookView xWindow="12705" yWindow="3765" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{2E3D5B4E-200F-40C0-9AC0-5A6D59069395}"/>
   </bookViews>
   <sheets>
     <sheet name="space_repetition" sheetId="2" r:id="rId1"/>
@@ -18,12 +18,13 @@
     <sheet name="AlgoExpert" sheetId="13" r:id="rId3"/>
     <sheet name="DataStructureJava" sheetId="14" r:id="rId4"/>
     <sheet name="Resource" sheetId="1" r:id="rId5"/>
-    <sheet name="Pytyhon Data Structure" sheetId="3" r:id="rId6"/>
-    <sheet name="Master Code" sheetId="6" r:id="rId7"/>
-    <sheet name="Tools" sheetId="7" r:id="rId8"/>
-    <sheet name="SysExpert" sheetId="8" r:id="rId9"/>
-    <sheet name="JS" sheetId="10" r:id="rId10"/>
-    <sheet name="Design" sheetId="11" r:id="rId11"/>
+    <sheet name="React" sheetId="15" r:id="rId6"/>
+    <sheet name="Pytyhon Data Structure" sheetId="3" r:id="rId7"/>
+    <sheet name="Master Code" sheetId="6" r:id="rId8"/>
+    <sheet name="Tools" sheetId="7" r:id="rId9"/>
+    <sheet name="SysExpert" sheetId="8" r:id="rId10"/>
+    <sheet name="JS" sheetId="10" r:id="rId11"/>
+    <sheet name="Design" sheetId="11" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Resource!$A$1:$E$155</definedName>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1918" uniqueCount="921">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1938" uniqueCount="939">
   <si>
     <t>Topic</t>
   </si>
@@ -2811,13 +2812,67 @@
   </si>
   <si>
     <t>100 free resource</t>
+  </si>
+  <si>
+    <t>Part</t>
+  </si>
+  <si>
+    <t>Part 5: ES6</t>
+  </si>
+  <si>
+    <t>Lession</t>
+  </si>
+  <si>
+    <t>Concept</t>
+  </si>
+  <si>
+    <t>Javascript fundamentals</t>
+  </si>
+  <si>
+    <t>Lesson 01: Syntax</t>
+  </si>
+  <si>
+    <t>Lesson 02: functions</t>
+  </si>
+  <si>
+    <t>Lesson 03: Built-ins</t>
+  </si>
+  <si>
+    <t>Lesson 04: Professional Developer-fu</t>
+  </si>
+  <si>
+    <t>Part 06: Client Server Communication</t>
+  </si>
+  <si>
+    <t>Lesson 03: HTTP/1</t>
+  </si>
+  <si>
+    <t>Lesson 01: HTTP's Request/Response Cycle</t>
+  </si>
+  <si>
+    <t>const squares = [1, 2, 3, 4, 5, 6, 7, 8, 9, 10].map(function(square) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        return square * square;</t>
+  </si>
+  <si>
+    <t>});</t>
+  </si>
+  <si>
+    <t>console.log(...squares);</t>
+  </si>
+  <si>
+    <t>https://github.com/getify/You-Dont-Know-JS/blob/master/README.md</t>
+  </si>
+  <si>
+    <t>very good deep javascript books</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2844,6 +2899,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFAFAFA"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="5">
@@ -2885,7 +2946,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2901,6 +2962,15 @@
     <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -15345,6 +15415,182 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7D8B6DB-11A5-44DD-9C5E-DABE8D2A7875}">
+  <dimension ref="A1:B26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B2" s="1">
+        <v>44120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>434</v>
+      </c>
+      <c r="B3" s="1">
+        <v>44120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>435</v>
+      </c>
+      <c r="B4" s="1">
+        <v>44120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>436</v>
+      </c>
+      <c r="B5" s="1">
+        <v>44120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>437</v>
+      </c>
+      <c r="B6" s="1">
+        <v>44120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>438</v>
+      </c>
+      <c r="B7" s="1">
+        <v>44120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>439</v>
+      </c>
+      <c r="B8" s="1">
+        <v>44122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>442</v>
+      </c>
+      <c r="B9" s="1">
+        <v>44122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>458</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B102E085-AFB6-4AFF-9C82-74008326EE2A}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -15434,7 +15680,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A655F9C-3632-45BC-9047-C697D974CA4B}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -17610,10 +17856,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0545E0D-D3B3-4BE0-98F0-24229D8CDC62}">
-  <dimension ref="A1:E156"/>
+  <dimension ref="A1:E162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="A156" sqref="A156"/>
+    <sheetView tabSelected="1" topLeftCell="D148" workbookViewId="0">
+      <selection activeCell="C158" sqref="C158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19550,6 +19796,37 @@
         <v>919</v>
       </c>
     </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C157" t="s">
+        <v>938</v>
+      </c>
+      <c r="D157" s="16" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D158" s="15" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D159" s="15" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D160" s="15" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="161" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D161" s="14"/>
+    </row>
+    <row r="162" spans="4:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D162" s="15" t="s">
+        <v>936</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E155" xr:uid="{0BBF6E0D-5DA0-4F61-987B-70915CCFC313}"/>
   <conditionalFormatting sqref="D45 D47">
@@ -19560,7 +19837,7 @@
       <formula>FLOOR(D45,1)=TODAY()+1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D1048576 E1 E60:E61">
+  <conditionalFormatting sqref="D1:D156 E1 E60:E61 D163:D1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
@@ -19584,13 +19861,98 @@
     <hyperlink ref="D150" r:id="rId18" xr:uid="{102190B0-CF70-49F2-A39F-66C78A96FB15}"/>
     <hyperlink ref="D152" r:id="rId19" xr:uid="{505EDDB9-40D5-47E1-9D8C-013F713BD7C4}"/>
     <hyperlink ref="D38" r:id="rId20" xr:uid="{C084ABA3-CF1E-4809-BE2C-86DFE8193E88}"/>
+    <hyperlink ref="D157" r:id="rId21" xr:uid="{C93015A5-D388-4CCC-9CF3-F958606AB62A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId21"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId22"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98A36F74-FD2B-4F92-9D8F-2DB055079F91}">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>921</v>
+      </c>
+      <c r="B1" t="s">
+        <v>923</v>
+      </c>
+      <c r="C1" t="s">
+        <v>924</v>
+      </c>
+      <c r="D1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E1" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>922</v>
+      </c>
+      <c r="B6" t="s">
+        <v>925</v>
+      </c>
+      <c r="D6" s="1">
+        <v>44163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>926</v>
+      </c>
+      <c r="D7" s="1">
+        <v>44164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>931</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDE1E6E2-B483-4111-B2A8-0FBF9C6644B2}">
   <dimension ref="A1:D146"/>
   <sheetViews>
@@ -20458,7 +20820,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{963D7DE2-4C5F-4EF4-A175-66E0345F9474}">
   <dimension ref="A1:D84"/>
   <sheetViews>
@@ -21006,7 +21368,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8E95F3B-6A4B-4BEA-AE6E-74AD1B8176B1}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -21042,189 +21404,10 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7D8B6DB-11A5-44DD-9C5E-DABE8D2A7875}">
-  <dimension ref="A1:B26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>466</v>
-      </c>
-      <c r="B1" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>357</v>
-      </c>
-      <c r="B2" s="1">
-        <v>44120</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>434</v>
-      </c>
-      <c r="B3" s="1">
-        <v>44120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>435</v>
-      </c>
-      <c r="B4" s="1">
-        <v>44120</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>436</v>
-      </c>
-      <c r="B5" s="1">
-        <v>44120</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>437</v>
-      </c>
-      <c r="B6" s="1">
-        <v>44120</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>438</v>
-      </c>
-      <c r="B7" s="1">
-        <v>44120</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>439</v>
-      </c>
-      <c r="B8" s="1">
-        <v>44122</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>442</v>
-      </c>
-      <c r="B9" s="1">
-        <v>44122</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>458</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -21342,15 +21525,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52E299C4-492D-4E68-A807-C7DF706F8165}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9E496BF-0A8B-43E4-AB12-4B2BAD91A9E6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -21372,10 +21559,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9E496BF-0A8B-43E4-AB12-4B2BAD91A9E6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52E299C4-492D-4E68-A807-C7DF706F8165}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/My_Road.xlsx
+++ b/My_Road.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phill\wsl_share_folder\python_jupyter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7133D9D5-4038-4247-B230-DAECC50CD90D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6102636C-0B0F-4482-B37D-E6168F769857}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12705" yWindow="3765" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{2E3D5B4E-200F-40C0-9AC0-5A6D59069395}"/>
+    <workbookView xWindow="12705" yWindow="3765" windowWidth="21600" windowHeight="11385" activeTab="5" xr2:uid="{2E3D5B4E-200F-40C0-9AC0-5A6D59069395}"/>
   </bookViews>
   <sheets>
     <sheet name="space_repetition" sheetId="2" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1938" uniqueCount="939">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1939" uniqueCount="940">
   <si>
     <t>Topic</t>
   </si>
@@ -2866,6 +2866,9 @@
   </si>
   <si>
     <t>very good deep javascript books</t>
+  </si>
+  <si>
+    <t>very interesting</t>
   </si>
 </sst>
 </file>
@@ -17858,7 +17861,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0545E0D-D3B3-4BE0-98F0-24229D8CDC62}">
   <dimension ref="A1:E162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D148" workbookViewId="0">
+    <sheetView topLeftCell="A148" workbookViewId="0">
       <selection activeCell="C158" sqref="C158"/>
     </sheetView>
   </sheetViews>
@@ -19872,8 +19875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98A36F74-FD2B-4F92-9D8F-2DB055079F91}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19920,6 +19923,12 @@
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>927</v>
+      </c>
+      <c r="D8" s="1">
+        <v>44164</v>
+      </c>
+      <c r="E8" t="s">
+        <v>939</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">

--- a/My_Road.xlsx
+++ b/My_Road.xlsx
@@ -8,26 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phill\wsl_share_folder\python_jupyter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6102636C-0B0F-4482-B37D-E6168F769857}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B049D6-9669-4E3A-9E44-FEB47588C27C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12705" yWindow="3765" windowWidth="21600" windowHeight="11385" activeTab="5" xr2:uid="{2E3D5B4E-200F-40C0-9AC0-5A6D59069395}"/>
+    <workbookView xWindow="13395" yWindow="2460" windowWidth="13275" windowHeight="9585" firstSheet="3" activeTab="5" xr2:uid="{2E3D5B4E-200F-40C0-9AC0-5A6D59069395}"/>
   </bookViews>
   <sheets>
     <sheet name="space_repetition" sheetId="2" r:id="rId1"/>
     <sheet name="Java" sheetId="12" r:id="rId2"/>
     <sheet name="AlgoExpert" sheetId="13" r:id="rId3"/>
     <sheet name="DataStructureJava" sheetId="14" r:id="rId4"/>
-    <sheet name="Resource" sheetId="1" r:id="rId5"/>
-    <sheet name="React" sheetId="15" r:id="rId6"/>
-    <sheet name="Pytyhon Data Structure" sheetId="3" r:id="rId7"/>
-    <sheet name="Master Code" sheetId="6" r:id="rId8"/>
-    <sheet name="Tools" sheetId="7" r:id="rId9"/>
-    <sheet name="SysExpert" sheetId="8" r:id="rId10"/>
-    <sheet name="JS" sheetId="10" r:id="rId11"/>
-    <sheet name="Design" sheetId="11" r:id="rId12"/>
+    <sheet name="devops" sheetId="16" r:id="rId5"/>
+    <sheet name="Android" sheetId="17" r:id="rId6"/>
+    <sheet name="Resource" sheetId="1" r:id="rId7"/>
+    <sheet name="React" sheetId="15" r:id="rId8"/>
+    <sheet name="Pytyhon Data Structure" sheetId="3" r:id="rId9"/>
+    <sheet name="Master Code" sheetId="6" r:id="rId10"/>
+    <sheet name="Tools" sheetId="7" r:id="rId11"/>
+    <sheet name="SysExpert" sheetId="8" r:id="rId12"/>
+    <sheet name="JS" sheetId="10" r:id="rId13"/>
+    <sheet name="Design" sheetId="11" r:id="rId14"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Resource!$A$1:$E$155</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Resource!$A$1:$E$155</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">space_repetition!$A$1:$N$1</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -49,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1939" uniqueCount="940">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1967" uniqueCount="959">
   <si>
     <t>Topic</t>
   </si>
@@ -2869,6 +2871,63 @@
   </si>
   <si>
     <t>very interesting</t>
+  </si>
+  <si>
+    <t>Part 1: Introduction</t>
+  </si>
+  <si>
+    <t>Lesson 01: Welcome to the React Nanodegree Programe</t>
+  </si>
+  <si>
+    <t>Udacity DevOps Engineer</t>
+  </si>
+  <si>
+    <t>Part 01: Prrequisite: Networking</t>
+  </si>
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>module 1: Prerequisite: Networking</t>
+  </si>
+  <si>
+    <t>Part 02: Welcome to the Nanodegree Program</t>
+  </si>
+  <si>
+    <t>module 1: Orientation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lesson </t>
+  </si>
+  <si>
+    <t>Lesson 1</t>
+  </si>
+  <si>
+    <t>Lesson 2</t>
+  </si>
+  <si>
+    <t>Lesson 2: Introduction to Cloud DevOps</t>
+  </si>
+  <si>
+    <t>Lesson 1: Welcome to Cloud DevOps Engineer Nanodegree Program</t>
+  </si>
+  <si>
+    <t>module 2: Career Support</t>
+  </si>
+  <si>
+    <t>Lesson 3</t>
+  </si>
+  <si>
+    <t>岗位需求</t>
+  </si>
+  <si>
+    <t>Part 03: Cloud Fundamentals</t>
+  </si>
+  <si>
+    <t>Module 1: cloud Fundamentals</t>
+  </si>
+  <si>
+    <t>Udacity Android</t>
   </si>
 </sst>
 </file>
@@ -2964,9 +3023,6 @@
     <xf numFmtId="14" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2974,6 +3030,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -15418,6 +15477,590 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{963D7DE2-4C5F-4EF4-A175-66E0345F9474}">
+  <dimension ref="A1:D84"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B3" t="s">
+        <v>356</v>
+      </c>
+      <c r="C3" s="1">
+        <v>44118</v>
+      </c>
+      <c r="D3" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>360</v>
+      </c>
+      <c r="C4" s="1">
+        <v>44118</v>
+      </c>
+      <c r="D4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>361</v>
+      </c>
+      <c r="C5" s="1">
+        <v>44118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>621</v>
+      </c>
+      <c r="B6" t="s">
+        <v>622</v>
+      </c>
+      <c r="C6" s="1">
+        <v>44149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>623</v>
+      </c>
+      <c r="C7" s="1">
+        <v>44149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>637</v>
+      </c>
+      <c r="C8" s="1">
+        <v>44149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>652</v>
+      </c>
+      <c r="C9" s="1">
+        <v>44149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>653</v>
+      </c>
+      <c r="C10" s="1">
+        <v>44149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>709</v>
+      </c>
+      <c r="C11" s="1">
+        <v>44149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>710</v>
+      </c>
+      <c r="C12" s="1">
+        <v>44149</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>711</v>
+      </c>
+      <c r="C13" s="1">
+        <v>44150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>651</v>
+      </c>
+      <c r="C14" s="1">
+        <v>44149</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>638</v>
+      </c>
+      <c r="C15" s="1">
+        <v>44149</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>713</v>
+      </c>
+      <c r="C16" s="1">
+        <v>44149</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>714</v>
+      </c>
+      <c r="C17" s="1">
+        <v>44150</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>715</v>
+      </c>
+      <c r="C18" s="1">
+        <v>44150</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>716</v>
+      </c>
+      <c r="C19" s="1">
+        <v>44150</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>717</v>
+      </c>
+      <c r="C20" s="1">
+        <v>44150</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>718</v>
+      </c>
+      <c r="C21" s="1">
+        <v>44150</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>719</v>
+      </c>
+      <c r="C22" s="1">
+        <v>44150</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>720</v>
+      </c>
+      <c r="C23" s="1">
+        <v>44150</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>362</v>
+      </c>
+      <c r="B33" t="s">
+        <v>363</v>
+      </c>
+      <c r="C33" s="1">
+        <v>44118</v>
+      </c>
+      <c r="D33" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>393</v>
+      </c>
+      <c r="C34" s="1">
+        <v>44119</v>
+      </c>
+      <c r="D34" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>394</v>
+      </c>
+      <c r="C35" s="1">
+        <v>44119</v>
+      </c>
+      <c r="D35" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>395</v>
+      </c>
+      <c r="C36" s="1">
+        <v>44119</v>
+      </c>
+      <c r="D36" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>396</v>
+      </c>
+      <c r="C37" s="1">
+        <v>44119</v>
+      </c>
+      <c r="D37" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>399</v>
+      </c>
+      <c r="C38" s="1">
+        <v>44119</v>
+      </c>
+      <c r="D38" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>398</v>
+      </c>
+      <c r="C39" s="1">
+        <v>44119</v>
+      </c>
+      <c r="D39" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>400</v>
+      </c>
+      <c r="C40" s="1">
+        <v>44119</v>
+      </c>
+      <c r="D40" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>401</v>
+      </c>
+      <c r="C41" s="1">
+        <v>44119</v>
+      </c>
+      <c r="D41" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>403</v>
+      </c>
+      <c r="C42" s="1">
+        <v>44119</v>
+      </c>
+      <c r="D42" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>404</v>
+      </c>
+      <c r="C43" s="1">
+        <v>44119</v>
+      </c>
+      <c r="D43" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>405</v>
+      </c>
+      <c r="C44" s="1">
+        <v>44119</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>406</v>
+      </c>
+      <c r="C45" s="1">
+        <v>44119</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>407</v>
+      </c>
+      <c r="C46" s="1">
+        <v>44119</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>408</v>
+      </c>
+      <c r="C47" s="1">
+        <v>44119</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>409</v>
+      </c>
+      <c r="C48" s="1">
+        <v>44119</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>410</v>
+      </c>
+      <c r="C49" s="1">
+        <v>44119</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="6">
+        <v>4.3750000000000004E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="6">
+        <v>1.8749999999999999E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="6">
+        <v>6.5972222222222224E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="6">
+        <v>5.347222222222222E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="6">
+        <v>6.458333333333334E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="6">
+        <v>4.9305555555555554E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="6">
+        <v>5.5555555555555552E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="6">
+        <v>2.013888888888889E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="6">
+        <v>4.2361111111111106E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="6">
+        <v>5.6944444444444443E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="6">
+        <v>5.5555555555555552E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="6">
+        <v>2.7083333333333334E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D12" r:id="rId1" xr:uid="{81E67725-028B-49EE-92E6-761A49C6C2BE}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8E95F3B-6A4B-4BEA-AE6E-74AD1B8176B1}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>429</v>
+      </c>
+      <c r="C2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>431</v>
+      </c>
+      <c r="C3" t="s">
+        <v>432</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7D8B6DB-11A5-44DD-9C5E-DABE8D2A7875}">
   <dimension ref="A1:B26"/>
   <sheetViews>
@@ -15593,7 +16236,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B102E085-AFB6-4AFF-9C82-74008326EE2A}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -15683,7 +16326,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A655F9C-3632-45BC-9047-C697D974CA4B}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -15727,7 +16370,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9E4377A-DE25-4421-A0B6-38A4CF76972C}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -17858,6 +18501,171 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2072547-8EEE-4716-912C-C50A7BC2E270}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>921</v>
+      </c>
+      <c r="B2" t="s">
+        <v>944</v>
+      </c>
+      <c r="C2" t="s">
+        <v>948</v>
+      </c>
+      <c r="D2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>943</v>
+      </c>
+      <c r="B3" t="s">
+        <v>945</v>
+      </c>
+      <c r="D3" s="1">
+        <v>44166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>946</v>
+      </c>
+      <c r="B4" t="s">
+        <v>947</v>
+      </c>
+      <c r="C4" t="s">
+        <v>952</v>
+      </c>
+      <c r="D4" s="1">
+        <v>44166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>951</v>
+      </c>
+      <c r="D5" s="1">
+        <v>44166</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>953</v>
+      </c>
+      <c r="C6" t="s">
+        <v>949</v>
+      </c>
+      <c r="D6" s="1">
+        <v>44166</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>950</v>
+      </c>
+      <c r="D7" s="1">
+        <v>44166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>954</v>
+      </c>
+      <c r="D8" s="1">
+        <v>44166</v>
+      </c>
+      <c r="E8" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>956</v>
+      </c>
+      <c r="B9" t="s">
+        <v>957</v>
+      </c>
+      <c r="C9" t="s">
+        <v>949</v>
+      </c>
+      <c r="D9" s="1">
+        <v>44166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>950</v>
+      </c>
+      <c r="D10" s="1">
+        <v>44167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>954</v>
+      </c>
+      <c r="D11" s="1">
+        <v>44167</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{557FCFA4-995E-4135-810F-CE21313992CC}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>921</v>
+      </c>
+      <c r="B2" t="s">
+        <v>944</v>
+      </c>
+      <c r="C2" t="s">
+        <v>948</v>
+      </c>
+      <c r="D2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0545E0D-D3B3-4BE0-98F0-24229D8CDC62}">
   <dimension ref="A1:E162"/>
   <sheetViews>
@@ -19803,30 +20611,30 @@
       <c r="C157" t="s">
         <v>938</v>
       </c>
-      <c r="D157" s="16" t="s">
+      <c r="D157" s="15" t="s">
         <v>937</v>
       </c>
     </row>
     <row r="158" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D158" s="15" t="s">
+      <c r="D158" s="14" t="s">
         <v>933</v>
       </c>
     </row>
     <row r="159" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D159" s="15" t="s">
+      <c r="D159" s="14" t="s">
         <v>934</v>
       </c>
     </row>
     <row r="160" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D160" s="15" t="s">
+      <c r="D160" s="14" t="s">
         <v>935</v>
       </c>
     </row>
     <row r="161" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D161" s="14"/>
+      <c r="D161" s="13"/>
     </row>
     <row r="162" spans="4:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D162" s="15" t="s">
+      <c r="D162" s="14" t="s">
         <v>936</v>
       </c>
     </row>
@@ -19871,12 +20679,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98A36F74-FD2B-4F92-9D8F-2DB055079F91}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19901,6 +20709,14 @@
         <v>778</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>940</v>
+      </c>
+      <c r="B2" t="s">
+        <v>941</v>
+      </c>
+    </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>922</v>
@@ -19935,10 +20751,16 @@
       <c r="B9" t="s">
         <v>928</v>
       </c>
+      <c r="D9" s="1">
+        <v>44165</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>929</v>
+      </c>
+      <c r="D10" s="1">
+        <v>44165</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -19961,7 +20783,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDE1E6E2-B483-4111-B2A8-0FBF9C6644B2}">
   <dimension ref="A1:D146"/>
   <sheetViews>
@@ -19975,12 +20797,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -20829,597 +21651,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{963D7DE2-4C5F-4EF4-A175-66E0345F9474}">
-  <dimension ref="A1:D84"/>
-  <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>355</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>195</v>
-      </c>
-      <c r="B2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C2" t="s">
-        <v>197</v>
-      </c>
-      <c r="D2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>357</v>
-      </c>
-      <c r="B3" t="s">
-        <v>356</v>
-      </c>
-      <c r="C3" s="1">
-        <v>44118</v>
-      </c>
-      <c r="D3" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>360</v>
-      </c>
-      <c r="C4" s="1">
-        <v>44118</v>
-      </c>
-      <c r="D4" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>361</v>
-      </c>
-      <c r="C5" s="1">
-        <v>44118</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>621</v>
-      </c>
-      <c r="B6" t="s">
-        <v>622</v>
-      </c>
-      <c r="C6" s="1">
-        <v>44149</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>623</v>
-      </c>
-      <c r="C7" s="1">
-        <v>44149</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>637</v>
-      </c>
-      <c r="C8" s="1">
-        <v>44149</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>652</v>
-      </c>
-      <c r="C9" s="1">
-        <v>44149</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>653</v>
-      </c>
-      <c r="C10" s="1">
-        <v>44149</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>709</v>
-      </c>
-      <c r="C11" s="1">
-        <v>44149</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>710</v>
-      </c>
-      <c r="C12" s="1">
-        <v>44149</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>711</v>
-      </c>
-      <c r="C13" s="1">
-        <v>44150</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>651</v>
-      </c>
-      <c r="C14" s="1">
-        <v>44149</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>638</v>
-      </c>
-      <c r="C15" s="1">
-        <v>44149</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>713</v>
-      </c>
-      <c r="C16" s="1">
-        <v>44149</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>714</v>
-      </c>
-      <c r="C17" s="1">
-        <v>44150</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>715</v>
-      </c>
-      <c r="C18" s="1">
-        <v>44150</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>716</v>
-      </c>
-      <c r="C19" s="1">
-        <v>44150</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>717</v>
-      </c>
-      <c r="C20" s="1">
-        <v>44150</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>718</v>
-      </c>
-      <c r="C21" s="1">
-        <v>44150</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>719</v>
-      </c>
-      <c r="C22" s="1">
-        <v>44150</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>720</v>
-      </c>
-      <c r="C23" s="1">
-        <v>44150</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>362</v>
-      </c>
-      <c r="B33" t="s">
-        <v>363</v>
-      </c>
-      <c r="C33" s="1">
-        <v>44118</v>
-      </c>
-      <c r="D33" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>393</v>
-      </c>
-      <c r="C34" s="1">
-        <v>44119</v>
-      </c>
-      <c r="D34" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>394</v>
-      </c>
-      <c r="C35" s="1">
-        <v>44119</v>
-      </c>
-      <c r="D35" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>395</v>
-      </c>
-      <c r="C36" s="1">
-        <v>44119</v>
-      </c>
-      <c r="D36" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>396</v>
-      </c>
-      <c r="C37" s="1">
-        <v>44119</v>
-      </c>
-      <c r="D37" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>399</v>
-      </c>
-      <c r="C38" s="1">
-        <v>44119</v>
-      </c>
-      <c r="D38" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>398</v>
-      </c>
-      <c r="C39" s="1">
-        <v>44119</v>
-      </c>
-      <c r="D39" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>400</v>
-      </c>
-      <c r="C40" s="1">
-        <v>44119</v>
-      </c>
-      <c r="D40" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>401</v>
-      </c>
-      <c r="C41" s="1">
-        <v>44119</v>
-      </c>
-      <c r="D41" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>403</v>
-      </c>
-      <c r="C42" s="1">
-        <v>44119</v>
-      </c>
-      <c r="D42" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>404</v>
-      </c>
-      <c r="C43" s="1">
-        <v>44119</v>
-      </c>
-      <c r="D43" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>405</v>
-      </c>
-      <c r="C44" s="1">
-        <v>44119</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>406</v>
-      </c>
-      <c r="C45" s="1">
-        <v>44119</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>407</v>
-      </c>
-      <c r="C46" s="1">
-        <v>44119</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>408</v>
-      </c>
-      <c r="C47" s="1">
-        <v>44119</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>409</v>
-      </c>
-      <c r="C48" s="1">
-        <v>44119</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
-        <v>410</v>
-      </c>
-      <c r="C49" s="1">
-        <v>44119</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="6">
-        <v>4.3750000000000004E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="6">
-        <v>1.8749999999999999E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="6">
-        <v>6.5972222222222224E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="6">
-        <v>5.347222222222222E-2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="6">
-        <v>6.458333333333334E-2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="6">
-        <v>4.9305555555555554E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="6">
-        <v>5.5555555555555552E-2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="6">
-        <v>2.013888888888889E-2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="6">
-        <v>4.2361111111111106E-2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="6">
-        <v>5.6944444444444443E-2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="6">
-        <v>5.5555555555555552E-2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="6">
-        <v>2.7083333333333334E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="D12" r:id="rId1" xr:uid="{81E67725-028B-49EE-92E6-761A49C6C2BE}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8E95F3B-6A4B-4BEA-AE6E-74AD1B8176B1}">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>429</v>
-      </c>
-      <c r="C2" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>431</v>
-      </c>
-      <c r="C3" t="s">
-        <v>432</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006522413CC6A60D498B37CD3854731189" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d69901270e2274f32db97cbc48ae1c90">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3cb962350dbf3e80c84db518e6224f7c">
     <xsd:element name="properties">
@@ -21533,6 +21765,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -21543,15 +21781,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9E496BF-0A8B-43E4-AB12-4B2BAD91A9E6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8D81427-E7A1-4C0E-AF7A-68D6458FB4E3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -21567,6 +21796,15 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9E496BF-0A8B-43E4-AB12-4B2BAD91A9E6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52E299C4-492D-4E68-A807-C7DF706F8165}">
   <ds:schemaRefs>

--- a/My_Road.xlsx
+++ b/My_Road.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phill\wsl_share_folder\python_jupyter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B049D6-9669-4E3A-9E44-FEB47588C27C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A7FE601-0F1B-40BC-80E0-35417ED8AC35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13395" yWindow="2460" windowWidth="13275" windowHeight="9585" firstSheet="3" activeTab="5" xr2:uid="{2E3D5B4E-200F-40C0-9AC0-5A6D59069395}"/>
+    <workbookView xWindow="0" yWindow="2475" windowWidth="13275" windowHeight="7515" firstSheet="9" activeTab="12" xr2:uid="{2E3D5B4E-200F-40C0-9AC0-5A6D59069395}"/>
   </bookViews>
   <sheets>
     <sheet name="space_repetition" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,8 @@
     <sheet name="Tools" sheetId="7" r:id="rId11"/>
     <sheet name="SysExpert" sheetId="8" r:id="rId12"/>
     <sheet name="JS" sheetId="10" r:id="rId13"/>
-    <sheet name="Design" sheetId="11" r:id="rId14"/>
+    <sheet name="NodeJS" sheetId="18" r:id="rId14"/>
+    <sheet name="Design" sheetId="11" r:id="rId15"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Resource!$A$1:$E$155</definedName>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1967" uniqueCount="959">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1979" uniqueCount="968">
   <si>
     <t>Topic</t>
   </si>
@@ -2928,6 +2929,33 @@
   </si>
   <si>
     <t>Udacity Android</t>
+  </si>
+  <si>
+    <t>Part 01: Welcome to Your Nanodegree</t>
+  </si>
+  <si>
+    <t>Module 1</t>
+  </si>
+  <si>
+    <t>Module 2</t>
+  </si>
+  <si>
+    <t>Part 02: The Heist: Episode 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Udemy The complete javascript course: Frome Zeor to Expert</t>
+  </si>
+  <si>
+    <t>Udemy Node.js, Express, MongoDB &amp; More: The Complete Bootcamp 2020</t>
+  </si>
+  <si>
+    <t>7:  Javascript in the Browse:  DOM and Events Fundamentals</t>
+  </si>
+  <si>
+    <t>all 19 lectures</t>
   </si>
 </sst>
 </file>
@@ -15480,7 +15508,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{963D7DE2-4C5F-4EF4-A175-66E0345F9474}">
   <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
@@ -16238,68 +16266,66 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B102E085-AFB6-4AFF-9C82-74008326EE2A}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.5703125" customWidth="1"/>
     <col min="2" max="2" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>195</v>
+        <v>964</v>
       </c>
       <c r="B1" t="s">
-        <v>517</v>
-      </c>
-      <c r="C1" t="s">
-        <v>197</v>
+        <v>963</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>502</v>
+        <v>195</v>
       </c>
       <c r="B2" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="C2" t="s">
-        <v>514</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="B3" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C3" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="B4" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C4" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B5" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="C5" t="s">
         <v>516</v>
@@ -16307,18 +16333,40 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>521</v>
+        <v>519</v>
+      </c>
+      <c r="B6" t="s">
+        <v>520</v>
+      </c>
+      <c r="C6" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>522</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>510</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>523</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>966</v>
+      </c>
+      <c r="B9" t="s">
+        <v>967</v>
+      </c>
+      <c r="C9" s="1">
+        <v>43902</v>
       </c>
     </row>
   </sheetData>
@@ -16327,6 +16375,37 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2612FBC6-615A-42F6-8CB4-BC10B62CEC16}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B2" t="s">
+        <v>517</v>
+      </c>
+      <c r="C2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A655F9C-3632-45BC-9047-C697D974CA4B}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -18633,13 +18712,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{557FCFA4-995E-4135-810F-CE21313992CC}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -18658,6 +18740,35 @@
       </c>
       <c r="D2" t="s">
         <v>197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>960</v>
+      </c>
+      <c r="D4" s="1">
+        <v>44167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>961</v>
+      </c>
+      <c r="D5" s="1">
+        <v>44167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>962</v>
+      </c>
+      <c r="D6" s="1">
+        <v>44167</v>
       </c>
     </row>
   </sheetData>

--- a/My_Road.xlsx
+++ b/My_Road.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phill\wsl_share_folder\python_jupyter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A7FE601-0F1B-40BC-80E0-35417ED8AC35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF56C60-4513-40BA-A66C-0E494C22CE16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2475" windowWidth="13275" windowHeight="7515" firstSheet="9" activeTab="12" xr2:uid="{2E3D5B4E-200F-40C0-9AC0-5A6D59069395}"/>
+    <workbookView xWindow="2625" yWindow="2460" windowWidth="16170" windowHeight="12570" firstSheet="5" activeTab="6" xr2:uid="{2E3D5B4E-200F-40C0-9AC0-5A6D59069395}"/>
   </bookViews>
   <sheets>
     <sheet name="space_repetition" sheetId="2" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1979" uniqueCount="968">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2019" uniqueCount="993">
   <si>
     <t>Topic</t>
   </si>
@@ -2853,18 +2853,6 @@
     <t>Lesson 01: HTTP's Request/Response Cycle</t>
   </si>
   <si>
-    <t>const squares = [1, 2, 3, 4, 5, 6, 7, 8, 9, 10].map(function(square) {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        return square * square;</t>
-  </si>
-  <si>
-    <t>});</t>
-  </si>
-  <si>
-    <t>console.log(...squares);</t>
-  </si>
-  <si>
     <t>https://github.com/getify/You-Dont-Know-JS/blob/master/README.md</t>
   </si>
   <si>
@@ -2956,13 +2944,100 @@
   </si>
   <si>
     <t>all 19 lectures</t>
+  </si>
+  <si>
+    <t>8. How Javascript Works Behind the Scenes</t>
+  </si>
+  <si>
+    <t>all 14 lectures</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=kQDxmjfkIKY</t>
+  </si>
+  <si>
+    <t>python algorithms</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=LHBE6Q9XlzI</t>
+  </si>
+  <si>
+    <t>android basic</t>
+  </si>
+  <si>
+    <t>hthttps://classroom.udacity.com/courses/ud834tps://classroom.udacity.com/courses/ud834</t>
+  </si>
+  <si>
+    <t>https://classroom.udacity.com/courses/ud282</t>
+  </si>
+  <si>
+    <t>java basic</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=c9B4TPnak1A</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=oBt53YbR9Kk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=m_HJ3juuFvo</t>
+  </si>
+  <si>
+    <t>python data science</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=4jb4AYEyhRc</t>
+  </si>
+  <si>
+    <t>JS opp</t>
+  </si>
+  <si>
+    <t>JS promise</t>
+  </si>
+  <si>
+    <t>https://classroom.udacity.com/courses/ud898</t>
+  </si>
+  <si>
+    <t>https://classroom.udacity.com/courses/ud711/lessons/fd2e70b8-84b4-4793-a89e-78a695ecf89d/concepts/9354109e-3251-4a46-8aad-173f982429d9</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=3a0I8ICR1Vg</t>
+  </si>
+  <si>
+    <t>JS closure</t>
+  </si>
+  <si>
+    <t>https://classroom.udacity.com/courses/ud109</t>
+  </si>
+  <si>
+    <t>JS Async</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=QKfk7YFILws</t>
+  </si>
+  <si>
+    <t>network course</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=i40d8-Hu4vM</t>
+  </si>
+  <si>
+    <t>Jupyter application</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=OXE2a8dqIAI</t>
+  </si>
+  <si>
+    <t>Devops Crash Course</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qs3F-z6ridc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2992,9 +3067,14 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFFAFAFA"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -3036,7 +3116,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -3050,24 +3130,35 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -15492,10 +15583,10 @@
   <autoFilter ref="A1:N1" xr:uid="{F271AB01-250A-4FD7-9E2F-E0BCA2E9BA5A}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="E1:K1048576">
-    <cfRule type="timePeriod" dxfId="5" priority="2" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="6" priority="2" timePeriod="today">
       <formula>FLOOR(E1,1)=TODAY()</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="4" priority="3" timePeriod="tomorrow">
+    <cfRule type="timePeriod" dxfId="5" priority="3" timePeriod="tomorrow">
       <formula>FLOOR(E1,1)=TODAY()+1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15519,12 +15610,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="14" t="s">
         <v>355</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -16266,25 +16357,25 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B102E085-AFB6-4AFF-9C82-74008326EE2A}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.5703125" customWidth="1"/>
+    <col min="1" max="1" width="38.5703125" customWidth="1"/>
     <col min="2" max="2" width="27.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="B1" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -16360,12 +16451,23 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="B9" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="C9" s="1">
+        <v>43902</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>964</v>
+      </c>
+      <c r="B10" t="s">
+        <v>965</v>
+      </c>
+      <c r="C10" s="1">
         <v>43902</v>
       </c>
     </row>
@@ -16386,7 +16488,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -18539,7 +18641,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18595,7 +18697,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -18603,10 +18705,10 @@
         <v>921</v>
       </c>
       <c r="B2" t="s">
+        <v>940</v>
+      </c>
+      <c r="C2" t="s">
         <v>944</v>
-      </c>
-      <c r="C2" t="s">
-        <v>948</v>
       </c>
       <c r="D2" t="s">
         <v>197</v>
@@ -18614,10 +18716,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="B3" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="D3" s="1">
         <v>44166</v>
@@ -18625,13 +18727,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="B4" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="C4" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="D4" s="1">
         <v>44166</v>
@@ -18639,7 +18741,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="D5" s="1">
         <v>44166</v>
@@ -18647,10 +18749,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="C6" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="D6" s="1">
         <v>44166</v>
@@ -18658,7 +18760,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="D7" s="1">
         <v>44166</v>
@@ -18666,24 +18768,24 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="D8" s="1">
         <v>44166</v>
       </c>
       <c r="E8" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="B9" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="C9" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="D9" s="1">
         <v>44166</v>
@@ -18691,7 +18793,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="D10" s="1">
         <v>44167</v>
@@ -18699,7 +18801,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="D11" s="1">
         <v>44167</v>
@@ -18725,7 +18827,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -18733,10 +18835,10 @@
         <v>921</v>
       </c>
       <c r="B2" t="s">
+        <v>940</v>
+      </c>
+      <c r="C2" t="s">
         <v>944</v>
-      </c>
-      <c r="C2" t="s">
-        <v>948</v>
       </c>
       <c r="D2" t="s">
         <v>197</v>
@@ -18744,12 +18846,12 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="D4" s="1">
         <v>44167</v>
@@ -18757,7 +18859,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="D5" s="1">
         <v>44167</v>
@@ -18765,7 +18867,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="D6" s="1">
         <v>44167</v>
@@ -18778,10 +18880,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0545E0D-D3B3-4BE0-98F0-24229D8CDC62}">
-  <dimension ref="A1:E162"/>
+  <dimension ref="A1:E174"/>
   <sheetViews>
-    <sheetView topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="C158" sqref="C158"/>
+    <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
+      <selection activeCell="C175" sqref="C175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20720,46 +20822,186 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C157" t="s">
-        <v>938</v>
-      </c>
-      <c r="D157" s="15" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D158" s="14" t="s">
+        <v>934</v>
+      </c>
+      <c r="D157" s="13" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D159" s="14" t="s">
-        <v>934</v>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>640</v>
+      </c>
+      <c r="C158" t="s">
+        <v>967</v>
+      </c>
+      <c r="D158" s="13" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C159" t="s">
+        <v>969</v>
+      </c>
+      <c r="D159" t="s">
+        <v>970</v>
       </c>
     </row>
     <row r="160" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D160" s="14" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="161" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D161" s="13"/>
-    </row>
-    <row r="162" spans="4:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D162" s="14" t="s">
-        <v>936</v>
+      <c r="C160" t="s">
+        <v>972</v>
+      </c>
+      <c r="D160" s="15" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C161" t="s">
+        <v>668</v>
+      </c>
+      <c r="D161" s="16" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>640</v>
+      </c>
+      <c r="C162" t="s">
+        <v>789</v>
+      </c>
+      <c r="D162" s="15" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C163" t="s">
+        <v>745</v>
+      </c>
+      <c r="D163" s="17" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>640</v>
+      </c>
+      <c r="C164" t="s">
+        <v>976</v>
+      </c>
+      <c r="D164" s="17" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>535</v>
+      </c>
+      <c r="C165" t="s">
+        <v>978</v>
+      </c>
+      <c r="D165" s="17" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>535</v>
+      </c>
+      <c r="C166" t="s">
+        <v>979</v>
+      </c>
+      <c r="D166" s="17" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>535</v>
+      </c>
+      <c r="C167" t="s">
+        <v>978</v>
+      </c>
+      <c r="D167" s="17" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B168" t="s">
+        <v>547</v>
+      </c>
+      <c r="C168" t="s">
+        <v>535</v>
+      </c>
+      <c r="D168" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C169" t="s">
+        <v>983</v>
+      </c>
+      <c r="D169" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C170" t="s">
+        <v>985</v>
+      </c>
+      <c r="D170" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C171" t="s">
+        <v>987</v>
+      </c>
+      <c r="D171" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>542</v>
+      </c>
+      <c r="C172" t="s">
+        <v>989</v>
+      </c>
+      <c r="D172" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C173" t="s">
+        <v>991</v>
+      </c>
+      <c r="D173" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C174" t="s">
+        <v>978</v>
+      </c>
+      <c r="D174" t="s">
+        <v>992</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E155" xr:uid="{0BBF6E0D-5DA0-4F61-987B-70915CCFC313}"/>
   <conditionalFormatting sqref="D45 D47">
-    <cfRule type="timePeriod" dxfId="2" priority="2" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="3" priority="3" timePeriod="today">
       <formula>FLOOR(D45,1)=TODAY()</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="1" priority="3" timePeriod="tomorrow">
+    <cfRule type="timePeriod" dxfId="2" priority="4" timePeriod="tomorrow">
       <formula>FLOOR(D45,1)=TODAY()+1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D156 E1 E60:E61 D163:D1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D159">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
@@ -20772,21 +21014,22 @@
     <hyperlink ref="D63" r:id="rId7" xr:uid="{7127996F-3470-4C90-BEAA-8F508DEBD2E6}"/>
     <hyperlink ref="D64" r:id="rId8" xr:uid="{FDC526CF-47A0-48EA-AB80-49C4AC9E8DDD}"/>
     <hyperlink ref="D65" r:id="rId9" xr:uid="{E92E3D36-5A7D-4922-9F28-0437FF27B171}"/>
-    <hyperlink ref="D67" r:id="rId10" xr:uid="{033F050A-CAF6-4FFB-BCB1-4395A0FA5CEE}"/>
-    <hyperlink ref="D69" r:id="rId11" xr:uid="{F6292547-D050-48F9-AA14-673CC87BACE0}"/>
-    <hyperlink ref="D70" r:id="rId12" xr:uid="{45A29BB1-A819-4857-A02D-4EA3200DCD5C}"/>
-    <hyperlink ref="D72" r:id="rId13" xr:uid="{BFFCED72-7C63-4681-A477-A2AB79E699D6}"/>
-    <hyperlink ref="D74" r:id="rId14" xr:uid="{21E0017C-FACC-46B3-86C9-8DD30D6550DA}"/>
-    <hyperlink ref="D75" r:id="rId15" xr:uid="{3390F91D-0E16-4010-AF71-083917CB067B}"/>
-    <hyperlink ref="D87" r:id="rId16" xr:uid="{E0640045-D350-4704-8B38-A7CA09AFEE33}"/>
-    <hyperlink ref="D119" r:id="rId17" xr:uid="{F14892F1-F9B4-4267-AB89-217619BE2482}"/>
-    <hyperlink ref="D150" r:id="rId18" xr:uid="{102190B0-CF70-49F2-A39F-66C78A96FB15}"/>
-    <hyperlink ref="D152" r:id="rId19" xr:uid="{505EDDB9-40D5-47E1-9D8C-013F713BD7C4}"/>
-    <hyperlink ref="D38" r:id="rId20" xr:uid="{C084ABA3-CF1E-4809-BE2C-86DFE8193E88}"/>
-    <hyperlink ref="D157" r:id="rId21" xr:uid="{C93015A5-D388-4CCC-9CF3-F958606AB62A}"/>
+    <hyperlink ref="D69" r:id="rId10" xr:uid="{F6292547-D050-48F9-AA14-673CC87BACE0}"/>
+    <hyperlink ref="D70" r:id="rId11" xr:uid="{45A29BB1-A819-4857-A02D-4EA3200DCD5C}"/>
+    <hyperlink ref="D72" r:id="rId12" xr:uid="{BFFCED72-7C63-4681-A477-A2AB79E699D6}"/>
+    <hyperlink ref="D74" r:id="rId13" xr:uid="{21E0017C-FACC-46B3-86C9-8DD30D6550DA}"/>
+    <hyperlink ref="D75" r:id="rId14" xr:uid="{3390F91D-0E16-4010-AF71-083917CB067B}"/>
+    <hyperlink ref="D87" r:id="rId15" xr:uid="{E0640045-D350-4704-8B38-A7CA09AFEE33}"/>
+    <hyperlink ref="D119" r:id="rId16" xr:uid="{F14892F1-F9B4-4267-AB89-217619BE2482}"/>
+    <hyperlink ref="D150" r:id="rId17" xr:uid="{102190B0-CF70-49F2-A39F-66C78A96FB15}"/>
+    <hyperlink ref="D152" r:id="rId18" xr:uid="{505EDDB9-40D5-47E1-9D8C-013F713BD7C4}"/>
+    <hyperlink ref="D38" r:id="rId19" xr:uid="{C084ABA3-CF1E-4809-BE2C-86DFE8193E88}"/>
+    <hyperlink ref="D157" r:id="rId20" xr:uid="{C93015A5-D388-4CCC-9CF3-F958606AB62A}"/>
+    <hyperlink ref="D158" r:id="rId21" xr:uid="{118D45DB-3387-494A-AD94-219D2DFD410A}"/>
+    <hyperlink ref="D67" r:id="rId22" xr:uid="{033F050A-CAF6-4FFB-BCB1-4395A0FA5CEE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId22"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId23"/>
 </worksheet>
 </file>
 
@@ -20822,10 +21065,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="B2" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -20855,7 +21098,7 @@
         <v>44164</v>
       </c>
       <c r="E8" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -20908,12 +21151,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -21763,6 +22006,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006522413CC6A60D498B37CD3854731189" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d69901270e2274f32db97cbc48ae1c90">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3cb962350dbf3e80c84db518e6224f7c">
     <xsd:element name="properties">
@@ -21876,33 +22134,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8D81427-E7A1-4C0E-AF7A-68D6458FB4E3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52E299C4-492D-4E68-A807-C7DF706F8165}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -21917,9 +22152,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52E299C4-492D-4E68-A807-C7DF706F8165}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8D81427-E7A1-4C0E-AF7A-68D6458FB4E3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>